--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-20.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3070"/>
+  <dimension ref="A1:G2999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80299,10 +80299,8 @@
           <t>$12.1B</t>
         </is>
       </c>
-      <c r="G2940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2940" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2941">
@@ -80332,10 +80330,8 @@
         </is>
       </c>
       <c r="F2941" t="inlineStr"/>
-      <c r="G2941" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2941" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2942">
@@ -80361,10 +80357,8 @@
       </c>
       <c r="E2942" t="inlineStr"/>
       <c r="F2942" t="inlineStr"/>
-      <c r="G2942" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2942" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2943">
@@ -80390,10 +80384,8 @@
       </c>
       <c r="E2943" t="inlineStr"/>
       <c r="F2943" t="inlineStr"/>
-      <c r="G2943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2944">
@@ -80419,10 +80411,8 @@
       </c>
       <c r="E2944" t="inlineStr"/>
       <c r="F2944" t="inlineStr"/>
-      <c r="G2944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2944" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2945">
@@ -80448,10 +80438,8 @@
       </c>
       <c r="E2945" t="inlineStr"/>
       <c r="F2945" t="inlineStr"/>
-      <c r="G2945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2946">
@@ -80477,10 +80465,8 @@
       </c>
       <c r="E2946" t="inlineStr"/>
       <c r="F2946" t="inlineStr"/>
-      <c r="G2946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2947">
@@ -80514,10 +80500,8 @@
           <t>-0.3%</t>
         </is>
       </c>
-      <c r="G2947" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2947" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2948">
@@ -80547,10 +80531,8 @@
         </is>
       </c>
       <c r="F2948" t="inlineStr"/>
-      <c r="G2948" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2948" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2949">
@@ -80580,10 +80562,8 @@
         </is>
       </c>
       <c r="F2949" t="inlineStr"/>
-      <c r="G2949" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2949" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2950">
@@ -80609,10 +80589,8 @@
       </c>
       <c r="E2950" t="inlineStr"/>
       <c r="F2950" t="inlineStr"/>
-      <c r="G2950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2950" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2951">
@@ -80638,10 +80616,8 @@
       </c>
       <c r="E2951" t="inlineStr"/>
       <c r="F2951" t="inlineStr"/>
-      <c r="G2951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2951" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2952">
@@ -80667,10 +80643,8 @@
       </c>
       <c r="E2952" t="inlineStr"/>
       <c r="F2952" t="inlineStr"/>
-      <c r="G2952" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2952" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2953">
@@ -80700,10 +80674,8 @@
         </is>
       </c>
       <c r="F2953" t="inlineStr"/>
-      <c r="G2953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2953" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2954">
@@ -80729,10 +80701,8 @@
       </c>
       <c r="E2954" t="inlineStr"/>
       <c r="F2954" t="inlineStr"/>
-      <c r="G2954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2954" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2955">
@@ -80758,10 +80728,8 @@
       </c>
       <c r="E2955" t="inlineStr"/>
       <c r="F2955" t="inlineStr"/>
-      <c r="G2955" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2955" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2956">
@@ -80787,10 +80755,8 @@
       </c>
       <c r="E2956" t="inlineStr"/>
       <c r="F2956" t="inlineStr"/>
-      <c r="G2956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2956" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2957">
@@ -80812,10 +80778,8 @@
         </is>
       </c>
       <c r="F2957" t="inlineStr"/>
-      <c r="G2957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2957" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2958">
@@ -80841,10 +80805,8 @@
       </c>
       <c r="E2958" t="inlineStr"/>
       <c r="F2958" t="inlineStr"/>
-      <c r="G2958" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2958" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2959">
@@ -80870,10 +80832,8 @@
       </c>
       <c r="E2959" t="inlineStr"/>
       <c r="F2959" t="inlineStr"/>
-      <c r="G2959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2959" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2960">
@@ -80891,10 +80851,8 @@
       <c r="D2960" t="inlineStr"/>
       <c r="E2960" t="inlineStr"/>
       <c r="F2960" t="inlineStr"/>
-      <c r="G2960" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G2960" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2961">
@@ -80937,10 +80895,8 @@
           <t>245.0K</t>
         </is>
       </c>
-      <c r="G2962" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2962" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2963">
@@ -80970,10 +80926,8 @@
           <t>1967.0K</t>
         </is>
       </c>
-      <c r="G2963" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2963" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2964">
@@ -80999,10 +80953,8 @@
           <t>243.0K</t>
         </is>
       </c>
-      <c r="G2964" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2964" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2965">
@@ -81020,10 +80972,8 @@
       <c r="D2965" t="inlineStr"/>
       <c r="E2965" t="inlineStr"/>
       <c r="F2965" t="inlineStr"/>
-      <c r="G2965" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2965" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2966">
@@ -81049,10 +80999,8 @@
         </is>
       </c>
       <c r="F2966" t="inlineStr"/>
-      <c r="G2966" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2966" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2967">
@@ -81074,10 +81022,8 @@
       </c>
       <c r="E2967" t="inlineStr"/>
       <c r="F2967" t="inlineStr"/>
-      <c r="G2967" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2967" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2968">
@@ -81099,10 +81045,8 @@
       </c>
       <c r="E2968" t="inlineStr"/>
       <c r="F2968" t="inlineStr"/>
-      <c r="G2968" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2968" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2969">
@@ -81124,10 +81068,8 @@
       </c>
       <c r="E2969" t="inlineStr"/>
       <c r="F2969" t="inlineStr"/>
-      <c r="G2969" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2969" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2970">
@@ -81149,10 +81091,8 @@
       </c>
       <c r="E2970" t="inlineStr"/>
       <c r="F2970" t="inlineStr"/>
-      <c r="G2970" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2970" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2971">
@@ -81174,10 +81114,8 @@
       </c>
       <c r="E2971" t="inlineStr"/>
       <c r="F2971" t="inlineStr"/>
-      <c r="G2971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2971" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2972">
@@ -81195,40 +81133,62 @@
       <c r="D2972" t="inlineStr"/>
       <c r="E2972" t="inlineStr"/>
       <c r="F2972" t="inlineStr"/>
-      <c r="G2972" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2972" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2973">
       <c r="A2973" t="inlineStr">
         <is>
-          <t>Friday July 11 2025</t>
-        </is>
-      </c>
-      <c r="B2973" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B2973" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYJUN</t>
+        </is>
+      </c>
       <c r="C2973" t="inlineStr"/>
-      <c r="D2973" t="inlineStr"/>
+      <c r="D2973" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="E2973" t="inlineStr"/>
-      <c r="F2973" t="inlineStr"/>
-      <c r="G2973" t="inlineStr"/>
+      <c r="F2973" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="G2973" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2974">
       <c r="A2974" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2974" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>Business Inventories MoMMAY</t>
         </is>
       </c>
       <c r="C2974" t="inlineStr"/>
-      <c r="D2974" t="inlineStr"/>
+      <c r="D2974" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="E2974" t="inlineStr"/>
-      <c r="F2974" t="inlineStr"/>
+      <c r="F2974" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G2974" t="inlineStr">
         <is>
           <t>2</t>
@@ -81238,43 +81198,59 @@
     <row r="2975">
       <c r="A2975" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2975" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJUL/09</t>
+          <t>NAHB Housing Market IndexJUL</t>
         </is>
       </c>
       <c r="C2975" t="inlineStr"/>
       <c r="D2975" t="inlineStr">
         <is>
-          <t>$6.66T</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E2975" t="inlineStr"/>
-      <c r="F2975" t="inlineStr"/>
+      <c r="F2975" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
       <c r="G2975" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2976">
       <c r="A2976" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2976" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Retail Inventories Ex Autos MoMMAY</t>
         </is>
       </c>
       <c r="C2976" t="inlineStr"/>
-      <c r="D2976" t="inlineStr"/>
-      <c r="E2976" t="inlineStr"/>
-      <c r="F2976" t="inlineStr"/>
+      <c r="D2976" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E2976" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F2976" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G2976" t="inlineStr">
         <is>
           <t>3</t>
@@ -81284,20 +81260,16 @@
     <row r="2977">
       <c r="A2977" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2977" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUL/11</t>
+          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C2977" t="inlineStr"/>
-      <c r="D2977" t="inlineStr">
-        <is>
-          <t>425</t>
-        </is>
-      </c>
+      <c r="D2977" t="inlineStr"/>
       <c r="E2977" t="inlineStr"/>
       <c r="F2977" t="inlineStr"/>
       <c r="G2977" t="inlineStr">
@@ -81309,20 +81281,16 @@
     <row r="2978">
       <c r="A2978" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2978" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUL/11</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2978" t="inlineStr"/>
-      <c r="D2978" t="inlineStr">
-        <is>
-          <t>539</t>
-        </is>
-      </c>
+      <c r="D2978" t="inlineStr"/>
       <c r="E2978" t="inlineStr"/>
       <c r="F2978" t="inlineStr"/>
       <c r="G2978" t="inlineStr">
@@ -81334,180 +81302,172 @@
     <row r="2979">
       <c r="A2979" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2979" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementJUN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2979" t="inlineStr"/>
-      <c r="D2979" t="inlineStr">
-        <is>
-          <t>$-316B</t>
-        </is>
-      </c>
-      <c r="E2979" t="inlineStr">
-        <is>
-          <t>$-11B</t>
-        </is>
-      </c>
-      <c r="F2979" t="inlineStr">
-        <is>
-          <t>$-350.0B</t>
-        </is>
-      </c>
+      <c r="D2979" t="inlineStr"/>
+      <c r="E2979" t="inlineStr"/>
+      <c r="F2979" t="inlineStr"/>
       <c r="G2979" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2980">
       <c r="A2980" t="inlineStr">
         <is>
-          <t>Saturday July 12 2025</t>
-        </is>
-      </c>
-      <c r="B2980" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B2980" t="inlineStr">
+        <is>
+          <t>15-Year Mortgage RateJUL/17</t>
+        </is>
+      </c>
       <c r="C2980" t="inlineStr"/>
       <c r="D2980" t="inlineStr"/>
       <c r="E2980" t="inlineStr"/>
       <c r="F2980" t="inlineStr"/>
-      <c r="G2980" t="inlineStr"/>
+      <c r="G2980" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2981">
       <c r="A2981" t="inlineStr">
         <is>
-          <t>Monday July 14 2025</t>
-        </is>
-      </c>
-      <c r="B2981" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B2981" t="inlineStr">
+        <is>
+          <t>30-Year Mortgage RateJUL/17</t>
+        </is>
+      </c>
       <c r="C2981" t="inlineStr"/>
       <c r="D2981" t="inlineStr"/>
       <c r="E2981" t="inlineStr"/>
       <c r="F2981" t="inlineStr"/>
-      <c r="G2981" t="inlineStr"/>
+      <c r="G2981" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2982">
       <c r="A2982" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2982" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
+          <t>Friday July 18 2025</t>
+        </is>
+      </c>
+      <c r="B2982" t="inlineStr"/>
       <c r="C2982" t="inlineStr"/>
-      <c r="D2982" t="inlineStr">
-        <is>
-          <t>4.255%</t>
-        </is>
-      </c>
+      <c r="D2982" t="inlineStr"/>
       <c r="E2982" t="inlineStr"/>
       <c r="F2982" t="inlineStr"/>
-      <c r="G2982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2982" t="inlineStr"/>
     </row>
     <row r="2983">
       <c r="A2983" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2983" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Net Long-term TIC FlowsMAY</t>
         </is>
       </c>
       <c r="C2983" t="inlineStr"/>
       <c r="D2983" t="inlineStr">
         <is>
-          <t>4.145%</t>
+          <t>$-7.8B</t>
         </is>
       </c>
       <c r="E2983" t="inlineStr"/>
       <c r="F2983" t="inlineStr"/>
       <c r="G2983" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2984">
       <c r="A2984" t="inlineStr">
         <is>
-          <t>Tuesday July 15 2025</t>
-        </is>
-      </c>
-      <c r="B2984" t="inlineStr"/>
+          <t>01:30 AM</t>
+        </is>
+      </c>
+      <c r="B2984" t="inlineStr">
+        <is>
+          <t>Foreign Bond InvestmentMAY</t>
+        </is>
+      </c>
       <c r="C2984" t="inlineStr"/>
-      <c r="D2984" t="inlineStr"/>
+      <c r="D2984" t="inlineStr">
+        <is>
+          <t>$-40.8B</t>
+        </is>
+      </c>
       <c r="E2984" t="inlineStr"/>
       <c r="F2984" t="inlineStr"/>
-      <c r="G2984" t="inlineStr"/>
+      <c r="G2984" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2985">
       <c r="A2985" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2985" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJUN</t>
+          <t>Overall Net Capital FlowsMAY</t>
         </is>
       </c>
       <c r="C2985" t="inlineStr"/>
       <c r="D2985" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>$-14.2B</t>
         </is>
       </c>
       <c r="E2985" t="inlineStr"/>
-      <c r="F2985" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F2985" t="inlineStr"/>
       <c r="G2985" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2986">
       <c r="A2986" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2986" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJUN</t>
+          <t>Fed Balance SheetJUL/16</t>
         </is>
       </c>
       <c r="C2986" t="inlineStr"/>
-      <c r="D2986" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="D2986" t="inlineStr"/>
       <c r="E2986" t="inlineStr"/>
-      <c r="F2986" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+      <c r="F2986" t="inlineStr"/>
       <c r="G2986" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -81519,19 +81479,19 @@
       </c>
       <c r="B2987" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJUN</t>
+          <t>Building Permits PrelJUN</t>
         </is>
       </c>
       <c r="C2987" t="inlineStr"/>
       <c r="D2987" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.394M</t>
         </is>
       </c>
       <c r="E2987" t="inlineStr"/>
       <c r="F2987" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.37M</t>
         </is>
       </c>
       <c r="G2987" t="inlineStr">
@@ -81548,19 +81508,19 @@
       </c>
       <c r="B2988" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJUN</t>
+          <t>Housing StartsJUN</t>
         </is>
       </c>
       <c r="C2988" t="inlineStr"/>
       <c r="D2988" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>1.256M</t>
         </is>
       </c>
       <c r="E2988" t="inlineStr"/>
       <c r="F2988" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>1.29M</t>
         </is>
       </c>
       <c r="G2988" t="inlineStr">
@@ -81577,19 +81537,19 @@
       </c>
       <c r="B2989" t="inlineStr">
         <is>
-          <t>CPIJUN</t>
+          <t>Building Permits MoM PrelJUN</t>
         </is>
       </c>
       <c r="C2989" t="inlineStr"/>
       <c r="D2989" t="inlineStr">
         <is>
-          <t>321.465</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="E2989" t="inlineStr"/>
       <c r="F2989" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="G2989" t="inlineStr">
@@ -81606,19 +81566,19 @@
       </c>
       <c r="B2990" t="inlineStr">
         <is>
-          <t>CPI s.aJUN</t>
+          <t>Housing Starts MoMJUN</t>
         </is>
       </c>
       <c r="C2990" t="inlineStr"/>
       <c r="D2990" t="inlineStr">
         <is>
-          <t>320.580</t>
+          <t>-9.8%</t>
         </is>
       </c>
       <c r="E2990" t="inlineStr"/>
       <c r="F2990" t="inlineStr">
         <is>
-          <t>321.2</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="G2990" t="inlineStr">
@@ -81630,51 +81590,55 @@
     <row r="2991">
       <c r="A2991" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2991" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexJUL</t>
+          <t>Michigan Consumer Sentiment PrelJUL</t>
         </is>
       </c>
       <c r="C2991" t="inlineStr"/>
       <c r="D2991" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>60.7</t>
         </is>
       </c>
       <c r="E2991" t="inlineStr"/>
       <c r="F2991" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>60.5</t>
         </is>
       </c>
       <c r="G2991" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2992">
       <c r="A2992" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2992" t="inlineStr">
         <is>
-          <t>Redbook YoYJUL/12</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C2992" t="inlineStr"/>
       <c r="D2992" t="inlineStr">
         <is>
-          <t>5.9%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="E2992" t="inlineStr"/>
-      <c r="F2992" t="inlineStr"/>
+      <c r="F2992" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
       <c r="G2992" t="inlineStr">
         <is>
           <t>3</t>
@@ -81684,18 +81648,26 @@
     <row r="2993">
       <c r="A2993" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2993" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Michigan Consumer Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C2993" t="inlineStr"/>
-      <c r="D2993" t="inlineStr"/>
+      <c r="D2993" t="inlineStr">
+        <is>
+          <t>58.1</t>
+        </is>
+      </c>
       <c r="E2993" t="inlineStr"/>
-      <c r="F2993" t="inlineStr"/>
+      <c r="F2993" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
       <c r="G2993" t="inlineStr">
         <is>
           <t>3</t>
@@ -81705,83 +81677,95 @@
     <row r="2994">
       <c r="A2994" t="inlineStr">
         <is>
-          <t>Wednesday July 16 2025</t>
-        </is>
-      </c>
-      <c r="B2994" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B2994" t="inlineStr">
+        <is>
+          <t>Michigan Current Conditions PrelJUL</t>
+        </is>
+      </c>
       <c r="C2994" t="inlineStr"/>
-      <c r="D2994" t="inlineStr"/>
+      <c r="D2994" t="inlineStr">
+        <is>
+          <t>64.8</t>
+        </is>
+      </c>
       <c r="E2994" t="inlineStr"/>
-      <c r="F2994" t="inlineStr"/>
-      <c r="G2994" t="inlineStr"/>
+      <c r="F2994" t="inlineStr">
+        <is>
+          <t>64.6</t>
+        </is>
+      </c>
+      <c r="G2994" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2995">
       <c r="A2995" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2995" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJUL/11</t>
+          <t>Michigan Inflation Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C2995" t="inlineStr"/>
       <c r="D2995" t="inlineStr">
         <is>
-          <t>7.1M</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="E2995" t="inlineStr"/>
-      <c r="F2995" t="inlineStr"/>
+      <c r="F2995" t="inlineStr">
+        <is>
+          <t>4.7%</t>
+        </is>
+      </c>
       <c r="G2995" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2996">
       <c r="A2996" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2996" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJUL/11</t>
+          <t>Baker Hughes Oil Rig CountJUL/18</t>
         </is>
       </c>
       <c r="C2996" t="inlineStr"/>
-      <c r="D2996" t="inlineStr">
-        <is>
-          <t>6.77%</t>
-        </is>
-      </c>
+      <c r="D2996" t="inlineStr"/>
       <c r="E2996" t="inlineStr"/>
       <c r="F2996" t="inlineStr"/>
       <c r="G2996" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2997">
       <c r="A2997" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2997" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJUL/11</t>
+          <t>Baker Hughes Total Rigs CountJUL/18</t>
         </is>
       </c>
       <c r="C2997" t="inlineStr"/>
-      <c r="D2997" t="inlineStr">
-        <is>
-          <t>9.4%</t>
-        </is>
-      </c>
+      <c r="D2997" t="inlineStr"/>
       <c r="E2997" t="inlineStr"/>
       <c r="F2997" t="inlineStr"/>
       <c r="G2997" t="inlineStr">
@@ -81793,1863 +81777,28 @@
     <row r="2998">
       <c r="A2998" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2998" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJUL/11</t>
-        </is>
-      </c>
+          <t>Saturday July 19 2025</t>
+        </is>
+      </c>
+      <c r="B2998" t="inlineStr"/>
       <c r="C2998" t="inlineStr"/>
-      <c r="D2998" t="inlineStr">
-        <is>
-          <t>281.6</t>
-        </is>
-      </c>
+      <c r="D2998" t="inlineStr"/>
       <c r="E2998" t="inlineStr"/>
       <c r="F2998" t="inlineStr"/>
-      <c r="G2998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2998" t="inlineStr"/>
     </row>
     <row r="2999">
       <c r="A2999" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2999" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJUL/11</t>
-        </is>
-      </c>
+          <t>Sunday July 20 2025</t>
+        </is>
+      </c>
+      <c r="B2999" t="inlineStr"/>
       <c r="C2999" t="inlineStr"/>
-      <c r="D2999" t="inlineStr">
-        <is>
-          <t>829.3</t>
-        </is>
-      </c>
+      <c r="D2999" t="inlineStr"/>
       <c r="E2999" t="inlineStr"/>
       <c r="F2999" t="inlineStr"/>
-      <c r="G2999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3000">
-      <c r="A3000" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B3000" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJUL/11</t>
-        </is>
-      </c>
-      <c r="C3000" t="inlineStr"/>
-      <c r="D3000" t="inlineStr">
-        <is>
-          <t>180.9</t>
-        </is>
-      </c>
-      <c r="E3000" t="inlineStr"/>
-      <c r="F3000" t="inlineStr"/>
-      <c r="G3000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3001">
-      <c r="A3001" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3001" t="inlineStr">
-        <is>
-          <t>PPI MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3001" t="inlineStr"/>
-      <c r="D3001" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E3001" t="inlineStr"/>
-      <c r="F3001" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G3001" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3002">
-      <c r="A3002" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3002" t="inlineStr">
-        <is>
-          <t>Core PPI MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3002" t="inlineStr"/>
-      <c r="D3002" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E3002" t="inlineStr"/>
-      <c r="F3002" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G3002" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3003">
-      <c r="A3003" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3003" t="inlineStr">
-        <is>
-          <t>Core PPI YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3003" t="inlineStr"/>
-      <c r="D3003" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E3003" t="inlineStr"/>
-      <c r="F3003" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="G3003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3004">
-      <c r="A3004" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3004" t="inlineStr">
-        <is>
-          <t>PPIJUN</t>
-        </is>
-      </c>
-      <c r="C3004" t="inlineStr"/>
-      <c r="D3004" t="inlineStr">
-        <is>
-          <t>148.072</t>
-        </is>
-      </c>
-      <c r="E3004" t="inlineStr"/>
-      <c r="F3004" t="inlineStr">
-        <is>
-          <t>148.9</t>
-        </is>
-      </c>
-      <c r="G3004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3005">
-      <c r="A3005" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3005" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3005" t="inlineStr"/>
-      <c r="D3005" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E3005" t="inlineStr"/>
-      <c r="F3005" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G3005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3006">
-      <c r="A3006" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3006" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3006" t="inlineStr"/>
-      <c r="D3006" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="E3006" t="inlineStr"/>
-      <c r="F3006" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G3006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3007">
-      <c r="A3007" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3007" t="inlineStr">
-        <is>
-          <t>PPI YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3007" t="inlineStr"/>
-      <c r="D3007" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="E3007" t="inlineStr"/>
-      <c r="F3007" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G3007" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3008">
-      <c r="A3008" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B3008" t="inlineStr">
-        <is>
-          <t>Fed Hammack Speech</t>
-        </is>
-      </c>
-      <c r="C3008" t="inlineStr"/>
-      <c r="D3008" t="inlineStr"/>
-      <c r="E3008" t="inlineStr"/>
-      <c r="F3008" t="inlineStr"/>
-      <c r="G3008" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3009">
-      <c r="A3009" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B3009" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3009" t="inlineStr"/>
-      <c r="D3009" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E3009" t="inlineStr"/>
-      <c r="F3009" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G3009" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3010">
-      <c r="A3010" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B3010" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationJUN</t>
-        </is>
-      </c>
-      <c r="C3010" t="inlineStr"/>
-      <c r="D3010" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
-      <c r="E3010" t="inlineStr"/>
-      <c r="F3010" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
-      <c r="G3010" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3011">
-      <c r="A3011" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B3011" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3011" t="inlineStr"/>
-      <c r="D3011" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E3011" t="inlineStr"/>
-      <c r="F3011" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="G3011" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3012">
-      <c r="A3012" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B3012" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3012" t="inlineStr"/>
-      <c r="D3012" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E3012" t="inlineStr"/>
-      <c r="F3012" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G3012" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3013">
-      <c r="A3013" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B3013" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3013" t="inlineStr"/>
-      <c r="D3013" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E3013" t="inlineStr"/>
-      <c r="F3013" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G3013" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3014">
-      <c r="A3014" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3014" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3014" t="inlineStr"/>
-      <c r="D3014" t="inlineStr">
-        <is>
-          <t>7.07M</t>
-        </is>
-      </c>
-      <c r="E3014" t="inlineStr"/>
-      <c r="F3014" t="inlineStr"/>
-      <c r="G3014" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3015">
-      <c r="A3015" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3015" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3015" t="inlineStr"/>
-      <c r="D3015" t="inlineStr">
-        <is>
-          <t>-2.658M</t>
-        </is>
-      </c>
-      <c r="E3015" t="inlineStr"/>
-      <c r="F3015" t="inlineStr"/>
-      <c r="G3015" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3016">
-      <c r="A3016" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3016" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3016" t="inlineStr"/>
-      <c r="D3016" t="inlineStr">
-        <is>
-          <t>-1.358M</t>
-        </is>
-      </c>
-      <c r="E3016" t="inlineStr"/>
-      <c r="F3016" t="inlineStr"/>
-      <c r="G3016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3017">
-      <c r="A3017" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3017" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3017" t="inlineStr"/>
-      <c r="D3017" t="inlineStr">
-        <is>
-          <t>0.464M</t>
-        </is>
-      </c>
-      <c r="E3017" t="inlineStr"/>
-      <c r="F3017" t="inlineStr"/>
-      <c r="G3017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3018">
-      <c r="A3018" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3018" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3018" t="inlineStr"/>
-      <c r="D3018" t="inlineStr">
-        <is>
-          <t>0.059M</t>
-        </is>
-      </c>
-      <c r="E3018" t="inlineStr"/>
-      <c r="F3018" t="inlineStr"/>
-      <c r="G3018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3019">
-      <c r="A3019" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3019" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3019" t="inlineStr"/>
-      <c r="D3019" t="inlineStr">
-        <is>
-          <t>-0.825M</t>
-        </is>
-      </c>
-      <c r="E3019" t="inlineStr"/>
-      <c r="F3019" t="inlineStr"/>
-      <c r="G3019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3020">
-      <c r="A3020" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3020" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3020" t="inlineStr"/>
-      <c r="D3020" t="inlineStr">
-        <is>
-          <t>0.278M</t>
-        </is>
-      </c>
-      <c r="E3020" t="inlineStr"/>
-      <c r="F3020" t="inlineStr"/>
-      <c r="G3020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3021">
-      <c r="A3021" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3021" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3021" t="inlineStr"/>
-      <c r="D3021" t="inlineStr">
-        <is>
-          <t>0.603M</t>
-        </is>
-      </c>
-      <c r="E3021" t="inlineStr"/>
-      <c r="F3021" t="inlineStr"/>
-      <c r="G3021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3022">
-      <c r="A3022" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3022" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3022" t="inlineStr"/>
-      <c r="D3022" t="inlineStr">
-        <is>
-          <t>-0.099M</t>
-        </is>
-      </c>
-      <c r="E3022" t="inlineStr"/>
-      <c r="F3022" t="inlineStr"/>
-      <c r="G3022" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3023">
-      <c r="A3023" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B3023" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C3023" t="inlineStr"/>
-      <c r="D3023" t="inlineStr"/>
-      <c r="E3023" t="inlineStr"/>
-      <c r="F3023" t="inlineStr"/>
-      <c r="G3023" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3024">
-      <c r="A3024" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B3024" t="inlineStr">
-        <is>
-          <t>Fed Beige Book</t>
-        </is>
-      </c>
-      <c r="C3024" t="inlineStr"/>
-      <c r="D3024" t="inlineStr"/>
-      <c r="E3024" t="inlineStr"/>
-      <c r="F3024" t="inlineStr"/>
-      <c r="G3024" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3025">
-      <c r="A3025" t="inlineStr">
-        <is>
-          <t>Thursday July 17 2025</t>
-        </is>
-      </c>
-      <c r="B3025" t="inlineStr"/>
-      <c r="C3025" t="inlineStr"/>
-      <c r="D3025" t="inlineStr"/>
-      <c r="E3025" t="inlineStr"/>
-      <c r="F3025" t="inlineStr"/>
-      <c r="G3025" t="inlineStr"/>
-    </row>
-    <row r="3026">
-      <c r="A3026" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B3026" t="inlineStr">
-        <is>
-          <t>Fed Williams Speech</t>
-        </is>
-      </c>
-      <c r="C3026" t="inlineStr"/>
-      <c r="D3026" t="inlineStr"/>
-      <c r="E3026" t="inlineStr"/>
-      <c r="F3026" t="inlineStr"/>
-      <c r="G3026" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3027">
-      <c r="A3027" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3027" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3027" t="inlineStr"/>
-      <c r="D3027" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E3027" t="inlineStr"/>
-      <c r="F3027" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G3027" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3028">
-      <c r="A3028" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3028" t="inlineStr">
-        <is>
-          <t>Export Prices MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3028" t="inlineStr"/>
-      <c r="D3028" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E3028" t="inlineStr"/>
-      <c r="F3028" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G3028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3029">
-      <c r="A3029" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3029" t="inlineStr">
-        <is>
-          <t>Import Prices MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3029" t="inlineStr"/>
-      <c r="D3029" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E3029" t="inlineStr"/>
-      <c r="F3029" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G3029" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3030">
-      <c r="A3030" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3030" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUL/12</t>
-        </is>
-      </c>
-      <c r="C3030" t="inlineStr"/>
-      <c r="D3030" t="inlineStr"/>
-      <c r="E3030" t="inlineStr"/>
-      <c r="F3030" t="inlineStr"/>
-      <c r="G3030" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3031">
-      <c r="A3031" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3031" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexJUL</t>
-        </is>
-      </c>
-      <c r="C3031" t="inlineStr"/>
-      <c r="D3031" t="inlineStr">
-        <is>
-          <t>-4.0</t>
-        </is>
-      </c>
-      <c r="E3031" t="inlineStr"/>
-      <c r="F3031" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="G3031" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3032">
-      <c r="A3032" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3032" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3032" t="inlineStr"/>
-      <c r="D3032" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E3032" t="inlineStr"/>
-      <c r="F3032" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G3032" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3033">
-      <c r="A3033" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3033" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3033" t="inlineStr"/>
-      <c r="D3033" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E3033" t="inlineStr"/>
-      <c r="F3033" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G3033" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3034">
-      <c r="A3034" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3034" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJUL/05</t>
-        </is>
-      </c>
-      <c r="C3034" t="inlineStr"/>
-      <c r="D3034" t="inlineStr"/>
-      <c r="E3034" t="inlineStr"/>
-      <c r="F3034" t="inlineStr">
-        <is>
-          <t>1970.0K</t>
-        </is>
-      </c>
-      <c r="G3034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3035">
-      <c r="A3035" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3035" t="inlineStr">
-        <is>
-          <t>Export Prices YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3035" t="inlineStr"/>
-      <c r="D3035" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="E3035" t="inlineStr"/>
-      <c r="F3035" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G3035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3036">
-      <c r="A3036" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3036" t="inlineStr">
-        <is>
-          <t>Import Prices YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3036" t="inlineStr"/>
-      <c r="D3036" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E3036" t="inlineStr"/>
-      <c r="F3036" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G3036" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3037">
-      <c r="A3037" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3037" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUL/12</t>
-        </is>
-      </c>
-      <c r="C3037" t="inlineStr"/>
-      <c r="D3037" t="inlineStr"/>
-      <c r="E3037" t="inlineStr"/>
-      <c r="F3037" t="inlineStr"/>
-      <c r="G3037" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3038">
-      <c r="A3038" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3038" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsJUL</t>
-        </is>
-      </c>
-      <c r="C3038" t="inlineStr"/>
-      <c r="D3038" t="inlineStr">
-        <is>
-          <t>18.3</t>
-        </is>
-      </c>
-      <c r="E3038" t="inlineStr"/>
-      <c r="F3038" t="inlineStr"/>
-      <c r="G3038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3039">
-      <c r="A3039" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3039" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexJUL</t>
-        </is>
-      </c>
-      <c r="C3039" t="inlineStr"/>
-      <c r="D3039" t="inlineStr">
-        <is>
-          <t>14.50</t>
-        </is>
-      </c>
-      <c r="E3039" t="inlineStr"/>
-      <c r="F3039" t="inlineStr"/>
-      <c r="G3039" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3040">
-      <c r="A3040" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3040" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentJUL</t>
-        </is>
-      </c>
-      <c r="C3040" t="inlineStr"/>
-      <c r="D3040" t="inlineStr">
-        <is>
-          <t>-9.8</t>
-        </is>
-      </c>
-      <c r="E3040" t="inlineStr"/>
-      <c r="F3040" t="inlineStr"/>
-      <c r="G3040" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3041">
-      <c r="A3041" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3041" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersJUL</t>
-        </is>
-      </c>
-      <c r="C3041" t="inlineStr"/>
-      <c r="D3041" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="E3041" t="inlineStr"/>
-      <c r="F3041" t="inlineStr"/>
-      <c r="G3041" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3042">
-      <c r="A3042" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3042" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidJUL</t>
-        </is>
-      </c>
-      <c r="C3042" t="inlineStr"/>
-      <c r="D3042" t="inlineStr">
-        <is>
-          <t>41.40</t>
-        </is>
-      </c>
-      <c r="E3042" t="inlineStr"/>
-      <c r="F3042" t="inlineStr"/>
-      <c r="G3042" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3043">
-      <c r="A3043" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3043" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3043" t="inlineStr"/>
-      <c r="D3043" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E3043" t="inlineStr"/>
-      <c r="F3043" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G3043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3044">
-      <c r="A3044" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3044" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3044" t="inlineStr"/>
-      <c r="D3044" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E3044" t="inlineStr"/>
-      <c r="F3044" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G3044" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3045">
-      <c r="A3045" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3045" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMMAY</t>
-        </is>
-      </c>
-      <c r="C3045" t="inlineStr"/>
-      <c r="D3045" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E3045" t="inlineStr"/>
-      <c r="F3045" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G3045" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3046">
-      <c r="A3046" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3046" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexJUL</t>
-        </is>
-      </c>
-      <c r="C3046" t="inlineStr"/>
-      <c r="D3046" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="E3046" t="inlineStr"/>
-      <c r="F3046" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="G3046" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3047">
-      <c r="A3047" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3047" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMMAY</t>
-        </is>
-      </c>
-      <c r="C3047" t="inlineStr"/>
-      <c r="D3047" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E3047" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F3047" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G3047" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3048">
-      <c r="A3048" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3048" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3048" t="inlineStr"/>
-      <c r="D3048" t="inlineStr"/>
-      <c r="E3048" t="inlineStr"/>
-      <c r="F3048" t="inlineStr"/>
-      <c r="G3048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3049">
-      <c r="A3049" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B3049" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C3049" t="inlineStr"/>
-      <c r="D3049" t="inlineStr"/>
-      <c r="E3049" t="inlineStr"/>
-      <c r="F3049" t="inlineStr"/>
-      <c r="G3049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3050">
-      <c r="A3050" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B3050" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C3050" t="inlineStr"/>
-      <c r="D3050" t="inlineStr"/>
-      <c r="E3050" t="inlineStr"/>
-      <c r="F3050" t="inlineStr"/>
-      <c r="G3050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3051">
-      <c r="A3051" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B3051" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUL/17</t>
-        </is>
-      </c>
-      <c r="C3051" t="inlineStr"/>
-      <c r="D3051" t="inlineStr"/>
-      <c r="E3051" t="inlineStr"/>
-      <c r="F3051" t="inlineStr"/>
-      <c r="G3051" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3052">
-      <c r="A3052" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B3052" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUL/17</t>
-        </is>
-      </c>
-      <c r="C3052" t="inlineStr"/>
-      <c r="D3052" t="inlineStr"/>
-      <c r="E3052" t="inlineStr"/>
-      <c r="F3052" t="inlineStr"/>
-      <c r="G3052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3053">
-      <c r="A3053" t="inlineStr">
-        <is>
-          <t>Friday July 18 2025</t>
-        </is>
-      </c>
-      <c r="B3053" t="inlineStr"/>
-      <c r="C3053" t="inlineStr"/>
-      <c r="D3053" t="inlineStr"/>
-      <c r="E3053" t="inlineStr"/>
-      <c r="F3053" t="inlineStr"/>
-      <c r="G3053" t="inlineStr"/>
-    </row>
-    <row r="3054">
-      <c r="A3054" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B3054" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsMAY</t>
-        </is>
-      </c>
-      <c r="C3054" t="inlineStr"/>
-      <c r="D3054" t="inlineStr">
-        <is>
-          <t>$-7.8B</t>
-        </is>
-      </c>
-      <c r="E3054" t="inlineStr"/>
-      <c r="F3054" t="inlineStr"/>
-      <c r="G3054" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3055">
-      <c r="A3055" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B3055" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentMAY</t>
-        </is>
-      </c>
-      <c r="C3055" t="inlineStr"/>
-      <c r="D3055" t="inlineStr">
-        <is>
-          <t>$-40.8B</t>
-        </is>
-      </c>
-      <c r="E3055" t="inlineStr"/>
-      <c r="F3055" t="inlineStr"/>
-      <c r="G3055" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3056">
-      <c r="A3056" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B3056" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsMAY</t>
-        </is>
-      </c>
-      <c r="C3056" t="inlineStr"/>
-      <c r="D3056" t="inlineStr">
-        <is>
-          <t>$-14.2B</t>
-        </is>
-      </c>
-      <c r="E3056" t="inlineStr"/>
-      <c r="F3056" t="inlineStr"/>
-      <c r="G3056" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3057">
-      <c r="A3057" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B3057" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUL/16</t>
-        </is>
-      </c>
-      <c r="C3057" t="inlineStr"/>
-      <c r="D3057" t="inlineStr"/>
-      <c r="E3057" t="inlineStr"/>
-      <c r="F3057" t="inlineStr"/>
-      <c r="G3057" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3058">
-      <c r="A3058" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3058" t="inlineStr">
-        <is>
-          <t>Building Permits PrelJUN</t>
-        </is>
-      </c>
-      <c r="C3058" t="inlineStr"/>
-      <c r="D3058" t="inlineStr">
-        <is>
-          <t>1.394M</t>
-        </is>
-      </c>
-      <c r="E3058" t="inlineStr"/>
-      <c r="F3058" t="inlineStr">
-        <is>
-          <t>1.37M</t>
-        </is>
-      </c>
-      <c r="G3058" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3059">
-      <c r="A3059" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3059" t="inlineStr">
-        <is>
-          <t>Housing StartsJUN</t>
-        </is>
-      </c>
-      <c r="C3059" t="inlineStr"/>
-      <c r="D3059" t="inlineStr">
-        <is>
-          <t>1.256M</t>
-        </is>
-      </c>
-      <c r="E3059" t="inlineStr"/>
-      <c r="F3059" t="inlineStr">
-        <is>
-          <t>1.29M</t>
-        </is>
-      </c>
-      <c r="G3059" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3060">
-      <c r="A3060" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3060" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelJUN</t>
-        </is>
-      </c>
-      <c r="C3060" t="inlineStr"/>
-      <c r="D3060" t="inlineStr">
-        <is>
-          <t>-2%</t>
-        </is>
-      </c>
-      <c r="E3060" t="inlineStr"/>
-      <c r="F3060" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="G3060" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3061">
-      <c r="A3061" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3061" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3061" t="inlineStr"/>
-      <c r="D3061" t="inlineStr">
-        <is>
-          <t>-9.8%</t>
-        </is>
-      </c>
-      <c r="E3061" t="inlineStr"/>
-      <c r="F3061" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G3061" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3062">
-      <c r="A3062" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3062" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3062" t="inlineStr"/>
-      <c r="D3062" t="inlineStr">
-        <is>
-          <t>60.7</t>
-        </is>
-      </c>
-      <c r="E3062" t="inlineStr"/>
-      <c r="F3062" t="inlineStr">
-        <is>
-          <t>60.5</t>
-        </is>
-      </c>
-      <c r="G3062" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3063">
-      <c r="A3063" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3063" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3063" t="inlineStr"/>
-      <c r="D3063" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E3063" t="inlineStr"/>
-      <c r="F3063" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G3063" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3064">
-      <c r="A3064" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3064" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3064" t="inlineStr"/>
-      <c r="D3064" t="inlineStr">
-        <is>
-          <t>58.1</t>
-        </is>
-      </c>
-      <c r="E3064" t="inlineStr"/>
-      <c r="F3064" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G3064" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3065">
-      <c r="A3065" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3065" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3065" t="inlineStr"/>
-      <c r="D3065" t="inlineStr">
-        <is>
-          <t>64.8</t>
-        </is>
-      </c>
-      <c r="E3065" t="inlineStr"/>
-      <c r="F3065" t="inlineStr">
-        <is>
-          <t>64.6</t>
-        </is>
-      </c>
-      <c r="G3065" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3066">
-      <c r="A3066" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3066" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3066" t="inlineStr"/>
-      <c r="D3066" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="E3066" t="inlineStr"/>
-      <c r="F3066" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
-      <c r="G3066" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3067">
-      <c r="A3067" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B3067" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUL/18</t>
-        </is>
-      </c>
-      <c r="C3067" t="inlineStr"/>
-      <c r="D3067" t="inlineStr"/>
-      <c r="E3067" t="inlineStr"/>
-      <c r="F3067" t="inlineStr"/>
-      <c r="G3067" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3068">
-      <c r="A3068" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B3068" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUL/18</t>
-        </is>
-      </c>
-      <c r="C3068" t="inlineStr"/>
-      <c r="D3068" t="inlineStr"/>
-      <c r="E3068" t="inlineStr"/>
-      <c r="F3068" t="inlineStr"/>
-      <c r="G3068" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3069">
-      <c r="A3069" t="inlineStr">
-        <is>
-          <t>Saturday July 19 2025</t>
-        </is>
-      </c>
-      <c r="B3069" t="inlineStr"/>
-      <c r="C3069" t="inlineStr"/>
-      <c r="D3069" t="inlineStr"/>
-      <c r="E3069" t="inlineStr"/>
-      <c r="F3069" t="inlineStr"/>
-      <c r="G3069" t="inlineStr"/>
-    </row>
-    <row r="3070">
-      <c r="A3070" t="inlineStr">
-        <is>
-          <t>Sunday July 20 2025</t>
-        </is>
-      </c>
-      <c r="B3070" t="inlineStr"/>
-      <c r="C3070" t="inlineStr"/>
-      <c r="D3070" t="inlineStr"/>
-      <c r="E3070" t="inlineStr"/>
-      <c r="F3070" t="inlineStr"/>
-      <c r="G3070" t="inlineStr"/>
+      <c r="G2999" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-20.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3100"/>
+  <dimension ref="A1:G3054"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81621,10 +81621,8 @@
           <t>245.0K</t>
         </is>
       </c>
-      <c r="G2992" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2992" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2993">
@@ -81654,10 +81652,8 @@
           <t>1967.0K</t>
         </is>
       </c>
-      <c r="G2993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2993" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2994">
@@ -81683,10 +81679,8 @@
           <t>243.0K</t>
         </is>
       </c>
-      <c r="G2994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2994" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2995">
@@ -81704,10 +81698,8 @@
       <c r="D2995" t="inlineStr"/>
       <c r="E2995" t="inlineStr"/>
       <c r="F2995" t="inlineStr"/>
-      <c r="G2995" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2995" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2996">
@@ -81733,10 +81725,8 @@
         </is>
       </c>
       <c r="F2996" t="inlineStr"/>
-      <c r="G2996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2996" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2997">
@@ -81758,10 +81748,8 @@
       </c>
       <c r="E2997" t="inlineStr"/>
       <c r="F2997" t="inlineStr"/>
-      <c r="G2997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2998">
@@ -81783,10 +81771,8 @@
       </c>
       <c r="E2998" t="inlineStr"/>
       <c r="F2998" t="inlineStr"/>
-      <c r="G2998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2998" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2999">
@@ -81808,10 +81794,8 @@
       </c>
       <c r="E2999" t="inlineStr"/>
       <c r="F2999" t="inlineStr"/>
-      <c r="G2999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3000">
@@ -81833,10 +81817,8 @@
       </c>
       <c r="E3000" t="inlineStr"/>
       <c r="F3000" t="inlineStr"/>
-      <c r="G3000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G3000" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3001">
@@ -81858,10 +81840,8 @@
       </c>
       <c r="E3001" t="inlineStr"/>
       <c r="F3001" t="inlineStr"/>
-      <c r="G3001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G3001" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3002">
@@ -81879,61 +81859,75 @@
       <c r="D3002" t="inlineStr"/>
       <c r="E3002" t="inlineStr"/>
       <c r="F3002" t="inlineStr"/>
-      <c r="G3002" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G3002" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3003">
       <c r="A3003" t="inlineStr">
         <is>
-          <t>Friday July 11 2025</t>
-        </is>
-      </c>
-      <c r="B3003" t="inlineStr"/>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="B3003" t="inlineStr">
+        <is>
+          <t>EIA Distillate Stocks ChangeJUL/11</t>
+        </is>
+      </c>
       <c r="C3003" t="inlineStr"/>
-      <c r="D3003" t="inlineStr"/>
+      <c r="D3003" t="inlineStr">
+        <is>
+          <t>-0.825M</t>
+        </is>
+      </c>
       <c r="E3003" t="inlineStr"/>
       <c r="F3003" t="inlineStr"/>
-      <c r="G3003" t="inlineStr"/>
+      <c r="G3003" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="3004">
       <c r="A3004" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B3004" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>EIA Gasoline Production ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3004" t="inlineStr"/>
-      <c r="D3004" t="inlineStr"/>
+      <c r="D3004" t="inlineStr">
+        <is>
+          <t>0.278M</t>
+        </is>
+      </c>
       <c r="E3004" t="inlineStr"/>
       <c r="F3004" t="inlineStr"/>
       <c r="G3004" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3005">
       <c r="A3005" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B3005" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJUL/09</t>
+          <t>EIA Heating Oil Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3005" t="inlineStr"/>
       <c r="D3005" t="inlineStr">
         <is>
-          <t>$6.66T</t>
+          <t>0.603M</t>
         </is>
       </c>
       <c r="E3005" t="inlineStr"/>
@@ -81947,16 +81941,20 @@
     <row r="3006">
       <c r="A3006" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B3006" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>EIA Refinery Crude Runs ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3006" t="inlineStr"/>
-      <c r="D3006" t="inlineStr"/>
+      <c r="D3006" t="inlineStr">
+        <is>
+          <t>-0.099M</t>
+        </is>
+      </c>
       <c r="E3006" t="inlineStr"/>
       <c r="F3006" t="inlineStr"/>
       <c r="G3006" t="inlineStr">
@@ -81968,20 +81966,16 @@
     <row r="3007">
       <c r="A3007" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B3007" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUL/11</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C3007" t="inlineStr"/>
-      <c r="D3007" t="inlineStr">
-        <is>
-          <t>425</t>
-        </is>
-      </c>
+      <c r="D3007" t="inlineStr"/>
       <c r="E3007" t="inlineStr"/>
       <c r="F3007" t="inlineStr"/>
       <c r="G3007" t="inlineStr">
@@ -81993,20 +81987,16 @@
     <row r="3008">
       <c r="A3008" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B3008" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUL/11</t>
+          <t>Fed Beige Book</t>
         </is>
       </c>
       <c r="C3008" t="inlineStr"/>
-      <c r="D3008" t="inlineStr">
-        <is>
-          <t>539</t>
-        </is>
-      </c>
+      <c r="D3008" t="inlineStr"/>
       <c r="E3008" t="inlineStr"/>
       <c r="F3008" t="inlineStr"/>
       <c r="G3008" t="inlineStr">
@@ -82018,124 +82008,148 @@
     <row r="3009">
       <c r="A3009" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B3009" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementJUN</t>
-        </is>
-      </c>
+          <t>Thursday July 17 2025</t>
+        </is>
+      </c>
+      <c r="B3009" t="inlineStr"/>
       <c r="C3009" t="inlineStr"/>
-      <c r="D3009" t="inlineStr">
-        <is>
-          <t>$-316B</t>
-        </is>
-      </c>
-      <c r="E3009" t="inlineStr">
-        <is>
-          <t>$-11B</t>
-        </is>
-      </c>
-      <c r="F3009" t="inlineStr">
-        <is>
-          <t>$-350.0B</t>
-        </is>
-      </c>
-      <c r="G3009" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="D3009" t="inlineStr"/>
+      <c r="E3009" t="inlineStr"/>
+      <c r="F3009" t="inlineStr"/>
+      <c r="G3009" t="inlineStr"/>
     </row>
     <row r="3010">
       <c r="A3010" t="inlineStr">
         <is>
-          <t>Saturday July 12 2025</t>
-        </is>
-      </c>
-      <c r="B3010" t="inlineStr"/>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B3010" t="inlineStr">
+        <is>
+          <t>Fed Williams Speech</t>
+        </is>
+      </c>
       <c r="C3010" t="inlineStr"/>
       <c r="D3010" t="inlineStr"/>
       <c r="E3010" t="inlineStr"/>
       <c r="F3010" t="inlineStr"/>
-      <c r="G3010" t="inlineStr"/>
+      <c r="G3010" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="3011">
       <c r="A3011" t="inlineStr">
         <is>
-          <t>Monday July 14 2025</t>
-        </is>
-      </c>
-      <c r="B3011" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B3011" t="inlineStr">
+        <is>
+          <t>Retail Sales MoMJUN</t>
+        </is>
+      </c>
       <c r="C3011" t="inlineStr"/>
-      <c r="D3011" t="inlineStr"/>
-      <c r="E3011" t="inlineStr"/>
-      <c r="F3011" t="inlineStr"/>
-      <c r="G3011" t="inlineStr"/>
+      <c r="D3011" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="E3011" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F3011" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G3011" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="3012">
       <c r="A3012" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3012" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Export Prices MoMJUN</t>
         </is>
       </c>
       <c r="C3012" t="inlineStr"/>
       <c r="D3012" t="inlineStr">
         <is>
-          <t>4.255%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="E3012" t="inlineStr"/>
-      <c r="F3012" t="inlineStr"/>
+      <c r="F3012" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G3012" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3013">
       <c r="A3013" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3013" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Import Prices MoMJUN</t>
         </is>
       </c>
       <c r="C3013" t="inlineStr"/>
       <c r="D3013" t="inlineStr">
         <is>
-          <t>4.145%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E3013" t="inlineStr"/>
-      <c r="F3013" t="inlineStr"/>
+      <c r="F3013" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G3013" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3014">
       <c r="A3014" t="inlineStr">
         <is>
-          <t>Tuesday July 15 2025</t>
-        </is>
-      </c>
-      <c r="B3014" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B3014" t="inlineStr">
+        <is>
+          <t>Initial Jobless ClaimsJUL/12</t>
+        </is>
+      </c>
       <c r="C3014" t="inlineStr"/>
       <c r="D3014" t="inlineStr"/>
       <c r="E3014" t="inlineStr"/>
       <c r="F3014" t="inlineStr"/>
-      <c r="G3014" t="inlineStr"/>
+      <c r="G3014" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="3015">
       <c r="A3015" t="inlineStr">
@@ -82145,24 +82159,24 @@
       </c>
       <c r="B3015" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJUN</t>
+          <t>Philadelphia Fed Manufacturing IndexJUL</t>
         </is>
       </c>
       <c r="C3015" t="inlineStr"/>
       <c r="D3015" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="E3015" t="inlineStr"/>
       <c r="F3015" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="G3015" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -82174,24 +82188,24 @@
       </c>
       <c r="B3016" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJUN</t>
+          <t>Retail Sales Control Group MoMJUN</t>
         </is>
       </c>
       <c r="C3016" t="inlineStr"/>
       <c r="D3016" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E3016" t="inlineStr"/>
       <c r="F3016" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G3016" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -82203,16 +82217,20 @@
       </c>
       <c r="B3017" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJUN</t>
+          <t>Retail Sales Ex Autos MoMJUN</t>
         </is>
       </c>
       <c r="C3017" t="inlineStr"/>
       <c r="D3017" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E3017" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="E3017" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F3017" t="inlineStr">
         <is>
           <t>0.2%</t>
@@ -82220,7 +82238,7 @@
       </c>
       <c r="G3017" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -82232,24 +82250,20 @@
       </c>
       <c r="B3018" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJUN</t>
+          <t>Continuing Jobless ClaimsJUL/05</t>
         </is>
       </c>
       <c r="C3018" t="inlineStr"/>
-      <c r="D3018" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+      <c r="D3018" t="inlineStr"/>
       <c r="E3018" t="inlineStr"/>
       <c r="F3018" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>1970.0K</t>
         </is>
       </c>
       <c r="G3018" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -82261,24 +82275,24 @@
       </c>
       <c r="B3019" t="inlineStr">
         <is>
-          <t>CPIJUN</t>
+          <t>Export Prices YoYJUN</t>
         </is>
       </c>
       <c r="C3019" t="inlineStr"/>
       <c r="D3019" t="inlineStr">
         <is>
-          <t>321.465</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="E3019" t="inlineStr"/>
       <c r="F3019" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="G3019" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -82290,24 +82304,24 @@
       </c>
       <c r="B3020" t="inlineStr">
         <is>
-          <t>CPI s.aJUN</t>
+          <t>Import Prices YoYJUN</t>
         </is>
       </c>
       <c r="C3020" t="inlineStr"/>
       <c r="D3020" t="inlineStr">
         <is>
-          <t>320.580</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E3020" t="inlineStr"/>
       <c r="F3020" t="inlineStr">
         <is>
-          <t>321.2</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G3020" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -82319,42 +82333,34 @@
       </c>
       <c r="B3021" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexJUL</t>
+          <t>Jobless Claims 4-week AverageJUL/12</t>
         </is>
       </c>
       <c r="C3021" t="inlineStr"/>
-      <c r="D3021" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
+      <c r="D3021" t="inlineStr"/>
       <c r="E3021" t="inlineStr"/>
-      <c r="F3021" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
+      <c r="F3021" t="inlineStr"/>
       <c r="G3021" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3022">
       <c r="A3022" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3022" t="inlineStr">
         <is>
-          <t>Redbook YoYJUL/12</t>
+          <t>Philly Fed Business ConditionsJUL</t>
         </is>
       </c>
       <c r="C3022" t="inlineStr"/>
       <c r="D3022" t="inlineStr">
         <is>
-          <t>5.9%</t>
+          <t>18.3</t>
         </is>
       </c>
       <c r="E3022" t="inlineStr"/>
@@ -82368,16 +82374,20 @@
     <row r="3023">
       <c r="A3023" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3023" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Philly Fed CAPEX IndexJUL</t>
         </is>
       </c>
       <c r="C3023" t="inlineStr"/>
-      <c r="D3023" t="inlineStr"/>
+      <c r="D3023" t="inlineStr">
+        <is>
+          <t>14.50</t>
+        </is>
+      </c>
       <c r="E3023" t="inlineStr"/>
       <c r="F3023" t="inlineStr"/>
       <c r="G3023" t="inlineStr">
@@ -82389,85 +82399,101 @@
     <row r="3024">
       <c r="A3024" t="inlineStr">
         <is>
-          <t>Wednesday July 16 2025</t>
-        </is>
-      </c>
-      <c r="B3024" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B3024" t="inlineStr">
+        <is>
+          <t>Philly Fed EmploymentJUL</t>
+        </is>
+      </c>
       <c r="C3024" t="inlineStr"/>
-      <c r="D3024" t="inlineStr"/>
+      <c r="D3024" t="inlineStr">
+        <is>
+          <t>-9.8</t>
+        </is>
+      </c>
       <c r="E3024" t="inlineStr"/>
       <c r="F3024" t="inlineStr"/>
-      <c r="G3024" t="inlineStr"/>
+      <c r="G3024" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="3025">
       <c r="A3025" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3025" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJUL/11</t>
+          <t>Philly Fed New OrdersJUL</t>
         </is>
       </c>
       <c r="C3025" t="inlineStr"/>
       <c r="D3025" t="inlineStr">
         <is>
-          <t>7.1M</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="E3025" t="inlineStr"/>
       <c r="F3025" t="inlineStr"/>
       <c r="G3025" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3026">
       <c r="A3026" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3026" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJUL/11</t>
+          <t>Philly Fed Prices PaidJUL</t>
         </is>
       </c>
       <c r="C3026" t="inlineStr"/>
       <c r="D3026" t="inlineStr">
         <is>
-          <t>6.77%</t>
+          <t>41.40</t>
         </is>
       </c>
       <c r="E3026" t="inlineStr"/>
       <c r="F3026" t="inlineStr"/>
       <c r="G3026" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3027">
       <c r="A3027" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3027" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJUL/11</t>
+          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
         </is>
       </c>
       <c r="C3027" t="inlineStr"/>
       <c r="D3027" t="inlineStr">
         <is>
-          <t>9.4%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E3027" t="inlineStr"/>
-      <c r="F3027" t="inlineStr"/>
+      <c r="F3027" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G3027" t="inlineStr">
         <is>
           <t>3</t>
@@ -82477,22 +82503,26 @@
     <row r="3028">
       <c r="A3028" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3028" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJUL/11</t>
+          <t>Retail Sales YoYJUN</t>
         </is>
       </c>
       <c r="C3028" t="inlineStr"/>
       <c r="D3028" t="inlineStr">
         <is>
-          <t>281.6</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="E3028" t="inlineStr"/>
-      <c r="F3028" t="inlineStr"/>
+      <c r="F3028" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="G3028" t="inlineStr">
         <is>
           <t>3</t>
@@ -82502,134 +82532,130 @@
     <row r="3029">
       <c r="A3029" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3029" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJUL/11</t>
+          <t>Business Inventories MoMMAY</t>
         </is>
       </c>
       <c r="C3029" t="inlineStr"/>
       <c r="D3029" t="inlineStr">
         <is>
-          <t>829.3</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E3029" t="inlineStr"/>
-      <c r="F3029" t="inlineStr"/>
+      <c r="F3029" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G3029" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3030">
       <c r="A3030" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3030" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJUL/11</t>
+          <t>NAHB Housing Market IndexJUL</t>
         </is>
       </c>
       <c r="C3030" t="inlineStr"/>
       <c r="D3030" t="inlineStr">
         <is>
-          <t>180.9</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E3030" t="inlineStr"/>
-      <c r="F3030" t="inlineStr"/>
+      <c r="F3030" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
       <c r="G3030" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3031">
       <c r="A3031" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3031" t="inlineStr">
         <is>
-          <t>PPI MoMJUN</t>
+          <t>Retail Inventories Ex Autos MoMMAY</t>
         </is>
       </c>
       <c r="C3031" t="inlineStr"/>
       <c r="D3031" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E3031" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E3031" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F3031" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G3031" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3032">
       <c r="A3032" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B3032" t="inlineStr">
         <is>
-          <t>Core PPI MoMJUN</t>
+          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3032" t="inlineStr"/>
-      <c r="D3032" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="D3032" t="inlineStr"/>
       <c r="E3032" t="inlineStr"/>
-      <c r="F3032" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F3032" t="inlineStr"/>
       <c r="G3032" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3033">
       <c r="A3033" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B3033" t="inlineStr">
         <is>
-          <t>Core PPI YoYJUN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C3033" t="inlineStr"/>
-      <c r="D3033" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="D3033" t="inlineStr"/>
       <c r="E3033" t="inlineStr"/>
-      <c r="F3033" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="F3033" t="inlineStr"/>
       <c r="G3033" t="inlineStr">
         <is>
           <t>3</t>
@@ -82639,26 +82665,18 @@
     <row r="3034">
       <c r="A3034" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B3034" t="inlineStr">
         <is>
-          <t>PPIJUN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C3034" t="inlineStr"/>
-      <c r="D3034" t="inlineStr">
-        <is>
-          <t>148.072</t>
-        </is>
-      </c>
+      <c r="D3034" t="inlineStr"/>
       <c r="E3034" t="inlineStr"/>
-      <c r="F3034" t="inlineStr">
-        <is>
-          <t>148.9</t>
-        </is>
-      </c>
+      <c r="F3034" t="inlineStr"/>
       <c r="G3034" t="inlineStr">
         <is>
           <t>3</t>
@@ -82668,26 +82686,18 @@
     <row r="3035">
       <c r="A3035" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B3035" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMJUN</t>
+          <t>15-Year Mortgage RateJUL/17</t>
         </is>
       </c>
       <c r="C3035" t="inlineStr"/>
-      <c r="D3035" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="D3035" t="inlineStr"/>
       <c r="E3035" t="inlineStr"/>
-      <c r="F3035" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F3035" t="inlineStr"/>
       <c r="G3035" t="inlineStr">
         <is>
           <t>3</t>
@@ -82697,26 +82707,18 @@
     <row r="3036">
       <c r="A3036" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B3036" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYJUN</t>
+          <t>30-Year Mortgage RateJUL/17</t>
         </is>
       </c>
       <c r="C3036" t="inlineStr"/>
-      <c r="D3036" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="D3036" t="inlineStr"/>
       <c r="E3036" t="inlineStr"/>
-      <c r="F3036" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="F3036" t="inlineStr"/>
       <c r="G3036" t="inlineStr">
         <is>
           <t>3</t>
@@ -82726,45 +82728,33 @@
     <row r="3037">
       <c r="A3037" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3037" t="inlineStr">
-        <is>
-          <t>PPI YoYJUN</t>
-        </is>
-      </c>
+          <t>Friday July 18 2025</t>
+        </is>
+      </c>
+      <c r="B3037" t="inlineStr"/>
       <c r="C3037" t="inlineStr"/>
-      <c r="D3037" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="D3037" t="inlineStr"/>
       <c r="E3037" t="inlineStr"/>
-      <c r="F3037" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G3037" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F3037" t="inlineStr"/>
+      <c r="G3037" t="inlineStr"/>
     </row>
     <row r="3038">
       <c r="A3038" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B3038" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>Net Long-term TIC FlowsMAY</t>
         </is>
       </c>
       <c r="C3038" t="inlineStr"/>
-      <c r="D3038" t="inlineStr"/>
+      <c r="D3038" t="inlineStr">
+        <is>
+          <t>$-7.8B</t>
+        </is>
+      </c>
       <c r="E3038" t="inlineStr"/>
       <c r="F3038" t="inlineStr"/>
       <c r="G3038" t="inlineStr">
@@ -82776,55 +82766,47 @@
     <row r="3039">
       <c r="A3039" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B3039" t="inlineStr">
         <is>
-          <t>Industrial Production MoMJUN</t>
+          <t>Foreign Bond InvestmentMAY</t>
         </is>
       </c>
       <c r="C3039" t="inlineStr"/>
       <c r="D3039" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>$-40.8B</t>
         </is>
       </c>
       <c r="E3039" t="inlineStr"/>
-      <c r="F3039" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F3039" t="inlineStr"/>
       <c r="G3039" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3040">
       <c r="A3040" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B3040" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJUN</t>
+          <t>Overall Net Capital FlowsMAY</t>
         </is>
       </c>
       <c r="C3040" t="inlineStr"/>
       <c r="D3040" t="inlineStr">
         <is>
-          <t>77.4%</t>
+          <t>$-14.2B</t>
         </is>
       </c>
       <c r="E3040" t="inlineStr"/>
-      <c r="F3040" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
+      <c r="F3040" t="inlineStr"/>
       <c r="G3040" t="inlineStr">
         <is>
           <t>3</t>
@@ -82834,26 +82816,18 @@
     <row r="3041">
       <c r="A3041" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B3041" t="inlineStr">
         <is>
-          <t>Industrial Production YoYJUN</t>
+          <t>Fed Balance SheetJUL/16</t>
         </is>
       </c>
       <c r="C3041" t="inlineStr"/>
-      <c r="D3041" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="D3041" t="inlineStr"/>
       <c r="E3041" t="inlineStr"/>
-      <c r="F3041" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="F3041" t="inlineStr"/>
       <c r="G3041" t="inlineStr">
         <is>
           <t>3</t>
@@ -82863,80 +82837,88 @@
     <row r="3042">
       <c r="A3042" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3042" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMJUN</t>
+          <t>Building Permits PrelJUN</t>
         </is>
       </c>
       <c r="C3042" t="inlineStr"/>
       <c r="D3042" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.394M</t>
         </is>
       </c>
       <c r="E3042" t="inlineStr"/>
       <c r="F3042" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.37M</t>
         </is>
       </c>
       <c r="G3042" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3043">
       <c r="A3043" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3043" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYJUN</t>
+          <t>Housing StartsJUN</t>
         </is>
       </c>
       <c r="C3043" t="inlineStr"/>
       <c r="D3043" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E3043" t="inlineStr"/>
+          <t>1.256M</t>
+        </is>
+      </c>
+      <c r="E3043" t="inlineStr">
+        <is>
+          <t>1.30M</t>
+        </is>
+      </c>
       <c r="F3043" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>1.29M</t>
         </is>
       </c>
       <c r="G3043" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3044">
       <c r="A3044" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3044" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJUL/11</t>
+          <t>Building Permits MoM PrelJUN</t>
         </is>
       </c>
       <c r="C3044" t="inlineStr"/>
       <c r="D3044" t="inlineStr">
         <is>
-          <t>7.07M</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="E3044" t="inlineStr"/>
-      <c r="F3044" t="inlineStr"/>
+      <c r="F3044" t="inlineStr">
+        <is>
+          <t>-1.7%</t>
+        </is>
+      </c>
       <c r="G3044" t="inlineStr">
         <is>
           <t>2</t>
@@ -82946,22 +82928,26 @@
     <row r="3045">
       <c r="A3045" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3045" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJUL/11</t>
+          <t>Housing Starts MoMJUN</t>
         </is>
       </c>
       <c r="C3045" t="inlineStr"/>
       <c r="D3045" t="inlineStr">
         <is>
-          <t>-2.658M</t>
+          <t>-9.8%</t>
         </is>
       </c>
       <c r="E3045" t="inlineStr"/>
-      <c r="F3045" t="inlineStr"/>
+      <c r="F3045" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="G3045" t="inlineStr">
         <is>
           <t>2</t>
@@ -82971,47 +82957,59 @@
     <row r="3046">
       <c r="A3046" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3046" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJUL/11</t>
+          <t>Michigan Consumer Sentiment PrelJUL</t>
         </is>
       </c>
       <c r="C3046" t="inlineStr"/>
       <c r="D3046" t="inlineStr">
         <is>
-          <t>-1.358M</t>
-        </is>
-      </c>
-      <c r="E3046" t="inlineStr"/>
-      <c r="F3046" t="inlineStr"/>
+          <t>60.7</t>
+        </is>
+      </c>
+      <c r="E3046" t="inlineStr">
+        <is>
+          <t>61.5</t>
+        </is>
+      </c>
+      <c r="F3046" t="inlineStr">
+        <is>
+          <t>60.5</t>
+        </is>
+      </c>
       <c r="G3046" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3047">
       <c r="A3047" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3047" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUL/11</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C3047" t="inlineStr"/>
       <c r="D3047" t="inlineStr">
         <is>
-          <t>0.464M</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="E3047" t="inlineStr"/>
-      <c r="F3047" t="inlineStr"/>
+      <c r="F3047" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
       <c r="G3047" t="inlineStr">
         <is>
           <t>3</t>
@@ -83021,22 +83019,26 @@
     <row r="3048">
       <c r="A3048" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3048" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJUL/11</t>
+          <t>Michigan Consumer Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C3048" t="inlineStr"/>
       <c r="D3048" t="inlineStr">
         <is>
-          <t>0.059M</t>
+          <t>58.1</t>
         </is>
       </c>
       <c r="E3048" t="inlineStr"/>
-      <c r="F3048" t="inlineStr"/>
+      <c r="F3048" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
       <c r="G3048" t="inlineStr">
         <is>
           <t>3</t>
@@ -83046,22 +83048,26 @@
     <row r="3049">
       <c r="A3049" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3049" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJUL/11</t>
+          <t>Michigan Current Conditions PrelJUL</t>
         </is>
       </c>
       <c r="C3049" t="inlineStr"/>
       <c r="D3049" t="inlineStr">
         <is>
-          <t>-0.825M</t>
+          <t>64.8</t>
         </is>
       </c>
       <c r="E3049" t="inlineStr"/>
-      <c r="F3049" t="inlineStr"/>
+      <c r="F3049" t="inlineStr">
+        <is>
+          <t>64.6</t>
+        </is>
+      </c>
       <c r="G3049" t="inlineStr">
         <is>
           <t>3</t>
@@ -83071,22 +83077,26 @@
     <row r="3050">
       <c r="A3050" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3050" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJUL/11</t>
+          <t>Michigan Inflation Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C3050" t="inlineStr"/>
       <c r="D3050" t="inlineStr">
         <is>
-          <t>0.278M</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="E3050" t="inlineStr"/>
-      <c r="F3050" t="inlineStr"/>
+      <c r="F3050" t="inlineStr">
+        <is>
+          <t>4.7%</t>
+        </is>
+      </c>
       <c r="G3050" t="inlineStr">
         <is>
           <t>3</t>
@@ -83096,20 +83106,16 @@
     <row r="3051">
       <c r="A3051" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B3051" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJUL/11</t>
+          <t>Baker Hughes Oil Rig CountJUL/18</t>
         </is>
       </c>
       <c r="C3051" t="inlineStr"/>
-      <c r="D3051" t="inlineStr">
-        <is>
-          <t>0.603M</t>
-        </is>
-      </c>
+      <c r="D3051" t="inlineStr"/>
       <c r="E3051" t="inlineStr"/>
       <c r="F3051" t="inlineStr"/>
       <c r="G3051" t="inlineStr">
@@ -83121,20 +83127,16 @@
     <row r="3052">
       <c r="A3052" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B3052" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJUL/11</t>
+          <t>Baker Hughes Total Rigs CountJUL/18</t>
         </is>
       </c>
       <c r="C3052" t="inlineStr"/>
-      <c r="D3052" t="inlineStr">
-        <is>
-          <t>-0.099M</t>
-        </is>
-      </c>
+      <c r="D3052" t="inlineStr"/>
       <c r="E3052" t="inlineStr"/>
       <c r="F3052" t="inlineStr"/>
       <c r="G3052" t="inlineStr">
@@ -83146,1194 +83148,28 @@
     <row r="3053">
       <c r="A3053" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B3053" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
+          <t>Saturday July 19 2025</t>
+        </is>
+      </c>
+      <c r="B3053" t="inlineStr"/>
       <c r="C3053" t="inlineStr"/>
       <c r="D3053" t="inlineStr"/>
       <c r="E3053" t="inlineStr"/>
       <c r="F3053" t="inlineStr"/>
-      <c r="G3053" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G3053" t="inlineStr"/>
     </row>
     <row r="3054">
       <c r="A3054" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B3054" t="inlineStr">
-        <is>
-          <t>Fed Beige Book</t>
-        </is>
-      </c>
+          <t>Sunday July 20 2025</t>
+        </is>
+      </c>
+      <c r="B3054" t="inlineStr"/>
       <c r="C3054" t="inlineStr"/>
       <c r="D3054" t="inlineStr"/>
       <c r="E3054" t="inlineStr"/>
       <c r="F3054" t="inlineStr"/>
-      <c r="G3054" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3055">
-      <c r="A3055" t="inlineStr">
-        <is>
-          <t>Thursday July 17 2025</t>
-        </is>
-      </c>
-      <c r="B3055" t="inlineStr"/>
-      <c r="C3055" t="inlineStr"/>
-      <c r="D3055" t="inlineStr"/>
-      <c r="E3055" t="inlineStr"/>
-      <c r="F3055" t="inlineStr"/>
-      <c r="G3055" t="inlineStr"/>
-    </row>
-    <row r="3056">
-      <c r="A3056" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B3056" t="inlineStr">
-        <is>
-          <t>Fed Williams Speech</t>
-        </is>
-      </c>
-      <c r="C3056" t="inlineStr"/>
-      <c r="D3056" t="inlineStr"/>
-      <c r="E3056" t="inlineStr"/>
-      <c r="F3056" t="inlineStr"/>
-      <c r="G3056" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3057">
-      <c r="A3057" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3057" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3057" t="inlineStr"/>
-      <c r="D3057" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E3057" t="inlineStr"/>
-      <c r="F3057" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G3057" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3058">
-      <c r="A3058" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3058" t="inlineStr">
-        <is>
-          <t>Export Prices MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3058" t="inlineStr"/>
-      <c r="D3058" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E3058" t="inlineStr"/>
-      <c r="F3058" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G3058" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3059">
-      <c r="A3059" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3059" t="inlineStr">
-        <is>
-          <t>Import Prices MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3059" t="inlineStr"/>
-      <c r="D3059" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E3059" t="inlineStr"/>
-      <c r="F3059" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G3059" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3060">
-      <c r="A3060" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3060" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUL/12</t>
-        </is>
-      </c>
-      <c r="C3060" t="inlineStr"/>
-      <c r="D3060" t="inlineStr"/>
-      <c r="E3060" t="inlineStr"/>
-      <c r="F3060" t="inlineStr"/>
-      <c r="G3060" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3061">
-      <c r="A3061" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3061" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexJUL</t>
-        </is>
-      </c>
-      <c r="C3061" t="inlineStr"/>
-      <c r="D3061" t="inlineStr">
-        <is>
-          <t>-4.0</t>
-        </is>
-      </c>
-      <c r="E3061" t="inlineStr"/>
-      <c r="F3061" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="G3061" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3062">
-      <c r="A3062" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3062" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3062" t="inlineStr"/>
-      <c r="D3062" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E3062" t="inlineStr"/>
-      <c r="F3062" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G3062" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3063">
-      <c r="A3063" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3063" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3063" t="inlineStr"/>
-      <c r="D3063" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E3063" t="inlineStr"/>
-      <c r="F3063" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G3063" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3064">
-      <c r="A3064" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3064" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJUL/05</t>
-        </is>
-      </c>
-      <c r="C3064" t="inlineStr"/>
-      <c r="D3064" t="inlineStr"/>
-      <c r="E3064" t="inlineStr"/>
-      <c r="F3064" t="inlineStr">
-        <is>
-          <t>1970.0K</t>
-        </is>
-      </c>
-      <c r="G3064" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3065">
-      <c r="A3065" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3065" t="inlineStr">
-        <is>
-          <t>Export Prices YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3065" t="inlineStr"/>
-      <c r="D3065" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="E3065" t="inlineStr"/>
-      <c r="F3065" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G3065" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3066">
-      <c r="A3066" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3066" t="inlineStr">
-        <is>
-          <t>Import Prices YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3066" t="inlineStr"/>
-      <c r="D3066" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E3066" t="inlineStr"/>
-      <c r="F3066" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G3066" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3067">
-      <c r="A3067" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3067" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUL/12</t>
-        </is>
-      </c>
-      <c r="C3067" t="inlineStr"/>
-      <c r="D3067" t="inlineStr"/>
-      <c r="E3067" t="inlineStr"/>
-      <c r="F3067" t="inlineStr"/>
-      <c r="G3067" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3068">
-      <c r="A3068" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3068" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsJUL</t>
-        </is>
-      </c>
-      <c r="C3068" t="inlineStr"/>
-      <c r="D3068" t="inlineStr">
-        <is>
-          <t>18.3</t>
-        </is>
-      </c>
-      <c r="E3068" t="inlineStr"/>
-      <c r="F3068" t="inlineStr"/>
-      <c r="G3068" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3069">
-      <c r="A3069" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3069" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexJUL</t>
-        </is>
-      </c>
-      <c r="C3069" t="inlineStr"/>
-      <c r="D3069" t="inlineStr">
-        <is>
-          <t>14.50</t>
-        </is>
-      </c>
-      <c r="E3069" t="inlineStr"/>
-      <c r="F3069" t="inlineStr"/>
-      <c r="G3069" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3070">
-      <c r="A3070" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3070" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentJUL</t>
-        </is>
-      </c>
-      <c r="C3070" t="inlineStr"/>
-      <c r="D3070" t="inlineStr">
-        <is>
-          <t>-9.8</t>
-        </is>
-      </c>
-      <c r="E3070" t="inlineStr"/>
-      <c r="F3070" t="inlineStr"/>
-      <c r="G3070" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3071">
-      <c r="A3071" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3071" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersJUL</t>
-        </is>
-      </c>
-      <c r="C3071" t="inlineStr"/>
-      <c r="D3071" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="E3071" t="inlineStr"/>
-      <c r="F3071" t="inlineStr"/>
-      <c r="G3071" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3072">
-      <c r="A3072" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3072" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidJUL</t>
-        </is>
-      </c>
-      <c r="C3072" t="inlineStr"/>
-      <c r="D3072" t="inlineStr">
-        <is>
-          <t>41.40</t>
-        </is>
-      </c>
-      <c r="E3072" t="inlineStr"/>
-      <c r="F3072" t="inlineStr"/>
-      <c r="G3072" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3073">
-      <c r="A3073" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3073" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3073" t="inlineStr"/>
-      <c r="D3073" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E3073" t="inlineStr"/>
-      <c r="F3073" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G3073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3074">
-      <c r="A3074" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3074" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3074" t="inlineStr"/>
-      <c r="D3074" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E3074" t="inlineStr"/>
-      <c r="F3074" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G3074" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3075">
-      <c r="A3075" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3075" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMMAY</t>
-        </is>
-      </c>
-      <c r="C3075" t="inlineStr"/>
-      <c r="D3075" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E3075" t="inlineStr"/>
-      <c r="F3075" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G3075" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3076">
-      <c r="A3076" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3076" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexJUL</t>
-        </is>
-      </c>
-      <c r="C3076" t="inlineStr"/>
-      <c r="D3076" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="E3076" t="inlineStr"/>
-      <c r="F3076" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="G3076" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3077">
-      <c r="A3077" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3077" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMMAY</t>
-        </is>
-      </c>
-      <c r="C3077" t="inlineStr"/>
-      <c r="D3077" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E3077" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F3077" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G3077" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3078">
-      <c r="A3078" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3078" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3078" t="inlineStr"/>
-      <c r="D3078" t="inlineStr"/>
-      <c r="E3078" t="inlineStr"/>
-      <c r="F3078" t="inlineStr"/>
-      <c r="G3078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3079">
-      <c r="A3079" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B3079" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C3079" t="inlineStr"/>
-      <c r="D3079" t="inlineStr"/>
-      <c r="E3079" t="inlineStr"/>
-      <c r="F3079" t="inlineStr"/>
-      <c r="G3079" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3080">
-      <c r="A3080" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B3080" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C3080" t="inlineStr"/>
-      <c r="D3080" t="inlineStr"/>
-      <c r="E3080" t="inlineStr"/>
-      <c r="F3080" t="inlineStr"/>
-      <c r="G3080" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3081">
-      <c r="A3081" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B3081" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUL/17</t>
-        </is>
-      </c>
-      <c r="C3081" t="inlineStr"/>
-      <c r="D3081" t="inlineStr"/>
-      <c r="E3081" t="inlineStr"/>
-      <c r="F3081" t="inlineStr"/>
-      <c r="G3081" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3082">
-      <c r="A3082" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B3082" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUL/17</t>
-        </is>
-      </c>
-      <c r="C3082" t="inlineStr"/>
-      <c r="D3082" t="inlineStr"/>
-      <c r="E3082" t="inlineStr"/>
-      <c r="F3082" t="inlineStr"/>
-      <c r="G3082" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3083">
-      <c r="A3083" t="inlineStr">
-        <is>
-          <t>Friday July 18 2025</t>
-        </is>
-      </c>
-      <c r="B3083" t="inlineStr"/>
-      <c r="C3083" t="inlineStr"/>
-      <c r="D3083" t="inlineStr"/>
-      <c r="E3083" t="inlineStr"/>
-      <c r="F3083" t="inlineStr"/>
-      <c r="G3083" t="inlineStr"/>
-    </row>
-    <row r="3084">
-      <c r="A3084" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B3084" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsMAY</t>
-        </is>
-      </c>
-      <c r="C3084" t="inlineStr"/>
-      <c r="D3084" t="inlineStr">
-        <is>
-          <t>$-7.8B</t>
-        </is>
-      </c>
-      <c r="E3084" t="inlineStr"/>
-      <c r="F3084" t="inlineStr"/>
-      <c r="G3084" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3085">
-      <c r="A3085" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B3085" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentMAY</t>
-        </is>
-      </c>
-      <c r="C3085" t="inlineStr"/>
-      <c r="D3085" t="inlineStr">
-        <is>
-          <t>$-40.8B</t>
-        </is>
-      </c>
-      <c r="E3085" t="inlineStr"/>
-      <c r="F3085" t="inlineStr"/>
-      <c r="G3085" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3086">
-      <c r="A3086" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B3086" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsMAY</t>
-        </is>
-      </c>
-      <c r="C3086" t="inlineStr"/>
-      <c r="D3086" t="inlineStr">
-        <is>
-          <t>$-14.2B</t>
-        </is>
-      </c>
-      <c r="E3086" t="inlineStr"/>
-      <c r="F3086" t="inlineStr"/>
-      <c r="G3086" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3087">
-      <c r="A3087" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B3087" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUL/16</t>
-        </is>
-      </c>
-      <c r="C3087" t="inlineStr"/>
-      <c r="D3087" t="inlineStr"/>
-      <c r="E3087" t="inlineStr"/>
-      <c r="F3087" t="inlineStr"/>
-      <c r="G3087" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3088">
-      <c r="A3088" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3088" t="inlineStr">
-        <is>
-          <t>Building Permits PrelJUN</t>
-        </is>
-      </c>
-      <c r="C3088" t="inlineStr"/>
-      <c r="D3088" t="inlineStr">
-        <is>
-          <t>1.394M</t>
-        </is>
-      </c>
-      <c r="E3088" t="inlineStr"/>
-      <c r="F3088" t="inlineStr">
-        <is>
-          <t>1.37M</t>
-        </is>
-      </c>
-      <c r="G3088" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3089">
-      <c r="A3089" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3089" t="inlineStr">
-        <is>
-          <t>Housing StartsJUN</t>
-        </is>
-      </c>
-      <c r="C3089" t="inlineStr"/>
-      <c r="D3089" t="inlineStr">
-        <is>
-          <t>1.256M</t>
-        </is>
-      </c>
-      <c r="E3089" t="inlineStr"/>
-      <c r="F3089" t="inlineStr">
-        <is>
-          <t>1.29M</t>
-        </is>
-      </c>
-      <c r="G3089" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3090">
-      <c r="A3090" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3090" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelJUN</t>
-        </is>
-      </c>
-      <c r="C3090" t="inlineStr"/>
-      <c r="D3090" t="inlineStr">
-        <is>
-          <t>-2%</t>
-        </is>
-      </c>
-      <c r="E3090" t="inlineStr"/>
-      <c r="F3090" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="G3090" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3091">
-      <c r="A3091" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3091" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3091" t="inlineStr"/>
-      <c r="D3091" t="inlineStr">
-        <is>
-          <t>-9.8%</t>
-        </is>
-      </c>
-      <c r="E3091" t="inlineStr"/>
-      <c r="F3091" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G3091" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3092">
-      <c r="A3092" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3092" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3092" t="inlineStr"/>
-      <c r="D3092" t="inlineStr">
-        <is>
-          <t>60.7</t>
-        </is>
-      </c>
-      <c r="E3092" t="inlineStr"/>
-      <c r="F3092" t="inlineStr">
-        <is>
-          <t>60.5</t>
-        </is>
-      </c>
-      <c r="G3092" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3093">
-      <c r="A3093" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3093" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3093" t="inlineStr"/>
-      <c r="D3093" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E3093" t="inlineStr"/>
-      <c r="F3093" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G3093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3094">
-      <c r="A3094" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3094" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3094" t="inlineStr"/>
-      <c r="D3094" t="inlineStr">
-        <is>
-          <t>58.1</t>
-        </is>
-      </c>
-      <c r="E3094" t="inlineStr"/>
-      <c r="F3094" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G3094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3095">
-      <c r="A3095" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3095" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3095" t="inlineStr"/>
-      <c r="D3095" t="inlineStr">
-        <is>
-          <t>64.8</t>
-        </is>
-      </c>
-      <c r="E3095" t="inlineStr"/>
-      <c r="F3095" t="inlineStr">
-        <is>
-          <t>64.6</t>
-        </is>
-      </c>
-      <c r="G3095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3096">
-      <c r="A3096" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3096" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3096" t="inlineStr"/>
-      <c r="D3096" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="E3096" t="inlineStr"/>
-      <c r="F3096" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
-      <c r="G3096" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3097">
-      <c r="A3097" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B3097" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUL/18</t>
-        </is>
-      </c>
-      <c r="C3097" t="inlineStr"/>
-      <c r="D3097" t="inlineStr"/>
-      <c r="E3097" t="inlineStr"/>
-      <c r="F3097" t="inlineStr"/>
-      <c r="G3097" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3098">
-      <c r="A3098" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B3098" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUL/18</t>
-        </is>
-      </c>
-      <c r="C3098" t="inlineStr"/>
-      <c r="D3098" t="inlineStr"/>
-      <c r="E3098" t="inlineStr"/>
-      <c r="F3098" t="inlineStr"/>
-      <c r="G3098" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3099">
-      <c r="A3099" t="inlineStr">
-        <is>
-          <t>Saturday July 19 2025</t>
-        </is>
-      </c>
-      <c r="B3099" t="inlineStr"/>
-      <c r="C3099" t="inlineStr"/>
-      <c r="D3099" t="inlineStr"/>
-      <c r="E3099" t="inlineStr"/>
-      <c r="F3099" t="inlineStr"/>
-      <c r="G3099" t="inlineStr"/>
-    </row>
-    <row r="3100">
-      <c r="A3100" t="inlineStr">
-        <is>
-          <t>Sunday July 20 2025</t>
-        </is>
-      </c>
-      <c r="B3100" t="inlineStr"/>
-      <c r="C3100" t="inlineStr"/>
-      <c r="D3100" t="inlineStr"/>
-      <c r="E3100" t="inlineStr"/>
-      <c r="F3100" t="inlineStr"/>
-      <c r="G3100" t="inlineStr"/>
+      <c r="G3054" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-20.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3099"/>
+  <dimension ref="A1:G3054"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81621,10 +81621,8 @@
           <t>245.0K</t>
         </is>
       </c>
-      <c r="G2992" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2992" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2993">
@@ -81654,10 +81652,8 @@
           <t>1967.0K</t>
         </is>
       </c>
-      <c r="G2993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2993" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2994">
@@ -81683,10 +81679,8 @@
           <t>243.0K</t>
         </is>
       </c>
-      <c r="G2994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2994" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2995">
@@ -81704,10 +81698,8 @@
       <c r="D2995" t="inlineStr"/>
       <c r="E2995" t="inlineStr"/>
       <c r="F2995" t="inlineStr"/>
-      <c r="G2995" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2995" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2996">
@@ -81733,10 +81725,8 @@
         </is>
       </c>
       <c r="F2996" t="inlineStr"/>
-      <c r="G2996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2996" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2997">
@@ -81758,10 +81748,8 @@
       </c>
       <c r="E2997" t="inlineStr"/>
       <c r="F2997" t="inlineStr"/>
-      <c r="G2997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2998">
@@ -81783,10 +81771,8 @@
       </c>
       <c r="E2998" t="inlineStr"/>
       <c r="F2998" t="inlineStr"/>
-      <c r="G2998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2998" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2999">
@@ -81808,10 +81794,8 @@
       </c>
       <c r="E2999" t="inlineStr"/>
       <c r="F2999" t="inlineStr"/>
-      <c r="G2999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3000">
@@ -81833,10 +81817,8 @@
       </c>
       <c r="E3000" t="inlineStr"/>
       <c r="F3000" t="inlineStr"/>
-      <c r="G3000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G3000" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3001">
@@ -81858,10 +81840,8 @@
       </c>
       <c r="E3001" t="inlineStr"/>
       <c r="F3001" t="inlineStr"/>
-      <c r="G3001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G3001" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3002">
@@ -81879,61 +81859,75 @@
       <c r="D3002" t="inlineStr"/>
       <c r="E3002" t="inlineStr"/>
       <c r="F3002" t="inlineStr"/>
-      <c r="G3002" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G3002" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3003">
       <c r="A3003" t="inlineStr">
         <is>
-          <t>Friday July 11 2025</t>
-        </is>
-      </c>
-      <c r="B3003" t="inlineStr"/>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="B3003" t="inlineStr">
+        <is>
+          <t>EIA Distillate Stocks ChangeJUL/11</t>
+        </is>
+      </c>
       <c r="C3003" t="inlineStr"/>
-      <c r="D3003" t="inlineStr"/>
+      <c r="D3003" t="inlineStr">
+        <is>
+          <t>-0.825M</t>
+        </is>
+      </c>
       <c r="E3003" t="inlineStr"/>
       <c r="F3003" t="inlineStr"/>
-      <c r="G3003" t="inlineStr"/>
+      <c r="G3003" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="3004">
       <c r="A3004" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B3004" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>EIA Gasoline Production ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3004" t="inlineStr"/>
-      <c r="D3004" t="inlineStr"/>
+      <c r="D3004" t="inlineStr">
+        <is>
+          <t>0.278M</t>
+        </is>
+      </c>
       <c r="E3004" t="inlineStr"/>
       <c r="F3004" t="inlineStr"/>
       <c r="G3004" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3005">
       <c r="A3005" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B3005" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJUL/09</t>
+          <t>EIA Heating Oil Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3005" t="inlineStr"/>
       <c r="D3005" t="inlineStr">
         <is>
-          <t>$6.66T</t>
+          <t>0.603M</t>
         </is>
       </c>
       <c r="E3005" t="inlineStr"/>
@@ -81947,16 +81941,20 @@
     <row r="3006">
       <c r="A3006" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B3006" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>EIA Refinery Crude Runs ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3006" t="inlineStr"/>
-      <c r="D3006" t="inlineStr"/>
+      <c r="D3006" t="inlineStr">
+        <is>
+          <t>-0.099M</t>
+        </is>
+      </c>
       <c r="E3006" t="inlineStr"/>
       <c r="F3006" t="inlineStr"/>
       <c r="G3006" t="inlineStr">
@@ -81968,20 +81966,16 @@
     <row r="3007">
       <c r="A3007" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B3007" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUL/11</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C3007" t="inlineStr"/>
-      <c r="D3007" t="inlineStr">
-        <is>
-          <t>425</t>
-        </is>
-      </c>
+      <c r="D3007" t="inlineStr"/>
       <c r="E3007" t="inlineStr"/>
       <c r="F3007" t="inlineStr"/>
       <c r="G3007" t="inlineStr">
@@ -81993,20 +81987,16 @@
     <row r="3008">
       <c r="A3008" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B3008" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUL/11</t>
+          <t>Fed Beige Book</t>
         </is>
       </c>
       <c r="C3008" t="inlineStr"/>
-      <c r="D3008" t="inlineStr">
-        <is>
-          <t>539</t>
-        </is>
-      </c>
+      <c r="D3008" t="inlineStr"/>
       <c r="E3008" t="inlineStr"/>
       <c r="F3008" t="inlineStr"/>
       <c r="G3008" t="inlineStr">
@@ -82018,111 +82008,127 @@
     <row r="3009">
       <c r="A3009" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B3009" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementJUN</t>
-        </is>
-      </c>
+          <t>Thursday July 17 2025</t>
+        </is>
+      </c>
+      <c r="B3009" t="inlineStr"/>
       <c r="C3009" t="inlineStr"/>
-      <c r="D3009" t="inlineStr">
-        <is>
-          <t>$-316B</t>
-        </is>
-      </c>
-      <c r="E3009" t="inlineStr">
-        <is>
-          <t>$-11B</t>
-        </is>
-      </c>
-      <c r="F3009" t="inlineStr">
-        <is>
-          <t>$-350.0B</t>
-        </is>
-      </c>
-      <c r="G3009" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="D3009" t="inlineStr"/>
+      <c r="E3009" t="inlineStr"/>
+      <c r="F3009" t="inlineStr"/>
+      <c r="G3009" t="inlineStr"/>
     </row>
     <row r="3010">
       <c r="A3010" t="inlineStr">
         <is>
-          <t>Monday July 14 2025</t>
-        </is>
-      </c>
-      <c r="B3010" t="inlineStr"/>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B3010" t="inlineStr">
+        <is>
+          <t>Fed Williams Speech</t>
+        </is>
+      </c>
       <c r="C3010" t="inlineStr"/>
       <c r="D3010" t="inlineStr"/>
       <c r="E3010" t="inlineStr"/>
       <c r="F3010" t="inlineStr"/>
-      <c r="G3010" t="inlineStr"/>
+      <c r="G3010" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="3011">
       <c r="A3011" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3011" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Retail Sales MoMJUN</t>
         </is>
       </c>
       <c r="C3011" t="inlineStr"/>
       <c r="D3011" t="inlineStr">
         <is>
-          <t>4.255%</t>
-        </is>
-      </c>
-      <c r="E3011" t="inlineStr"/>
-      <c r="F3011" t="inlineStr"/>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="E3011" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F3011" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G3011" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3012">
       <c r="A3012" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3012" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Export Prices MoMJUN</t>
         </is>
       </c>
       <c r="C3012" t="inlineStr"/>
       <c r="D3012" t="inlineStr">
         <is>
-          <t>4.145%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="E3012" t="inlineStr"/>
-      <c r="F3012" t="inlineStr"/>
+      <c r="F3012" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G3012" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3013">
       <c r="A3013" t="inlineStr">
         <is>
-          <t>Tuesday July 15 2025</t>
-        </is>
-      </c>
-      <c r="B3013" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B3013" t="inlineStr">
+        <is>
+          <t>Import Prices MoMJUN</t>
+        </is>
+      </c>
       <c r="C3013" t="inlineStr"/>
-      <c r="D3013" t="inlineStr"/>
+      <c r="D3013" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="E3013" t="inlineStr"/>
-      <c r="F3013" t="inlineStr"/>
-      <c r="G3013" t="inlineStr"/>
+      <c r="F3013" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G3013" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="3014">
       <c r="A3014" t="inlineStr">
@@ -82132,28 +82138,24 @@
       </c>
       <c r="B3014" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJUN</t>
+          <t>Initial Jobless ClaimsJUL/12</t>
         </is>
       </c>
       <c r="C3014" t="inlineStr"/>
       <c r="D3014" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E3014" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>227K</t>
+        </is>
+      </c>
+      <c r="E3014" t="inlineStr"/>
       <c r="F3014" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>230.0K</t>
         </is>
       </c>
       <c r="G3014" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -82165,24 +82167,24 @@
       </c>
       <c r="B3015" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJUN</t>
+          <t>Philadelphia Fed Manufacturing IndexJUL</t>
         </is>
       </c>
       <c r="C3015" t="inlineStr"/>
       <c r="D3015" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="E3015" t="inlineStr"/>
       <c r="F3015" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="G3015" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -82194,28 +82196,24 @@
       </c>
       <c r="B3016" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJUN</t>
+          <t>Retail Sales Control Group MoMJUN</t>
         </is>
       </c>
       <c r="C3016" t="inlineStr"/>
       <c r="D3016" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E3016" t="inlineStr">
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E3016" t="inlineStr"/>
+      <c r="F3016" t="inlineStr">
         <is>
           <t>0.3%</t>
         </is>
       </c>
-      <c r="F3016" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
       <c r="G3016" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -82227,24 +82225,28 @@
       </c>
       <c r="B3017" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJUN</t>
+          <t>Retail Sales Ex Autos MoMJUN</t>
         </is>
       </c>
       <c r="C3017" t="inlineStr"/>
       <c r="D3017" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E3017" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="E3017" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F3017" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G3017" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -82256,24 +82258,24 @@
       </c>
       <c r="B3018" t="inlineStr">
         <is>
-          <t>CPIJUN</t>
+          <t>Continuing Jobless ClaimsJUL/05</t>
         </is>
       </c>
       <c r="C3018" t="inlineStr"/>
       <c r="D3018" t="inlineStr">
         <is>
-          <t>321.465</t>
+          <t>1965K</t>
         </is>
       </c>
       <c r="E3018" t="inlineStr"/>
       <c r="F3018" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>1970.0K</t>
         </is>
       </c>
       <c r="G3018" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -82285,24 +82287,24 @@
       </c>
       <c r="B3019" t="inlineStr">
         <is>
-          <t>CPI s.aJUN</t>
+          <t>Export Prices YoYJUN</t>
         </is>
       </c>
       <c r="C3019" t="inlineStr"/>
       <c r="D3019" t="inlineStr">
         <is>
-          <t>320.580</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="E3019" t="inlineStr"/>
       <c r="F3019" t="inlineStr">
         <is>
-          <t>321.2</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="G3019" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -82314,46 +82316,50 @@
       </c>
       <c r="B3020" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexJUL</t>
+          <t>Import Prices YoYJUN</t>
         </is>
       </c>
       <c r="C3020" t="inlineStr"/>
       <c r="D3020" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E3020" t="inlineStr"/>
       <c r="F3020" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G3020" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3021">
       <c r="A3021" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3021" t="inlineStr">
         <is>
-          <t>Redbook YoYJUL/12</t>
+          <t>Jobless Claims 4-week AverageJUL/12</t>
         </is>
       </c>
       <c r="C3021" t="inlineStr"/>
       <c r="D3021" t="inlineStr">
         <is>
-          <t>5.9%</t>
+          <t>235.5K</t>
         </is>
       </c>
       <c r="E3021" t="inlineStr"/>
-      <c r="F3021" t="inlineStr"/>
+      <c r="F3021" t="inlineStr">
+        <is>
+          <t>237.0K</t>
+        </is>
+      </c>
       <c r="G3021" t="inlineStr">
         <is>
           <t>3</t>
@@ -82363,16 +82369,20 @@
     <row r="3022">
       <c r="A3022" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3022" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Philly Fed Business ConditionsJUL</t>
         </is>
       </c>
       <c r="C3022" t="inlineStr"/>
-      <c r="D3022" t="inlineStr"/>
+      <c r="D3022" t="inlineStr">
+        <is>
+          <t>18.3</t>
+        </is>
+      </c>
       <c r="E3022" t="inlineStr"/>
       <c r="F3022" t="inlineStr"/>
       <c r="G3022" t="inlineStr">
@@ -82384,81 +82394,93 @@
     <row r="3023">
       <c r="A3023" t="inlineStr">
         <is>
-          <t>Wednesday July 16 2025</t>
-        </is>
-      </c>
-      <c r="B3023" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B3023" t="inlineStr">
+        <is>
+          <t>Philly Fed CAPEX IndexJUL</t>
+        </is>
+      </c>
       <c r="C3023" t="inlineStr"/>
-      <c r="D3023" t="inlineStr"/>
+      <c r="D3023" t="inlineStr">
+        <is>
+          <t>14.50</t>
+        </is>
+      </c>
       <c r="E3023" t="inlineStr"/>
       <c r="F3023" t="inlineStr"/>
-      <c r="G3023" t="inlineStr"/>
+      <c r="G3023" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="3024">
       <c r="A3024" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3024" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJUL/11</t>
+          <t>Philly Fed EmploymentJUL</t>
         </is>
       </c>
       <c r="C3024" t="inlineStr"/>
       <c r="D3024" t="inlineStr">
         <is>
-          <t>7.1M</t>
+          <t>-9.8</t>
         </is>
       </c>
       <c r="E3024" t="inlineStr"/>
       <c r="F3024" t="inlineStr"/>
       <c r="G3024" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3025">
       <c r="A3025" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3025" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJUL/11</t>
+          <t>Philly Fed New OrdersJUL</t>
         </is>
       </c>
       <c r="C3025" t="inlineStr"/>
       <c r="D3025" t="inlineStr">
         <is>
-          <t>6.77%</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="E3025" t="inlineStr"/>
       <c r="F3025" t="inlineStr"/>
       <c r="G3025" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3026">
       <c r="A3026" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3026" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJUL/11</t>
+          <t>Philly Fed Prices PaidJUL</t>
         </is>
       </c>
       <c r="C3026" t="inlineStr"/>
       <c r="D3026" t="inlineStr">
         <is>
-          <t>9.4%</t>
+          <t>41.40</t>
         </is>
       </c>
       <c r="E3026" t="inlineStr"/>
@@ -82472,22 +82494,26 @@
     <row r="3027">
       <c r="A3027" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3027" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJUL/11</t>
+          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
         </is>
       </c>
       <c r="C3027" t="inlineStr"/>
       <c r="D3027" t="inlineStr">
         <is>
-          <t>281.6</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E3027" t="inlineStr"/>
-      <c r="F3027" t="inlineStr"/>
+      <c r="F3027" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G3027" t="inlineStr">
         <is>
           <t>3</t>
@@ -82497,22 +82523,26 @@
     <row r="3028">
       <c r="A3028" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3028" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJUL/11</t>
+          <t>Retail Sales YoYJUN</t>
         </is>
       </c>
       <c r="C3028" t="inlineStr"/>
       <c r="D3028" t="inlineStr">
         <is>
-          <t>829.3</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="E3028" t="inlineStr"/>
-      <c r="F3028" t="inlineStr"/>
+      <c r="F3028" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="G3028" t="inlineStr">
         <is>
           <t>3</t>
@@ -82522,72 +82552,76 @@
     <row r="3029">
       <c r="A3029" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3029" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJUL/11</t>
+          <t>Business Inventories MoMMAY</t>
         </is>
       </c>
       <c r="C3029" t="inlineStr"/>
       <c r="D3029" t="inlineStr">
         <is>
-          <t>180.9</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E3029" t="inlineStr"/>
-      <c r="F3029" t="inlineStr"/>
+      <c r="F3029" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G3029" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3030">
       <c r="A3030" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3030" t="inlineStr">
         <is>
-          <t>PPI MoMJUN</t>
+          <t>NAHB Housing Market IndexJUL</t>
         </is>
       </c>
       <c r="C3030" t="inlineStr"/>
       <c r="D3030" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E3030" t="inlineStr"/>
       <c r="F3030" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G3030" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3031">
       <c r="A3031" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3031" t="inlineStr">
         <is>
-          <t>Core PPI MoMJUN</t>
+          <t>Retail Inventories Ex Autos MoMMAY</t>
         </is>
       </c>
       <c r="C3031" t="inlineStr"/>
       <c r="D3031" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E3031" t="inlineStr">
@@ -82597,38 +82631,30 @@
       </c>
       <c r="F3031" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G3031" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3032">
       <c r="A3032" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B3032" t="inlineStr">
         <is>
-          <t>Core PPI YoYJUN</t>
+          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3032" t="inlineStr"/>
-      <c r="D3032" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="D3032" t="inlineStr"/>
       <c r="E3032" t="inlineStr"/>
-      <c r="F3032" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="F3032" t="inlineStr"/>
       <c r="G3032" t="inlineStr">
         <is>
           <t>3</t>
@@ -82638,26 +82664,18 @@
     <row r="3033">
       <c r="A3033" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B3033" t="inlineStr">
         <is>
-          <t>PPIJUN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C3033" t="inlineStr"/>
-      <c r="D3033" t="inlineStr">
-        <is>
-          <t>148.072</t>
-        </is>
-      </c>
+      <c r="D3033" t="inlineStr"/>
       <c r="E3033" t="inlineStr"/>
-      <c r="F3033" t="inlineStr">
-        <is>
-          <t>148.9</t>
-        </is>
-      </c>
+      <c r="F3033" t="inlineStr"/>
       <c r="G3033" t="inlineStr">
         <is>
           <t>3</t>
@@ -82667,26 +82685,18 @@
     <row r="3034">
       <c r="A3034" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B3034" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMJUN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C3034" t="inlineStr"/>
-      <c r="D3034" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="D3034" t="inlineStr"/>
       <c r="E3034" t="inlineStr"/>
-      <c r="F3034" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F3034" t="inlineStr"/>
       <c r="G3034" t="inlineStr">
         <is>
           <t>3</t>
@@ -82696,26 +82706,18 @@
     <row r="3035">
       <c r="A3035" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B3035" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYJUN</t>
+          <t>15-Year Mortgage RateJUL/17</t>
         </is>
       </c>
       <c r="C3035" t="inlineStr"/>
-      <c r="D3035" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="D3035" t="inlineStr"/>
       <c r="E3035" t="inlineStr"/>
-      <c r="F3035" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="F3035" t="inlineStr"/>
       <c r="G3035" t="inlineStr">
         <is>
           <t>3</t>
@@ -82725,26 +82727,18 @@
     <row r="3036">
       <c r="A3036" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B3036" t="inlineStr">
         <is>
-          <t>PPI YoYJUN</t>
+          <t>30-Year Mortgage RateJUL/17</t>
         </is>
       </c>
       <c r="C3036" t="inlineStr"/>
-      <c r="D3036" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="D3036" t="inlineStr"/>
       <c r="E3036" t="inlineStr"/>
-      <c r="F3036" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="F3036" t="inlineStr"/>
       <c r="G3036" t="inlineStr">
         <is>
           <t>3</t>
@@ -82754,51 +82748,35 @@
     <row r="3037">
       <c r="A3037" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B3037" t="inlineStr">
-        <is>
-          <t>Fed Hammack Speech</t>
-        </is>
-      </c>
+          <t>Friday July 18 2025</t>
+        </is>
+      </c>
+      <c r="B3037" t="inlineStr"/>
       <c r="C3037" t="inlineStr"/>
       <c r="D3037" t="inlineStr"/>
       <c r="E3037" t="inlineStr"/>
       <c r="F3037" t="inlineStr"/>
-      <c r="G3037" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G3037" t="inlineStr"/>
     </row>
     <row r="3038">
       <c r="A3038" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B3038" t="inlineStr">
         <is>
-          <t>Industrial Production MoMJUN</t>
+          <t>Net Long-term TIC FlowsMAY</t>
         </is>
       </c>
       <c r="C3038" t="inlineStr"/>
       <c r="D3038" t="inlineStr">
         <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E3038" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F3038" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>$-7.8B</t>
+        </is>
+      </c>
+      <c r="E3038" t="inlineStr"/>
+      <c r="F3038" t="inlineStr"/>
       <c r="G3038" t="inlineStr">
         <is>
           <t>2</t>
@@ -82808,30 +82786,22 @@
     <row r="3039">
       <c r="A3039" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B3039" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJUN</t>
+          <t>Foreign Bond InvestmentMAY</t>
         </is>
       </c>
       <c r="C3039" t="inlineStr"/>
       <c r="D3039" t="inlineStr">
         <is>
-          <t>77.4%</t>
-        </is>
-      </c>
-      <c r="E3039" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
-      <c r="F3039" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
+          <t>$-40.8B</t>
+        </is>
+      </c>
+      <c r="E3039" t="inlineStr"/>
+      <c r="F3039" t="inlineStr"/>
       <c r="G3039" t="inlineStr">
         <is>
           <t>3</t>
@@ -82841,26 +82811,22 @@
     <row r="3040">
       <c r="A3040" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B3040" t="inlineStr">
         <is>
-          <t>Industrial Production YoYJUN</t>
+          <t>Overall Net Capital FlowsMAY</t>
         </is>
       </c>
       <c r="C3040" t="inlineStr"/>
       <c r="D3040" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>$-14.2B</t>
         </is>
       </c>
       <c r="E3040" t="inlineStr"/>
-      <c r="F3040" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="F3040" t="inlineStr"/>
       <c r="G3040" t="inlineStr">
         <is>
           <t>3</t>
@@ -82870,26 +82836,18 @@
     <row r="3041">
       <c r="A3041" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B3041" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMJUN</t>
+          <t>Fed Balance SheetJUL/16</t>
         </is>
       </c>
       <c r="C3041" t="inlineStr"/>
-      <c r="D3041" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="D3041" t="inlineStr"/>
       <c r="E3041" t="inlineStr"/>
-      <c r="F3041" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F3041" t="inlineStr"/>
       <c r="G3041" t="inlineStr">
         <is>
           <t>3</t>
@@ -82899,76 +82857,88 @@
     <row r="3042">
       <c r="A3042" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3042" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYJUN</t>
+          <t>Building Permits PrelJUN</t>
         </is>
       </c>
       <c r="C3042" t="inlineStr"/>
       <c r="D3042" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.394M</t>
         </is>
       </c>
       <c r="E3042" t="inlineStr"/>
       <c r="F3042" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>1.37M</t>
         </is>
       </c>
       <c r="G3042" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3043">
       <c r="A3043" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3043" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJUL/11</t>
+          <t>Housing StartsJUN</t>
         </is>
       </c>
       <c r="C3043" t="inlineStr"/>
       <c r="D3043" t="inlineStr">
         <is>
-          <t>7.07M</t>
-        </is>
-      </c>
-      <c r="E3043" t="inlineStr"/>
-      <c r="F3043" t="inlineStr"/>
+          <t>1.256M</t>
+        </is>
+      </c>
+      <c r="E3043" t="inlineStr">
+        <is>
+          <t>1.30M</t>
+        </is>
+      </c>
+      <c r="F3043" t="inlineStr">
+        <is>
+          <t>1.29M</t>
+        </is>
+      </c>
       <c r="G3043" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3044">
       <c r="A3044" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3044" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJUL/11</t>
+          <t>Building Permits MoM PrelJUN</t>
         </is>
       </c>
       <c r="C3044" t="inlineStr"/>
       <c r="D3044" t="inlineStr">
         <is>
-          <t>-2.658M</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="E3044" t="inlineStr"/>
-      <c r="F3044" t="inlineStr"/>
+      <c r="F3044" t="inlineStr">
+        <is>
+          <t>-1.7%</t>
+        </is>
+      </c>
       <c r="G3044" t="inlineStr">
         <is>
           <t>2</t>
@@ -82978,72 +82948,88 @@
     <row r="3045">
       <c r="A3045" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3045" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJUL/11</t>
+          <t>Housing Starts MoMJUN</t>
         </is>
       </c>
       <c r="C3045" t="inlineStr"/>
       <c r="D3045" t="inlineStr">
         <is>
-          <t>-1.358M</t>
+          <t>-9.8%</t>
         </is>
       </c>
       <c r="E3045" t="inlineStr"/>
-      <c r="F3045" t="inlineStr"/>
+      <c r="F3045" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="G3045" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3046">
       <c r="A3046" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3046" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUL/11</t>
+          <t>Michigan Consumer Sentiment PrelJUL</t>
         </is>
       </c>
       <c r="C3046" t="inlineStr"/>
       <c r="D3046" t="inlineStr">
         <is>
-          <t>0.464M</t>
-        </is>
-      </c>
-      <c r="E3046" t="inlineStr"/>
-      <c r="F3046" t="inlineStr"/>
+          <t>60.7</t>
+        </is>
+      </c>
+      <c r="E3046" t="inlineStr">
+        <is>
+          <t>61.5</t>
+        </is>
+      </c>
+      <c r="F3046" t="inlineStr">
+        <is>
+          <t>60.5</t>
+        </is>
+      </c>
       <c r="G3046" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3047">
       <c r="A3047" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3047" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJUL/11</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C3047" t="inlineStr"/>
       <c r="D3047" t="inlineStr">
         <is>
-          <t>0.059M</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="E3047" t="inlineStr"/>
-      <c r="F3047" t="inlineStr"/>
+      <c r="F3047" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
       <c r="G3047" t="inlineStr">
         <is>
           <t>3</t>
@@ -83053,22 +83039,26 @@
     <row r="3048">
       <c r="A3048" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3048" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJUL/11</t>
+          <t>Michigan Consumer Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C3048" t="inlineStr"/>
       <c r="D3048" t="inlineStr">
         <is>
-          <t>-0.825M</t>
+          <t>58.1</t>
         </is>
       </c>
       <c r="E3048" t="inlineStr"/>
-      <c r="F3048" t="inlineStr"/>
+      <c r="F3048" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
       <c r="G3048" t="inlineStr">
         <is>
           <t>3</t>
@@ -83078,22 +83068,26 @@
     <row r="3049">
       <c r="A3049" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3049" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJUL/11</t>
+          <t>Michigan Current Conditions PrelJUL</t>
         </is>
       </c>
       <c r="C3049" t="inlineStr"/>
       <c r="D3049" t="inlineStr">
         <is>
-          <t>0.278M</t>
+          <t>64.8</t>
         </is>
       </c>
       <c r="E3049" t="inlineStr"/>
-      <c r="F3049" t="inlineStr"/>
+      <c r="F3049" t="inlineStr">
+        <is>
+          <t>64.6</t>
+        </is>
+      </c>
       <c r="G3049" t="inlineStr">
         <is>
           <t>3</t>
@@ -83103,22 +83097,26 @@
     <row r="3050">
       <c r="A3050" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3050" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJUL/11</t>
+          <t>Michigan Inflation Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C3050" t="inlineStr"/>
       <c r="D3050" t="inlineStr">
         <is>
-          <t>0.603M</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="E3050" t="inlineStr"/>
-      <c r="F3050" t="inlineStr"/>
+      <c r="F3050" t="inlineStr">
+        <is>
+          <t>4.7%</t>
+        </is>
+      </c>
       <c r="G3050" t="inlineStr">
         <is>
           <t>3</t>
@@ -83128,20 +83126,16 @@
     <row r="3051">
       <c r="A3051" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B3051" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJUL/11</t>
+          <t>Baker Hughes Oil Rig CountJUL/18</t>
         </is>
       </c>
       <c r="C3051" t="inlineStr"/>
-      <c r="D3051" t="inlineStr">
-        <is>
-          <t>-0.099M</t>
-        </is>
-      </c>
+      <c r="D3051" t="inlineStr"/>
       <c r="E3051" t="inlineStr"/>
       <c r="F3051" t="inlineStr"/>
       <c r="G3051" t="inlineStr">
@@ -83153,12 +83147,12 @@
     <row r="3052">
       <c r="A3052" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B3052" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Baker Hughes Total Rigs CountJUL/18</t>
         </is>
       </c>
       <c r="C3052" t="inlineStr"/>
@@ -83174,28 +83168,20 @@
     <row r="3053">
       <c r="A3053" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B3053" t="inlineStr">
-        <is>
-          <t>Fed Beige Book</t>
-        </is>
-      </c>
+          <t>Saturday July 19 2025</t>
+        </is>
+      </c>
+      <c r="B3053" t="inlineStr"/>
       <c r="C3053" t="inlineStr"/>
       <c r="D3053" t="inlineStr"/>
       <c r="E3053" t="inlineStr"/>
       <c r="F3053" t="inlineStr"/>
-      <c r="G3053" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G3053" t="inlineStr"/>
     </row>
     <row r="3054">
       <c r="A3054" t="inlineStr">
         <is>
-          <t>Thursday July 17 2025</t>
+          <t>Sunday July 20 2025</t>
         </is>
       </c>
       <c r="B3054" t="inlineStr"/>
@@ -83205,1159 +83191,6 @@
       <c r="F3054" t="inlineStr"/>
       <c r="G3054" t="inlineStr"/>
     </row>
-    <row r="3055">
-      <c r="A3055" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B3055" t="inlineStr">
-        <is>
-          <t>Fed Williams Speech</t>
-        </is>
-      </c>
-      <c r="C3055" t="inlineStr"/>
-      <c r="D3055" t="inlineStr"/>
-      <c r="E3055" t="inlineStr"/>
-      <c r="F3055" t="inlineStr"/>
-      <c r="G3055" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3056">
-      <c r="A3056" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3056" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3056" t="inlineStr"/>
-      <c r="D3056" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E3056" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F3056" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G3056" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3057">
-      <c r="A3057" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3057" t="inlineStr">
-        <is>
-          <t>Export Prices MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3057" t="inlineStr"/>
-      <c r="D3057" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E3057" t="inlineStr"/>
-      <c r="F3057" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G3057" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3058">
-      <c r="A3058" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3058" t="inlineStr">
-        <is>
-          <t>Import Prices MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3058" t="inlineStr"/>
-      <c r="D3058" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E3058" t="inlineStr"/>
-      <c r="F3058" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G3058" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3059">
-      <c r="A3059" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3059" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUL/12</t>
-        </is>
-      </c>
-      <c r="C3059" t="inlineStr"/>
-      <c r="D3059" t="inlineStr"/>
-      <c r="E3059" t="inlineStr"/>
-      <c r="F3059" t="inlineStr"/>
-      <c r="G3059" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3060">
-      <c r="A3060" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3060" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexJUL</t>
-        </is>
-      </c>
-      <c r="C3060" t="inlineStr"/>
-      <c r="D3060" t="inlineStr">
-        <is>
-          <t>-4.0</t>
-        </is>
-      </c>
-      <c r="E3060" t="inlineStr"/>
-      <c r="F3060" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="G3060" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3061">
-      <c r="A3061" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3061" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3061" t="inlineStr"/>
-      <c r="D3061" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E3061" t="inlineStr"/>
-      <c r="F3061" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G3061" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3062">
-      <c r="A3062" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3062" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3062" t="inlineStr"/>
-      <c r="D3062" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E3062" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F3062" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G3062" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3063">
-      <c r="A3063" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3063" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJUL/05</t>
-        </is>
-      </c>
-      <c r="C3063" t="inlineStr"/>
-      <c r="D3063" t="inlineStr"/>
-      <c r="E3063" t="inlineStr"/>
-      <c r="F3063" t="inlineStr">
-        <is>
-          <t>1970.0K</t>
-        </is>
-      </c>
-      <c r="G3063" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3064">
-      <c r="A3064" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3064" t="inlineStr">
-        <is>
-          <t>Export Prices YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3064" t="inlineStr"/>
-      <c r="D3064" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="E3064" t="inlineStr"/>
-      <c r="F3064" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G3064" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3065">
-      <c r="A3065" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3065" t="inlineStr">
-        <is>
-          <t>Import Prices YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3065" t="inlineStr"/>
-      <c r="D3065" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E3065" t="inlineStr"/>
-      <c r="F3065" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G3065" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3066">
-      <c r="A3066" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3066" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUL/12</t>
-        </is>
-      </c>
-      <c r="C3066" t="inlineStr"/>
-      <c r="D3066" t="inlineStr"/>
-      <c r="E3066" t="inlineStr"/>
-      <c r="F3066" t="inlineStr"/>
-      <c r="G3066" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3067">
-      <c r="A3067" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3067" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsJUL</t>
-        </is>
-      </c>
-      <c r="C3067" t="inlineStr"/>
-      <c r="D3067" t="inlineStr">
-        <is>
-          <t>18.3</t>
-        </is>
-      </c>
-      <c r="E3067" t="inlineStr"/>
-      <c r="F3067" t="inlineStr"/>
-      <c r="G3067" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3068">
-      <c r="A3068" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3068" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexJUL</t>
-        </is>
-      </c>
-      <c r="C3068" t="inlineStr"/>
-      <c r="D3068" t="inlineStr">
-        <is>
-          <t>14.50</t>
-        </is>
-      </c>
-      <c r="E3068" t="inlineStr"/>
-      <c r="F3068" t="inlineStr"/>
-      <c r="G3068" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3069">
-      <c r="A3069" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3069" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentJUL</t>
-        </is>
-      </c>
-      <c r="C3069" t="inlineStr"/>
-      <c r="D3069" t="inlineStr">
-        <is>
-          <t>-9.8</t>
-        </is>
-      </c>
-      <c r="E3069" t="inlineStr"/>
-      <c r="F3069" t="inlineStr"/>
-      <c r="G3069" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3070">
-      <c r="A3070" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3070" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersJUL</t>
-        </is>
-      </c>
-      <c r="C3070" t="inlineStr"/>
-      <c r="D3070" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="E3070" t="inlineStr"/>
-      <c r="F3070" t="inlineStr"/>
-      <c r="G3070" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3071">
-      <c r="A3071" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3071" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidJUL</t>
-        </is>
-      </c>
-      <c r="C3071" t="inlineStr"/>
-      <c r="D3071" t="inlineStr">
-        <is>
-          <t>41.40</t>
-        </is>
-      </c>
-      <c r="E3071" t="inlineStr"/>
-      <c r="F3071" t="inlineStr"/>
-      <c r="G3071" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3072">
-      <c r="A3072" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3072" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3072" t="inlineStr"/>
-      <c r="D3072" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E3072" t="inlineStr"/>
-      <c r="F3072" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G3072" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3073">
-      <c r="A3073" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3073" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3073" t="inlineStr"/>
-      <c r="D3073" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E3073" t="inlineStr"/>
-      <c r="F3073" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G3073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3074">
-      <c r="A3074" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3074" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMMAY</t>
-        </is>
-      </c>
-      <c r="C3074" t="inlineStr"/>
-      <c r="D3074" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E3074" t="inlineStr"/>
-      <c r="F3074" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G3074" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3075">
-      <c r="A3075" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3075" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexJUL</t>
-        </is>
-      </c>
-      <c r="C3075" t="inlineStr"/>
-      <c r="D3075" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="E3075" t="inlineStr"/>
-      <c r="F3075" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="G3075" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3076">
-      <c r="A3076" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3076" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMMAY</t>
-        </is>
-      </c>
-      <c r="C3076" t="inlineStr"/>
-      <c r="D3076" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E3076" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F3076" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G3076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3077">
-      <c r="A3077" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3077" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3077" t="inlineStr"/>
-      <c r="D3077" t="inlineStr"/>
-      <c r="E3077" t="inlineStr"/>
-      <c r="F3077" t="inlineStr"/>
-      <c r="G3077" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3078">
-      <c r="A3078" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B3078" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C3078" t="inlineStr"/>
-      <c r="D3078" t="inlineStr"/>
-      <c r="E3078" t="inlineStr"/>
-      <c r="F3078" t="inlineStr"/>
-      <c r="G3078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3079">
-      <c r="A3079" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B3079" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C3079" t="inlineStr"/>
-      <c r="D3079" t="inlineStr"/>
-      <c r="E3079" t="inlineStr"/>
-      <c r="F3079" t="inlineStr"/>
-      <c r="G3079" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3080">
-      <c r="A3080" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B3080" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUL/17</t>
-        </is>
-      </c>
-      <c r="C3080" t="inlineStr"/>
-      <c r="D3080" t="inlineStr"/>
-      <c r="E3080" t="inlineStr"/>
-      <c r="F3080" t="inlineStr"/>
-      <c r="G3080" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3081">
-      <c r="A3081" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B3081" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUL/17</t>
-        </is>
-      </c>
-      <c r="C3081" t="inlineStr"/>
-      <c r="D3081" t="inlineStr"/>
-      <c r="E3081" t="inlineStr"/>
-      <c r="F3081" t="inlineStr"/>
-      <c r="G3081" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3082">
-      <c r="A3082" t="inlineStr">
-        <is>
-          <t>Friday July 18 2025</t>
-        </is>
-      </c>
-      <c r="B3082" t="inlineStr"/>
-      <c r="C3082" t="inlineStr"/>
-      <c r="D3082" t="inlineStr"/>
-      <c r="E3082" t="inlineStr"/>
-      <c r="F3082" t="inlineStr"/>
-      <c r="G3082" t="inlineStr"/>
-    </row>
-    <row r="3083">
-      <c r="A3083" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B3083" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsMAY</t>
-        </is>
-      </c>
-      <c r="C3083" t="inlineStr"/>
-      <c r="D3083" t="inlineStr">
-        <is>
-          <t>$-7.8B</t>
-        </is>
-      </c>
-      <c r="E3083" t="inlineStr"/>
-      <c r="F3083" t="inlineStr"/>
-      <c r="G3083" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3084">
-      <c r="A3084" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B3084" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentMAY</t>
-        </is>
-      </c>
-      <c r="C3084" t="inlineStr"/>
-      <c r="D3084" t="inlineStr">
-        <is>
-          <t>$-40.8B</t>
-        </is>
-      </c>
-      <c r="E3084" t="inlineStr"/>
-      <c r="F3084" t="inlineStr"/>
-      <c r="G3084" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3085">
-      <c r="A3085" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B3085" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsMAY</t>
-        </is>
-      </c>
-      <c r="C3085" t="inlineStr"/>
-      <c r="D3085" t="inlineStr">
-        <is>
-          <t>$-14.2B</t>
-        </is>
-      </c>
-      <c r="E3085" t="inlineStr"/>
-      <c r="F3085" t="inlineStr"/>
-      <c r="G3085" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3086">
-      <c r="A3086" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B3086" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUL/16</t>
-        </is>
-      </c>
-      <c r="C3086" t="inlineStr"/>
-      <c r="D3086" t="inlineStr"/>
-      <c r="E3086" t="inlineStr"/>
-      <c r="F3086" t="inlineStr"/>
-      <c r="G3086" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3087">
-      <c r="A3087" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3087" t="inlineStr">
-        <is>
-          <t>Building Permits PrelJUN</t>
-        </is>
-      </c>
-      <c r="C3087" t="inlineStr"/>
-      <c r="D3087" t="inlineStr">
-        <is>
-          <t>1.394M</t>
-        </is>
-      </c>
-      <c r="E3087" t="inlineStr"/>
-      <c r="F3087" t="inlineStr">
-        <is>
-          <t>1.37M</t>
-        </is>
-      </c>
-      <c r="G3087" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3088">
-      <c r="A3088" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3088" t="inlineStr">
-        <is>
-          <t>Housing StartsJUN</t>
-        </is>
-      </c>
-      <c r="C3088" t="inlineStr"/>
-      <c r="D3088" t="inlineStr">
-        <is>
-          <t>1.256M</t>
-        </is>
-      </c>
-      <c r="E3088" t="inlineStr">
-        <is>
-          <t>1.30M</t>
-        </is>
-      </c>
-      <c r="F3088" t="inlineStr">
-        <is>
-          <t>1.29M</t>
-        </is>
-      </c>
-      <c r="G3088" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3089">
-      <c r="A3089" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3089" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelJUN</t>
-        </is>
-      </c>
-      <c r="C3089" t="inlineStr"/>
-      <c r="D3089" t="inlineStr">
-        <is>
-          <t>-2%</t>
-        </is>
-      </c>
-      <c r="E3089" t="inlineStr"/>
-      <c r="F3089" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="G3089" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3090">
-      <c r="A3090" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3090" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3090" t="inlineStr"/>
-      <c r="D3090" t="inlineStr">
-        <is>
-          <t>-9.8%</t>
-        </is>
-      </c>
-      <c r="E3090" t="inlineStr"/>
-      <c r="F3090" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G3090" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3091">
-      <c r="A3091" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3091" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3091" t="inlineStr"/>
-      <c r="D3091" t="inlineStr">
-        <is>
-          <t>60.7</t>
-        </is>
-      </c>
-      <c r="E3091" t="inlineStr">
-        <is>
-          <t>61.5</t>
-        </is>
-      </c>
-      <c r="F3091" t="inlineStr">
-        <is>
-          <t>60.5</t>
-        </is>
-      </c>
-      <c r="G3091" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3092">
-      <c r="A3092" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3092" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3092" t="inlineStr"/>
-      <c r="D3092" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E3092" t="inlineStr"/>
-      <c r="F3092" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G3092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3093">
-      <c r="A3093" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3093" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3093" t="inlineStr"/>
-      <c r="D3093" t="inlineStr">
-        <is>
-          <t>58.1</t>
-        </is>
-      </c>
-      <c r="E3093" t="inlineStr"/>
-      <c r="F3093" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G3093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3094">
-      <c r="A3094" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3094" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3094" t="inlineStr"/>
-      <c r="D3094" t="inlineStr">
-        <is>
-          <t>64.8</t>
-        </is>
-      </c>
-      <c r="E3094" t="inlineStr"/>
-      <c r="F3094" t="inlineStr">
-        <is>
-          <t>64.6</t>
-        </is>
-      </c>
-      <c r="G3094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3095">
-      <c r="A3095" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3095" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3095" t="inlineStr"/>
-      <c r="D3095" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="E3095" t="inlineStr"/>
-      <c r="F3095" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
-      <c r="G3095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3096">
-      <c r="A3096" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B3096" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUL/18</t>
-        </is>
-      </c>
-      <c r="C3096" t="inlineStr"/>
-      <c r="D3096" t="inlineStr"/>
-      <c r="E3096" t="inlineStr"/>
-      <c r="F3096" t="inlineStr"/>
-      <c r="G3096" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3097">
-      <c r="A3097" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B3097" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUL/18</t>
-        </is>
-      </c>
-      <c r="C3097" t="inlineStr"/>
-      <c r="D3097" t="inlineStr"/>
-      <c r="E3097" t="inlineStr"/>
-      <c r="F3097" t="inlineStr"/>
-      <c r="G3097" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3098">
-      <c r="A3098" t="inlineStr">
-        <is>
-          <t>Saturday July 19 2025</t>
-        </is>
-      </c>
-      <c r="B3098" t="inlineStr"/>
-      <c r="C3098" t="inlineStr"/>
-      <c r="D3098" t="inlineStr"/>
-      <c r="E3098" t="inlineStr"/>
-      <c r="F3098" t="inlineStr"/>
-      <c r="G3098" t="inlineStr"/>
-    </row>
-    <row r="3099">
-      <c r="A3099" t="inlineStr">
-        <is>
-          <t>Sunday July 20 2025</t>
-        </is>
-      </c>
-      <c r="B3099" t="inlineStr"/>
-      <c r="C3099" t="inlineStr"/>
-      <c r="D3099" t="inlineStr"/>
-      <c r="E3099" t="inlineStr"/>
-      <c r="F3099" t="inlineStr"/>
-      <c r="G3099" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-20.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3099"/>
+  <dimension ref="A1:G3054"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81625,10 +81625,8 @@
           <t>245.0K</t>
         </is>
       </c>
-      <c r="G2992" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2992" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2993">
@@ -81662,10 +81660,8 @@
           <t>1967.0K</t>
         </is>
       </c>
-      <c r="G2993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2993" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2994">
@@ -81695,10 +81691,8 @@
           <t>243.0K</t>
         </is>
       </c>
-      <c r="G2994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2994" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2995">
@@ -81716,10 +81710,8 @@
       <c r="D2995" t="inlineStr"/>
       <c r="E2995" t="inlineStr"/>
       <c r="F2995" t="inlineStr"/>
-      <c r="G2995" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2995" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2996">
@@ -81749,10 +81741,8 @@
         </is>
       </c>
       <c r="F2996" t="inlineStr"/>
-      <c r="G2996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2996" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2997">
@@ -81774,10 +81764,8 @@
       </c>
       <c r="E2997" t="inlineStr"/>
       <c r="F2997" t="inlineStr"/>
-      <c r="G2997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2998">
@@ -81799,10 +81787,8 @@
       </c>
       <c r="E2998" t="inlineStr"/>
       <c r="F2998" t="inlineStr"/>
-      <c r="G2998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2998" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2999">
@@ -81824,10 +81810,8 @@
       </c>
       <c r="E2999" t="inlineStr"/>
       <c r="F2999" t="inlineStr"/>
-      <c r="G2999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3000">
@@ -81849,10 +81833,8 @@
       </c>
       <c r="E3000" t="inlineStr"/>
       <c r="F3000" t="inlineStr"/>
-      <c r="G3000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G3000" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3001">
@@ -81874,10 +81856,8 @@
       </c>
       <c r="E3001" t="inlineStr"/>
       <c r="F3001" t="inlineStr"/>
-      <c r="G3001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G3001" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3002">
@@ -81895,61 +81875,75 @@
       <c r="D3002" t="inlineStr"/>
       <c r="E3002" t="inlineStr"/>
       <c r="F3002" t="inlineStr"/>
-      <c r="G3002" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G3002" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3003">
       <c r="A3003" t="inlineStr">
         <is>
-          <t>Friday July 11 2025</t>
-        </is>
-      </c>
-      <c r="B3003" t="inlineStr"/>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="B3003" t="inlineStr">
+        <is>
+          <t>EIA Distillate Stocks ChangeJUL/11</t>
+        </is>
+      </c>
       <c r="C3003" t="inlineStr"/>
-      <c r="D3003" t="inlineStr"/>
+      <c r="D3003" t="inlineStr">
+        <is>
+          <t>-0.825M</t>
+        </is>
+      </c>
       <c r="E3003" t="inlineStr"/>
       <c r="F3003" t="inlineStr"/>
-      <c r="G3003" t="inlineStr"/>
+      <c r="G3003" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="3004">
       <c r="A3004" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B3004" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>EIA Gasoline Production ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3004" t="inlineStr"/>
-      <c r="D3004" t="inlineStr"/>
+      <c r="D3004" t="inlineStr">
+        <is>
+          <t>0.278M</t>
+        </is>
+      </c>
       <c r="E3004" t="inlineStr"/>
       <c r="F3004" t="inlineStr"/>
       <c r="G3004" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3005">
       <c r="A3005" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B3005" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJUL/09</t>
+          <t>EIA Heating Oil Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3005" t="inlineStr"/>
       <c r="D3005" t="inlineStr">
         <is>
-          <t>$6.66T</t>
+          <t>0.603M</t>
         </is>
       </c>
       <c r="E3005" t="inlineStr"/>
@@ -81963,16 +81957,20 @@
     <row r="3006">
       <c r="A3006" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B3006" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>EIA Refinery Crude Runs ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3006" t="inlineStr"/>
-      <c r="D3006" t="inlineStr"/>
+      <c r="D3006" t="inlineStr">
+        <is>
+          <t>-0.099M</t>
+        </is>
+      </c>
       <c r="E3006" t="inlineStr"/>
       <c r="F3006" t="inlineStr"/>
       <c r="G3006" t="inlineStr">
@@ -81984,18 +81982,18 @@
     <row r="3007">
       <c r="A3007" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B3007" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUL/11</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C3007" t="inlineStr"/>
       <c r="D3007" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>4.230%</t>
         </is>
       </c>
       <c r="E3007" t="inlineStr"/>
@@ -82009,20 +82007,16 @@
     <row r="3008">
       <c r="A3008" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B3008" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUL/11</t>
+          <t>Fed Beige Book</t>
         </is>
       </c>
       <c r="C3008" t="inlineStr"/>
-      <c r="D3008" t="inlineStr">
-        <is>
-          <t>539</t>
-        </is>
-      </c>
+      <c r="D3008" t="inlineStr"/>
       <c r="E3008" t="inlineStr"/>
       <c r="F3008" t="inlineStr"/>
       <c r="G3008" t="inlineStr">
@@ -82034,111 +82028,127 @@
     <row r="3009">
       <c r="A3009" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B3009" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementJUN</t>
-        </is>
-      </c>
+          <t>Thursday July 17 2025</t>
+        </is>
+      </c>
+      <c r="B3009" t="inlineStr"/>
       <c r="C3009" t="inlineStr"/>
-      <c r="D3009" t="inlineStr">
-        <is>
-          <t>$-316B</t>
-        </is>
-      </c>
-      <c r="E3009" t="inlineStr">
-        <is>
-          <t>$-11B</t>
-        </is>
-      </c>
-      <c r="F3009" t="inlineStr">
-        <is>
-          <t>$-350.0B</t>
-        </is>
-      </c>
-      <c r="G3009" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="D3009" t="inlineStr"/>
+      <c r="E3009" t="inlineStr"/>
+      <c r="F3009" t="inlineStr"/>
+      <c r="G3009" t="inlineStr"/>
     </row>
     <row r="3010">
       <c r="A3010" t="inlineStr">
         <is>
-          <t>Monday July 14 2025</t>
-        </is>
-      </c>
-      <c r="B3010" t="inlineStr"/>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B3010" t="inlineStr">
+        <is>
+          <t>Fed Williams Speech</t>
+        </is>
+      </c>
       <c r="C3010" t="inlineStr"/>
       <c r="D3010" t="inlineStr"/>
       <c r="E3010" t="inlineStr"/>
       <c r="F3010" t="inlineStr"/>
-      <c r="G3010" t="inlineStr"/>
+      <c r="G3010" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="3011">
       <c r="A3011" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3011" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Retail Sales MoMJUN</t>
         </is>
       </c>
       <c r="C3011" t="inlineStr"/>
       <c r="D3011" t="inlineStr">
         <is>
-          <t>4.255%</t>
-        </is>
-      </c>
-      <c r="E3011" t="inlineStr"/>
-      <c r="F3011" t="inlineStr"/>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="E3011" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F3011" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G3011" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3012">
       <c r="A3012" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3012" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Export Prices MoMJUN</t>
         </is>
       </c>
       <c r="C3012" t="inlineStr"/>
       <c r="D3012" t="inlineStr">
         <is>
-          <t>4.145%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="E3012" t="inlineStr"/>
-      <c r="F3012" t="inlineStr"/>
+      <c r="F3012" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G3012" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3013">
       <c r="A3013" t="inlineStr">
         <is>
-          <t>Tuesday July 15 2025</t>
-        </is>
-      </c>
-      <c r="B3013" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B3013" t="inlineStr">
+        <is>
+          <t>Import Prices MoMJUN</t>
+        </is>
+      </c>
       <c r="C3013" t="inlineStr"/>
-      <c r="D3013" t="inlineStr"/>
+      <c r="D3013" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="E3013" t="inlineStr"/>
-      <c r="F3013" t="inlineStr"/>
-      <c r="G3013" t="inlineStr"/>
+      <c r="F3013" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G3013" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="3014">
       <c r="A3014" t="inlineStr">
@@ -82148,28 +82158,24 @@
       </c>
       <c r="B3014" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJUN</t>
+          <t>Initial Jobless ClaimsJUL/12</t>
         </is>
       </c>
       <c r="C3014" t="inlineStr"/>
       <c r="D3014" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E3014" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>227K</t>
+        </is>
+      </c>
+      <c r="E3014" t="inlineStr"/>
       <c r="F3014" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>230.0K</t>
         </is>
       </c>
       <c r="G3014" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -82181,24 +82187,24 @@
       </c>
       <c r="B3015" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJUN</t>
+          <t>Philadelphia Fed Manufacturing IndexJUL</t>
         </is>
       </c>
       <c r="C3015" t="inlineStr"/>
       <c r="D3015" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="E3015" t="inlineStr"/>
       <c r="F3015" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="G3015" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -82210,28 +82216,24 @@
       </c>
       <c r="B3016" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJUN</t>
+          <t>Retail Sales Control Group MoMJUN</t>
         </is>
       </c>
       <c r="C3016" t="inlineStr"/>
       <c r="D3016" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E3016" t="inlineStr">
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E3016" t="inlineStr"/>
+      <c r="F3016" t="inlineStr">
         <is>
           <t>0.3%</t>
         </is>
       </c>
-      <c r="F3016" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
       <c r="G3016" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -82243,24 +82245,28 @@
       </c>
       <c r="B3017" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJUN</t>
+          <t>Retail Sales Ex Autos MoMJUN</t>
         </is>
       </c>
       <c r="C3017" t="inlineStr"/>
       <c r="D3017" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E3017" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="E3017" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F3017" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G3017" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -82272,24 +82278,24 @@
       </c>
       <c r="B3018" t="inlineStr">
         <is>
-          <t>CPIJUN</t>
+          <t>Continuing Jobless ClaimsJUL/05</t>
         </is>
       </c>
       <c r="C3018" t="inlineStr"/>
       <c r="D3018" t="inlineStr">
         <is>
-          <t>321.465</t>
+          <t>1965K</t>
         </is>
       </c>
       <c r="E3018" t="inlineStr"/>
       <c r="F3018" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>1970.0K</t>
         </is>
       </c>
       <c r="G3018" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -82301,24 +82307,24 @@
       </c>
       <c r="B3019" t="inlineStr">
         <is>
-          <t>CPI s.aJUN</t>
+          <t>Export Prices YoYJUN</t>
         </is>
       </c>
       <c r="C3019" t="inlineStr"/>
       <c r="D3019" t="inlineStr">
         <is>
-          <t>320.580</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="E3019" t="inlineStr"/>
       <c r="F3019" t="inlineStr">
         <is>
-          <t>321.2</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="G3019" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -82330,46 +82336,50 @@
       </c>
       <c r="B3020" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexJUL</t>
+          <t>Import Prices YoYJUN</t>
         </is>
       </c>
       <c r="C3020" t="inlineStr"/>
       <c r="D3020" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E3020" t="inlineStr"/>
       <c r="F3020" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G3020" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3021">
       <c r="A3021" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3021" t="inlineStr">
         <is>
-          <t>Redbook YoYJUL/12</t>
+          <t>Jobless Claims 4-week AverageJUL/12</t>
         </is>
       </c>
       <c r="C3021" t="inlineStr"/>
       <c r="D3021" t="inlineStr">
         <is>
-          <t>5.9%</t>
+          <t>235.5K</t>
         </is>
       </c>
       <c r="E3021" t="inlineStr"/>
-      <c r="F3021" t="inlineStr"/>
+      <c r="F3021" t="inlineStr">
+        <is>
+          <t>237.0K</t>
+        </is>
+      </c>
       <c r="G3021" t="inlineStr">
         <is>
           <t>3</t>
@@ -82379,16 +82389,20 @@
     <row r="3022">
       <c r="A3022" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3022" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Philly Fed Business ConditionsJUL</t>
         </is>
       </c>
       <c r="C3022" t="inlineStr"/>
-      <c r="D3022" t="inlineStr"/>
+      <c r="D3022" t="inlineStr">
+        <is>
+          <t>18.3</t>
+        </is>
+      </c>
       <c r="E3022" t="inlineStr"/>
       <c r="F3022" t="inlineStr"/>
       <c r="G3022" t="inlineStr">
@@ -82400,81 +82414,93 @@
     <row r="3023">
       <c r="A3023" t="inlineStr">
         <is>
-          <t>Wednesday July 16 2025</t>
-        </is>
-      </c>
-      <c r="B3023" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B3023" t="inlineStr">
+        <is>
+          <t>Philly Fed CAPEX IndexJUL</t>
+        </is>
+      </c>
       <c r="C3023" t="inlineStr"/>
-      <c r="D3023" t="inlineStr"/>
+      <c r="D3023" t="inlineStr">
+        <is>
+          <t>14.50</t>
+        </is>
+      </c>
       <c r="E3023" t="inlineStr"/>
       <c r="F3023" t="inlineStr"/>
-      <c r="G3023" t="inlineStr"/>
+      <c r="G3023" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="3024">
       <c r="A3024" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3024" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJUL/11</t>
+          <t>Philly Fed EmploymentJUL</t>
         </is>
       </c>
       <c r="C3024" t="inlineStr"/>
       <c r="D3024" t="inlineStr">
         <is>
-          <t>7.1M</t>
+          <t>-9.8</t>
         </is>
       </c>
       <c r="E3024" t="inlineStr"/>
       <c r="F3024" t="inlineStr"/>
       <c r="G3024" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3025">
       <c r="A3025" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3025" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJUL/11</t>
+          <t>Philly Fed New OrdersJUL</t>
         </is>
       </c>
       <c r="C3025" t="inlineStr"/>
       <c r="D3025" t="inlineStr">
         <is>
-          <t>6.77%</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="E3025" t="inlineStr"/>
       <c r="F3025" t="inlineStr"/>
       <c r="G3025" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3026">
       <c r="A3026" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3026" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJUL/11</t>
+          <t>Philly Fed Prices PaidJUL</t>
         </is>
       </c>
       <c r="C3026" t="inlineStr"/>
       <c r="D3026" t="inlineStr">
         <is>
-          <t>9.4%</t>
+          <t>41.40</t>
         </is>
       </c>
       <c r="E3026" t="inlineStr"/>
@@ -82488,22 +82514,26 @@
     <row r="3027">
       <c r="A3027" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3027" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJUL/11</t>
+          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
         </is>
       </c>
       <c r="C3027" t="inlineStr"/>
       <c r="D3027" t="inlineStr">
         <is>
-          <t>281.6</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E3027" t="inlineStr"/>
-      <c r="F3027" t="inlineStr"/>
+      <c r="F3027" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G3027" t="inlineStr">
         <is>
           <t>3</t>
@@ -82513,22 +82543,26 @@
     <row r="3028">
       <c r="A3028" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3028" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJUL/11</t>
+          <t>Retail Sales YoYJUN</t>
         </is>
       </c>
       <c r="C3028" t="inlineStr"/>
       <c r="D3028" t="inlineStr">
         <is>
-          <t>829.3</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="E3028" t="inlineStr"/>
-      <c r="F3028" t="inlineStr"/>
+      <c r="F3028" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="G3028" t="inlineStr">
         <is>
           <t>3</t>
@@ -82538,72 +82572,76 @@
     <row r="3029">
       <c r="A3029" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3029" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJUL/11</t>
+          <t>Business Inventories MoMMAY</t>
         </is>
       </c>
       <c r="C3029" t="inlineStr"/>
       <c r="D3029" t="inlineStr">
         <is>
-          <t>180.9</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E3029" t="inlineStr"/>
-      <c r="F3029" t="inlineStr"/>
+      <c r="F3029" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G3029" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3030">
       <c r="A3030" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3030" t="inlineStr">
         <is>
-          <t>PPI MoMJUN</t>
+          <t>NAHB Housing Market IndexJUL</t>
         </is>
       </c>
       <c r="C3030" t="inlineStr"/>
       <c r="D3030" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E3030" t="inlineStr"/>
       <c r="F3030" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G3030" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3031">
       <c r="A3031" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3031" t="inlineStr">
         <is>
-          <t>Core PPI MoMJUN</t>
+          <t>Retail Inventories Ex Autos MoMMAY</t>
         </is>
       </c>
       <c r="C3031" t="inlineStr"/>
       <c r="D3031" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E3031" t="inlineStr">
@@ -82613,38 +82651,34 @@
       </c>
       <c r="F3031" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G3031" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3032">
       <c r="A3032" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B3032" t="inlineStr">
         <is>
-          <t>Core PPI YoYJUN</t>
+          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3032" t="inlineStr"/>
       <c r="D3032" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>53Bcf</t>
         </is>
       </c>
       <c r="E3032" t="inlineStr"/>
-      <c r="F3032" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="F3032" t="inlineStr"/>
       <c r="G3032" t="inlineStr">
         <is>
           <t>3</t>
@@ -82654,26 +82688,22 @@
     <row r="3033">
       <c r="A3033" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B3033" t="inlineStr">
         <is>
-          <t>PPIJUN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C3033" t="inlineStr"/>
       <c r="D3033" t="inlineStr">
         <is>
-          <t>148.072</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="E3033" t="inlineStr"/>
-      <c r="F3033" t="inlineStr">
-        <is>
-          <t>148.9</t>
-        </is>
-      </c>
+      <c r="F3033" t="inlineStr"/>
       <c r="G3033" t="inlineStr">
         <is>
           <t>3</t>
@@ -82683,26 +82713,22 @@
     <row r="3034">
       <c r="A3034" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B3034" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMJUN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C3034" t="inlineStr"/>
       <c r="D3034" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>4.275%</t>
         </is>
       </c>
       <c r="E3034" t="inlineStr"/>
-      <c r="F3034" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F3034" t="inlineStr"/>
       <c r="G3034" t="inlineStr">
         <is>
           <t>3</t>
@@ -82712,26 +82738,22 @@
     <row r="3035">
       <c r="A3035" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B3035" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYJUN</t>
+          <t>15-Year Mortgage RateJUL/17</t>
         </is>
       </c>
       <c r="C3035" t="inlineStr"/>
       <c r="D3035" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>5.86%</t>
         </is>
       </c>
       <c r="E3035" t="inlineStr"/>
-      <c r="F3035" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="F3035" t="inlineStr"/>
       <c r="G3035" t="inlineStr">
         <is>
           <t>3</t>
@@ -82741,26 +82763,18 @@
     <row r="3036">
       <c r="A3036" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B3036" t="inlineStr">
         <is>
-          <t>PPI YoYJUN</t>
+          <t>30-Year Mortgage RateJUL/17</t>
         </is>
       </c>
       <c r="C3036" t="inlineStr"/>
-      <c r="D3036" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="D3036" t="inlineStr"/>
       <c r="E3036" t="inlineStr"/>
-      <c r="F3036" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="F3036" t="inlineStr"/>
       <c r="G3036" t="inlineStr">
         <is>
           <t>3</t>
@@ -82770,51 +82784,35 @@
     <row r="3037">
       <c r="A3037" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B3037" t="inlineStr">
-        <is>
-          <t>Fed Hammack Speech</t>
-        </is>
-      </c>
+          <t>Friday July 18 2025</t>
+        </is>
+      </c>
+      <c r="B3037" t="inlineStr"/>
       <c r="C3037" t="inlineStr"/>
       <c r="D3037" t="inlineStr"/>
       <c r="E3037" t="inlineStr"/>
       <c r="F3037" t="inlineStr"/>
-      <c r="G3037" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G3037" t="inlineStr"/>
     </row>
     <row r="3038">
       <c r="A3038" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B3038" t="inlineStr">
         <is>
-          <t>Industrial Production MoMJUN</t>
+          <t>Net Long-term TIC FlowsMAY</t>
         </is>
       </c>
       <c r="C3038" t="inlineStr"/>
       <c r="D3038" t="inlineStr">
         <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E3038" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F3038" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>$-7.8B</t>
+        </is>
+      </c>
+      <c r="E3038" t="inlineStr"/>
+      <c r="F3038" t="inlineStr"/>
       <c r="G3038" t="inlineStr">
         <is>
           <t>2</t>
@@ -82824,30 +82822,22 @@
     <row r="3039">
       <c r="A3039" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B3039" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJUN</t>
+          <t>Foreign Bond InvestmentMAY</t>
         </is>
       </c>
       <c r="C3039" t="inlineStr"/>
       <c r="D3039" t="inlineStr">
         <is>
-          <t>77.4%</t>
-        </is>
-      </c>
-      <c r="E3039" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
-      <c r="F3039" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
+          <t>$-40.8B</t>
+        </is>
+      </c>
+      <c r="E3039" t="inlineStr"/>
+      <c r="F3039" t="inlineStr"/>
       <c r="G3039" t="inlineStr">
         <is>
           <t>3</t>
@@ -82857,26 +82847,22 @@
     <row r="3040">
       <c r="A3040" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B3040" t="inlineStr">
         <is>
-          <t>Industrial Production YoYJUN</t>
+          <t>Overall Net Capital FlowsMAY</t>
         </is>
       </c>
       <c r="C3040" t="inlineStr"/>
       <c r="D3040" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>$-14.2B</t>
         </is>
       </c>
       <c r="E3040" t="inlineStr"/>
-      <c r="F3040" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="F3040" t="inlineStr"/>
       <c r="G3040" t="inlineStr">
         <is>
           <t>3</t>
@@ -82886,26 +82872,18 @@
     <row r="3041">
       <c r="A3041" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B3041" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMJUN</t>
+          <t>Fed Balance SheetJUL/16</t>
         </is>
       </c>
       <c r="C3041" t="inlineStr"/>
-      <c r="D3041" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="D3041" t="inlineStr"/>
       <c r="E3041" t="inlineStr"/>
-      <c r="F3041" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F3041" t="inlineStr"/>
       <c r="G3041" t="inlineStr">
         <is>
           <t>3</t>
@@ -82915,76 +82893,88 @@
     <row r="3042">
       <c r="A3042" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3042" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYJUN</t>
+          <t>Building Permits PrelJUN</t>
         </is>
       </c>
       <c r="C3042" t="inlineStr"/>
       <c r="D3042" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.394M</t>
         </is>
       </c>
       <c r="E3042" t="inlineStr"/>
       <c r="F3042" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>1.37M</t>
         </is>
       </c>
       <c r="G3042" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3043">
       <c r="A3043" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3043" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJUL/11</t>
+          <t>Housing StartsJUN</t>
         </is>
       </c>
       <c r="C3043" t="inlineStr"/>
       <c r="D3043" t="inlineStr">
         <is>
-          <t>7.07M</t>
-        </is>
-      </c>
-      <c r="E3043" t="inlineStr"/>
-      <c r="F3043" t="inlineStr"/>
+          <t>1.256M</t>
+        </is>
+      </c>
+      <c r="E3043" t="inlineStr">
+        <is>
+          <t>1.30M</t>
+        </is>
+      </c>
+      <c r="F3043" t="inlineStr">
+        <is>
+          <t>1.29M</t>
+        </is>
+      </c>
       <c r="G3043" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3044">
       <c r="A3044" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3044" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJUL/11</t>
+          <t>Building Permits MoM PrelJUN</t>
         </is>
       </c>
       <c r="C3044" t="inlineStr"/>
       <c r="D3044" t="inlineStr">
         <is>
-          <t>-2.658M</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="E3044" t="inlineStr"/>
-      <c r="F3044" t="inlineStr"/>
+      <c r="F3044" t="inlineStr">
+        <is>
+          <t>-1.7%</t>
+        </is>
+      </c>
       <c r="G3044" t="inlineStr">
         <is>
           <t>2</t>
@@ -82994,72 +82984,88 @@
     <row r="3045">
       <c r="A3045" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3045" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJUL/11</t>
+          <t>Housing Starts MoMJUN</t>
         </is>
       </c>
       <c r="C3045" t="inlineStr"/>
       <c r="D3045" t="inlineStr">
         <is>
-          <t>-1.358M</t>
+          <t>-9.8%</t>
         </is>
       </c>
       <c r="E3045" t="inlineStr"/>
-      <c r="F3045" t="inlineStr"/>
+      <c r="F3045" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="G3045" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3046">
       <c r="A3046" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3046" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUL/11</t>
+          <t>Michigan Consumer Sentiment PrelJUL</t>
         </is>
       </c>
       <c r="C3046" t="inlineStr"/>
       <c r="D3046" t="inlineStr">
         <is>
-          <t>0.464M</t>
-        </is>
-      </c>
-      <c r="E3046" t="inlineStr"/>
-      <c r="F3046" t="inlineStr"/>
+          <t>60.7</t>
+        </is>
+      </c>
+      <c r="E3046" t="inlineStr">
+        <is>
+          <t>61.5</t>
+        </is>
+      </c>
+      <c r="F3046" t="inlineStr">
+        <is>
+          <t>60.5</t>
+        </is>
+      </c>
       <c r="G3046" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3047">
       <c r="A3047" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3047" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJUL/11</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C3047" t="inlineStr"/>
       <c r="D3047" t="inlineStr">
         <is>
-          <t>0.059M</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="E3047" t="inlineStr"/>
-      <c r="F3047" t="inlineStr"/>
+      <c r="F3047" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
       <c r="G3047" t="inlineStr">
         <is>
           <t>3</t>
@@ -83069,22 +83075,26 @@
     <row r="3048">
       <c r="A3048" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3048" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJUL/11</t>
+          <t>Michigan Consumer Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C3048" t="inlineStr"/>
       <c r="D3048" t="inlineStr">
         <is>
-          <t>-0.825M</t>
+          <t>58.1</t>
         </is>
       </c>
       <c r="E3048" t="inlineStr"/>
-      <c r="F3048" t="inlineStr"/>
+      <c r="F3048" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
       <c r="G3048" t="inlineStr">
         <is>
           <t>3</t>
@@ -83094,22 +83104,26 @@
     <row r="3049">
       <c r="A3049" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3049" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJUL/11</t>
+          <t>Michigan Current Conditions PrelJUL</t>
         </is>
       </c>
       <c r="C3049" t="inlineStr"/>
       <c r="D3049" t="inlineStr">
         <is>
-          <t>0.278M</t>
+          <t>64.8</t>
         </is>
       </c>
       <c r="E3049" t="inlineStr"/>
-      <c r="F3049" t="inlineStr"/>
+      <c r="F3049" t="inlineStr">
+        <is>
+          <t>64.6</t>
+        </is>
+      </c>
       <c r="G3049" t="inlineStr">
         <is>
           <t>3</t>
@@ -83119,22 +83133,26 @@
     <row r="3050">
       <c r="A3050" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3050" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJUL/11</t>
+          <t>Michigan Inflation Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C3050" t="inlineStr"/>
       <c r="D3050" t="inlineStr">
         <is>
-          <t>0.603M</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="E3050" t="inlineStr"/>
-      <c r="F3050" t="inlineStr"/>
+      <c r="F3050" t="inlineStr">
+        <is>
+          <t>4.7%</t>
+        </is>
+      </c>
       <c r="G3050" t="inlineStr">
         <is>
           <t>3</t>
@@ -83144,20 +83162,16 @@
     <row r="3051">
       <c r="A3051" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B3051" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJUL/11</t>
+          <t>Baker Hughes Oil Rig CountJUL/18</t>
         </is>
       </c>
       <c r="C3051" t="inlineStr"/>
-      <c r="D3051" t="inlineStr">
-        <is>
-          <t>-0.099M</t>
-        </is>
-      </c>
+      <c r="D3051" t="inlineStr"/>
       <c r="E3051" t="inlineStr"/>
       <c r="F3051" t="inlineStr"/>
       <c r="G3051" t="inlineStr">
@@ -83169,20 +83183,16 @@
     <row r="3052">
       <c r="A3052" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B3052" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Baker Hughes Total Rigs CountJUL/18</t>
         </is>
       </c>
       <c r="C3052" t="inlineStr"/>
-      <c r="D3052" t="inlineStr">
-        <is>
-          <t>4.230%</t>
-        </is>
-      </c>
+      <c r="D3052" t="inlineStr"/>
       <c r="E3052" t="inlineStr"/>
       <c r="F3052" t="inlineStr"/>
       <c r="G3052" t="inlineStr">
@@ -83194,28 +83204,20 @@
     <row r="3053">
       <c r="A3053" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B3053" t="inlineStr">
-        <is>
-          <t>Fed Beige Book</t>
-        </is>
-      </c>
+          <t>Saturday July 19 2025</t>
+        </is>
+      </c>
+      <c r="B3053" t="inlineStr"/>
       <c r="C3053" t="inlineStr"/>
       <c r="D3053" t="inlineStr"/>
       <c r="E3053" t="inlineStr"/>
       <c r="F3053" t="inlineStr"/>
-      <c r="G3053" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G3053" t="inlineStr"/>
     </row>
     <row r="3054">
       <c r="A3054" t="inlineStr">
         <is>
-          <t>Thursday July 17 2025</t>
+          <t>Sunday July 20 2025</t>
         </is>
       </c>
       <c r="B3054" t="inlineStr"/>
@@ -83225,1183 +83227,6 @@
       <c r="F3054" t="inlineStr"/>
       <c r="G3054" t="inlineStr"/>
     </row>
-    <row r="3055">
-      <c r="A3055" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B3055" t="inlineStr">
-        <is>
-          <t>Fed Williams Speech</t>
-        </is>
-      </c>
-      <c r="C3055" t="inlineStr"/>
-      <c r="D3055" t="inlineStr"/>
-      <c r="E3055" t="inlineStr"/>
-      <c r="F3055" t="inlineStr"/>
-      <c r="G3055" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3056">
-      <c r="A3056" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3056" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3056" t="inlineStr"/>
-      <c r="D3056" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E3056" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F3056" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G3056" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3057">
-      <c r="A3057" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3057" t="inlineStr">
-        <is>
-          <t>Export Prices MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3057" t="inlineStr"/>
-      <c r="D3057" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E3057" t="inlineStr"/>
-      <c r="F3057" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G3057" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3058">
-      <c r="A3058" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3058" t="inlineStr">
-        <is>
-          <t>Import Prices MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3058" t="inlineStr"/>
-      <c r="D3058" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E3058" t="inlineStr"/>
-      <c r="F3058" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G3058" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3059">
-      <c r="A3059" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3059" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUL/12</t>
-        </is>
-      </c>
-      <c r="C3059" t="inlineStr"/>
-      <c r="D3059" t="inlineStr">
-        <is>
-          <t>227K</t>
-        </is>
-      </c>
-      <c r="E3059" t="inlineStr"/>
-      <c r="F3059" t="inlineStr">
-        <is>
-          <t>230.0K</t>
-        </is>
-      </c>
-      <c r="G3059" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3060">
-      <c r="A3060" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3060" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexJUL</t>
-        </is>
-      </c>
-      <c r="C3060" t="inlineStr"/>
-      <c r="D3060" t="inlineStr">
-        <is>
-          <t>-4.0</t>
-        </is>
-      </c>
-      <c r="E3060" t="inlineStr"/>
-      <c r="F3060" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="G3060" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3061">
-      <c r="A3061" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3061" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3061" t="inlineStr"/>
-      <c r="D3061" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E3061" t="inlineStr"/>
-      <c r="F3061" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G3061" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3062">
-      <c r="A3062" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3062" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3062" t="inlineStr"/>
-      <c r="D3062" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E3062" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F3062" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G3062" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3063">
-      <c r="A3063" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3063" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJUL/05</t>
-        </is>
-      </c>
-      <c r="C3063" t="inlineStr"/>
-      <c r="D3063" t="inlineStr">
-        <is>
-          <t>1965K</t>
-        </is>
-      </c>
-      <c r="E3063" t="inlineStr"/>
-      <c r="F3063" t="inlineStr">
-        <is>
-          <t>1970.0K</t>
-        </is>
-      </c>
-      <c r="G3063" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3064">
-      <c r="A3064" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3064" t="inlineStr">
-        <is>
-          <t>Export Prices YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3064" t="inlineStr"/>
-      <c r="D3064" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="E3064" t="inlineStr"/>
-      <c r="F3064" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G3064" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3065">
-      <c r="A3065" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3065" t="inlineStr">
-        <is>
-          <t>Import Prices YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3065" t="inlineStr"/>
-      <c r="D3065" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E3065" t="inlineStr"/>
-      <c r="F3065" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G3065" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3066">
-      <c r="A3066" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3066" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUL/12</t>
-        </is>
-      </c>
-      <c r="C3066" t="inlineStr"/>
-      <c r="D3066" t="inlineStr">
-        <is>
-          <t>235.5K</t>
-        </is>
-      </c>
-      <c r="E3066" t="inlineStr"/>
-      <c r="F3066" t="inlineStr">
-        <is>
-          <t>237.0K</t>
-        </is>
-      </c>
-      <c r="G3066" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3067">
-      <c r="A3067" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3067" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsJUL</t>
-        </is>
-      </c>
-      <c r="C3067" t="inlineStr"/>
-      <c r="D3067" t="inlineStr">
-        <is>
-          <t>18.3</t>
-        </is>
-      </c>
-      <c r="E3067" t="inlineStr"/>
-      <c r="F3067" t="inlineStr"/>
-      <c r="G3067" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3068">
-      <c r="A3068" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3068" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexJUL</t>
-        </is>
-      </c>
-      <c r="C3068" t="inlineStr"/>
-      <c r="D3068" t="inlineStr">
-        <is>
-          <t>14.50</t>
-        </is>
-      </c>
-      <c r="E3068" t="inlineStr"/>
-      <c r="F3068" t="inlineStr"/>
-      <c r="G3068" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3069">
-      <c r="A3069" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3069" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentJUL</t>
-        </is>
-      </c>
-      <c r="C3069" t="inlineStr"/>
-      <c r="D3069" t="inlineStr">
-        <is>
-          <t>-9.8</t>
-        </is>
-      </c>
-      <c r="E3069" t="inlineStr"/>
-      <c r="F3069" t="inlineStr"/>
-      <c r="G3069" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3070">
-      <c r="A3070" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3070" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersJUL</t>
-        </is>
-      </c>
-      <c r="C3070" t="inlineStr"/>
-      <c r="D3070" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="E3070" t="inlineStr"/>
-      <c r="F3070" t="inlineStr"/>
-      <c r="G3070" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3071">
-      <c r="A3071" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3071" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidJUL</t>
-        </is>
-      </c>
-      <c r="C3071" t="inlineStr"/>
-      <c r="D3071" t="inlineStr">
-        <is>
-          <t>41.40</t>
-        </is>
-      </c>
-      <c r="E3071" t="inlineStr"/>
-      <c r="F3071" t="inlineStr"/>
-      <c r="G3071" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3072">
-      <c r="A3072" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3072" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3072" t="inlineStr"/>
-      <c r="D3072" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E3072" t="inlineStr"/>
-      <c r="F3072" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G3072" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3073">
-      <c r="A3073" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3073" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3073" t="inlineStr"/>
-      <c r="D3073" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E3073" t="inlineStr"/>
-      <c r="F3073" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G3073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3074">
-      <c r="A3074" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3074" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMMAY</t>
-        </is>
-      </c>
-      <c r="C3074" t="inlineStr"/>
-      <c r="D3074" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E3074" t="inlineStr"/>
-      <c r="F3074" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G3074" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3075">
-      <c r="A3075" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3075" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexJUL</t>
-        </is>
-      </c>
-      <c r="C3075" t="inlineStr"/>
-      <c r="D3075" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="E3075" t="inlineStr"/>
-      <c r="F3075" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="G3075" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3076">
-      <c r="A3076" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3076" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMMAY</t>
-        </is>
-      </c>
-      <c r="C3076" t="inlineStr"/>
-      <c r="D3076" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E3076" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F3076" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G3076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3077">
-      <c r="A3077" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3077" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3077" t="inlineStr"/>
-      <c r="D3077" t="inlineStr">
-        <is>
-          <t>53Bcf</t>
-        </is>
-      </c>
-      <c r="E3077" t="inlineStr"/>
-      <c r="F3077" t="inlineStr"/>
-      <c r="G3077" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3078">
-      <c r="A3078" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B3078" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C3078" t="inlineStr"/>
-      <c r="D3078" t="inlineStr"/>
-      <c r="E3078" t="inlineStr"/>
-      <c r="F3078" t="inlineStr"/>
-      <c r="G3078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3079">
-      <c r="A3079" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B3079" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C3079" t="inlineStr"/>
-      <c r="D3079" t="inlineStr"/>
-      <c r="E3079" t="inlineStr"/>
-      <c r="F3079" t="inlineStr"/>
-      <c r="G3079" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3080">
-      <c r="A3080" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B3080" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUL/17</t>
-        </is>
-      </c>
-      <c r="C3080" t="inlineStr"/>
-      <c r="D3080" t="inlineStr"/>
-      <c r="E3080" t="inlineStr"/>
-      <c r="F3080" t="inlineStr"/>
-      <c r="G3080" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3081">
-      <c r="A3081" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B3081" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUL/17</t>
-        </is>
-      </c>
-      <c r="C3081" t="inlineStr"/>
-      <c r="D3081" t="inlineStr"/>
-      <c r="E3081" t="inlineStr"/>
-      <c r="F3081" t="inlineStr"/>
-      <c r="G3081" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3082">
-      <c r="A3082" t="inlineStr">
-        <is>
-          <t>Friday July 18 2025</t>
-        </is>
-      </c>
-      <c r="B3082" t="inlineStr"/>
-      <c r="C3082" t="inlineStr"/>
-      <c r="D3082" t="inlineStr"/>
-      <c r="E3082" t="inlineStr"/>
-      <c r="F3082" t="inlineStr"/>
-      <c r="G3082" t="inlineStr"/>
-    </row>
-    <row r="3083">
-      <c r="A3083" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B3083" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsMAY</t>
-        </is>
-      </c>
-      <c r="C3083" t="inlineStr"/>
-      <c r="D3083" t="inlineStr">
-        <is>
-          <t>$-7.8B</t>
-        </is>
-      </c>
-      <c r="E3083" t="inlineStr"/>
-      <c r="F3083" t="inlineStr"/>
-      <c r="G3083" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3084">
-      <c r="A3084" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B3084" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentMAY</t>
-        </is>
-      </c>
-      <c r="C3084" t="inlineStr"/>
-      <c r="D3084" t="inlineStr">
-        <is>
-          <t>$-40.8B</t>
-        </is>
-      </c>
-      <c r="E3084" t="inlineStr"/>
-      <c r="F3084" t="inlineStr"/>
-      <c r="G3084" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3085">
-      <c r="A3085" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B3085" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsMAY</t>
-        </is>
-      </c>
-      <c r="C3085" t="inlineStr"/>
-      <c r="D3085" t="inlineStr">
-        <is>
-          <t>$-14.2B</t>
-        </is>
-      </c>
-      <c r="E3085" t="inlineStr"/>
-      <c r="F3085" t="inlineStr"/>
-      <c r="G3085" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3086">
-      <c r="A3086" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B3086" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUL/16</t>
-        </is>
-      </c>
-      <c r="C3086" t="inlineStr"/>
-      <c r="D3086" t="inlineStr"/>
-      <c r="E3086" t="inlineStr"/>
-      <c r="F3086" t="inlineStr"/>
-      <c r="G3086" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3087">
-      <c r="A3087" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3087" t="inlineStr">
-        <is>
-          <t>Building Permits PrelJUN</t>
-        </is>
-      </c>
-      <c r="C3087" t="inlineStr"/>
-      <c r="D3087" t="inlineStr">
-        <is>
-          <t>1.394M</t>
-        </is>
-      </c>
-      <c r="E3087" t="inlineStr"/>
-      <c r="F3087" t="inlineStr">
-        <is>
-          <t>1.37M</t>
-        </is>
-      </c>
-      <c r="G3087" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3088">
-      <c r="A3088" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3088" t="inlineStr">
-        <is>
-          <t>Housing StartsJUN</t>
-        </is>
-      </c>
-      <c r="C3088" t="inlineStr"/>
-      <c r="D3088" t="inlineStr">
-        <is>
-          <t>1.256M</t>
-        </is>
-      </c>
-      <c r="E3088" t="inlineStr">
-        <is>
-          <t>1.30M</t>
-        </is>
-      </c>
-      <c r="F3088" t="inlineStr">
-        <is>
-          <t>1.29M</t>
-        </is>
-      </c>
-      <c r="G3088" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3089">
-      <c r="A3089" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3089" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelJUN</t>
-        </is>
-      </c>
-      <c r="C3089" t="inlineStr"/>
-      <c r="D3089" t="inlineStr">
-        <is>
-          <t>-2%</t>
-        </is>
-      </c>
-      <c r="E3089" t="inlineStr"/>
-      <c r="F3089" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="G3089" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3090">
-      <c r="A3090" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3090" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3090" t="inlineStr"/>
-      <c r="D3090" t="inlineStr">
-        <is>
-          <t>-9.8%</t>
-        </is>
-      </c>
-      <c r="E3090" t="inlineStr"/>
-      <c r="F3090" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G3090" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3091">
-      <c r="A3091" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3091" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3091" t="inlineStr"/>
-      <c r="D3091" t="inlineStr">
-        <is>
-          <t>60.7</t>
-        </is>
-      </c>
-      <c r="E3091" t="inlineStr">
-        <is>
-          <t>61.5</t>
-        </is>
-      </c>
-      <c r="F3091" t="inlineStr">
-        <is>
-          <t>60.5</t>
-        </is>
-      </c>
-      <c r="G3091" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3092">
-      <c r="A3092" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3092" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3092" t="inlineStr"/>
-      <c r="D3092" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E3092" t="inlineStr"/>
-      <c r="F3092" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G3092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3093">
-      <c r="A3093" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3093" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3093" t="inlineStr"/>
-      <c r="D3093" t="inlineStr">
-        <is>
-          <t>58.1</t>
-        </is>
-      </c>
-      <c r="E3093" t="inlineStr"/>
-      <c r="F3093" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G3093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3094">
-      <c r="A3094" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3094" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3094" t="inlineStr"/>
-      <c r="D3094" t="inlineStr">
-        <is>
-          <t>64.8</t>
-        </is>
-      </c>
-      <c r="E3094" t="inlineStr"/>
-      <c r="F3094" t="inlineStr">
-        <is>
-          <t>64.6</t>
-        </is>
-      </c>
-      <c r="G3094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3095">
-      <c r="A3095" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3095" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3095" t="inlineStr"/>
-      <c r="D3095" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="E3095" t="inlineStr"/>
-      <c r="F3095" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
-      <c r="G3095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3096">
-      <c r="A3096" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B3096" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUL/18</t>
-        </is>
-      </c>
-      <c r="C3096" t="inlineStr"/>
-      <c r="D3096" t="inlineStr"/>
-      <c r="E3096" t="inlineStr"/>
-      <c r="F3096" t="inlineStr"/>
-      <c r="G3096" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3097">
-      <c r="A3097" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B3097" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUL/18</t>
-        </is>
-      </c>
-      <c r="C3097" t="inlineStr"/>
-      <c r="D3097" t="inlineStr"/>
-      <c r="E3097" t="inlineStr"/>
-      <c r="F3097" t="inlineStr"/>
-      <c r="G3097" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3098">
-      <c r="A3098" t="inlineStr">
-        <is>
-          <t>Saturday July 19 2025</t>
-        </is>
-      </c>
-      <c r="B3098" t="inlineStr"/>
-      <c r="C3098" t="inlineStr"/>
-      <c r="D3098" t="inlineStr"/>
-      <c r="E3098" t="inlineStr"/>
-      <c r="F3098" t="inlineStr"/>
-      <c r="G3098" t="inlineStr"/>
-    </row>
-    <row r="3099">
-      <c r="A3099" t="inlineStr">
-        <is>
-          <t>Sunday July 20 2025</t>
-        </is>
-      </c>
-      <c r="B3099" t="inlineStr"/>
-      <c r="C3099" t="inlineStr"/>
-      <c r="D3099" t="inlineStr"/>
-      <c r="E3099" t="inlineStr"/>
-      <c r="F3099" t="inlineStr"/>
-      <c r="G3099" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-20.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3099"/>
+  <dimension ref="A1:G3054"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81625,10 +81625,8 @@
           <t>245.0K</t>
         </is>
       </c>
-      <c r="G2992" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2992" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2993">
@@ -81662,10 +81660,8 @@
           <t>1967.0K</t>
         </is>
       </c>
-      <c r="G2993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2993" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2994">
@@ -81695,10 +81691,8 @@
           <t>243.0K</t>
         </is>
       </c>
-      <c r="G2994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2994" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2995">
@@ -81716,10 +81710,8 @@
       <c r="D2995" t="inlineStr"/>
       <c r="E2995" t="inlineStr"/>
       <c r="F2995" t="inlineStr"/>
-      <c r="G2995" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2995" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2996">
@@ -81749,10 +81741,8 @@
         </is>
       </c>
       <c r="F2996" t="inlineStr"/>
-      <c r="G2996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2996" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2997">
@@ -81778,10 +81768,8 @@
       </c>
       <c r="E2997" t="inlineStr"/>
       <c r="F2997" t="inlineStr"/>
-      <c r="G2997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2998">
@@ -81807,10 +81795,8 @@
       </c>
       <c r="E2998" t="inlineStr"/>
       <c r="F2998" t="inlineStr"/>
-      <c r="G2998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2998" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2999">
@@ -81836,10 +81822,8 @@
       </c>
       <c r="E2999" t="inlineStr"/>
       <c r="F2999" t="inlineStr"/>
-      <c r="G2999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3000">
@@ -81865,10 +81849,8 @@
       </c>
       <c r="E3000" t="inlineStr"/>
       <c r="F3000" t="inlineStr"/>
-      <c r="G3000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G3000" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3001">
@@ -81894,10 +81876,8 @@
       </c>
       <c r="E3001" t="inlineStr"/>
       <c r="F3001" t="inlineStr"/>
-      <c r="G3001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G3001" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3002">
@@ -81915,61 +81895,75 @@
       <c r="D3002" t="inlineStr"/>
       <c r="E3002" t="inlineStr"/>
       <c r="F3002" t="inlineStr"/>
-      <c r="G3002" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G3002" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3003">
       <c r="A3003" t="inlineStr">
         <is>
-          <t>Friday July 11 2025</t>
-        </is>
-      </c>
-      <c r="B3003" t="inlineStr"/>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="B3003" t="inlineStr">
+        <is>
+          <t>EIA Distillate Stocks ChangeJUL/11</t>
+        </is>
+      </c>
       <c r="C3003" t="inlineStr"/>
-      <c r="D3003" t="inlineStr"/>
+      <c r="D3003" t="inlineStr">
+        <is>
+          <t>-0.825M</t>
+        </is>
+      </c>
       <c r="E3003" t="inlineStr"/>
       <c r="F3003" t="inlineStr"/>
-      <c r="G3003" t="inlineStr"/>
+      <c r="G3003" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="3004">
       <c r="A3004" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B3004" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>EIA Gasoline Production ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3004" t="inlineStr"/>
-      <c r="D3004" t="inlineStr"/>
+      <c r="D3004" t="inlineStr">
+        <is>
+          <t>0.278M</t>
+        </is>
+      </c>
       <c r="E3004" t="inlineStr"/>
       <c r="F3004" t="inlineStr"/>
       <c r="G3004" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3005">
       <c r="A3005" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B3005" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJUL/09</t>
+          <t>EIA Heating Oil Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3005" t="inlineStr"/>
       <c r="D3005" t="inlineStr">
         <is>
-          <t>$6.66T</t>
+          <t>0.603M</t>
         </is>
       </c>
       <c r="E3005" t="inlineStr"/>
@@ -81983,16 +81977,20 @@
     <row r="3006">
       <c r="A3006" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B3006" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>EIA Refinery Crude Runs ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3006" t="inlineStr"/>
-      <c r="D3006" t="inlineStr"/>
+      <c r="D3006" t="inlineStr">
+        <is>
+          <t>-0.099M</t>
+        </is>
+      </c>
       <c r="E3006" t="inlineStr"/>
       <c r="F3006" t="inlineStr"/>
       <c r="G3006" t="inlineStr">
@@ -82004,18 +82002,18 @@
     <row r="3007">
       <c r="A3007" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B3007" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUL/11</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C3007" t="inlineStr"/>
       <c r="D3007" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>4.230%</t>
         </is>
       </c>
       <c r="E3007" t="inlineStr"/>
@@ -82029,20 +82027,16 @@
     <row r="3008">
       <c r="A3008" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B3008" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUL/11</t>
+          <t>Fed Beige Book</t>
         </is>
       </c>
       <c r="C3008" t="inlineStr"/>
-      <c r="D3008" t="inlineStr">
-        <is>
-          <t>539</t>
-        </is>
-      </c>
+      <c r="D3008" t="inlineStr"/>
       <c r="E3008" t="inlineStr"/>
       <c r="F3008" t="inlineStr"/>
       <c r="G3008" t="inlineStr">
@@ -82054,111 +82048,127 @@
     <row r="3009">
       <c r="A3009" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B3009" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementJUN</t>
-        </is>
-      </c>
+          <t>Thursday July 17 2025</t>
+        </is>
+      </c>
+      <c r="B3009" t="inlineStr"/>
       <c r="C3009" t="inlineStr"/>
-      <c r="D3009" t="inlineStr">
-        <is>
-          <t>$-316B</t>
-        </is>
-      </c>
-      <c r="E3009" t="inlineStr">
-        <is>
-          <t>$-11B</t>
-        </is>
-      </c>
-      <c r="F3009" t="inlineStr">
-        <is>
-          <t>$-350.0B</t>
-        </is>
-      </c>
-      <c r="G3009" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="D3009" t="inlineStr"/>
+      <c r="E3009" t="inlineStr"/>
+      <c r="F3009" t="inlineStr"/>
+      <c r="G3009" t="inlineStr"/>
     </row>
     <row r="3010">
       <c r="A3010" t="inlineStr">
         <is>
-          <t>Monday July 14 2025</t>
-        </is>
-      </c>
-      <c r="B3010" t="inlineStr"/>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B3010" t="inlineStr">
+        <is>
+          <t>Fed Williams Speech</t>
+        </is>
+      </c>
       <c r="C3010" t="inlineStr"/>
       <c r="D3010" t="inlineStr"/>
       <c r="E3010" t="inlineStr"/>
       <c r="F3010" t="inlineStr"/>
-      <c r="G3010" t="inlineStr"/>
+      <c r="G3010" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="3011">
       <c r="A3011" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3011" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Retail Sales MoMJUN</t>
         </is>
       </c>
       <c r="C3011" t="inlineStr"/>
       <c r="D3011" t="inlineStr">
         <is>
-          <t>4.255%</t>
-        </is>
-      </c>
-      <c r="E3011" t="inlineStr"/>
-      <c r="F3011" t="inlineStr"/>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="E3011" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F3011" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G3011" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3012">
       <c r="A3012" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3012" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Export Prices MoMJUN</t>
         </is>
       </c>
       <c r="C3012" t="inlineStr"/>
       <c r="D3012" t="inlineStr">
         <is>
-          <t>4.145%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="E3012" t="inlineStr"/>
-      <c r="F3012" t="inlineStr"/>
+      <c r="F3012" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G3012" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3013">
       <c r="A3013" t="inlineStr">
         <is>
-          <t>Tuesday July 15 2025</t>
-        </is>
-      </c>
-      <c r="B3013" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B3013" t="inlineStr">
+        <is>
+          <t>Import Prices MoMJUN</t>
+        </is>
+      </c>
       <c r="C3013" t="inlineStr"/>
-      <c r="D3013" t="inlineStr"/>
+      <c r="D3013" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="E3013" t="inlineStr"/>
-      <c r="F3013" t="inlineStr"/>
-      <c r="G3013" t="inlineStr"/>
+      <c r="F3013" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G3013" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="3014">
       <c r="A3014" t="inlineStr">
@@ -82168,28 +82178,24 @@
       </c>
       <c r="B3014" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJUN</t>
+          <t>Initial Jobless ClaimsJUL/12</t>
         </is>
       </c>
       <c r="C3014" t="inlineStr"/>
       <c r="D3014" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E3014" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>227K</t>
+        </is>
+      </c>
+      <c r="E3014" t="inlineStr"/>
       <c r="F3014" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>230.0K</t>
         </is>
       </c>
       <c r="G3014" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -82201,24 +82207,24 @@
       </c>
       <c r="B3015" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJUN</t>
+          <t>Philadelphia Fed Manufacturing IndexJUL</t>
         </is>
       </c>
       <c r="C3015" t="inlineStr"/>
       <c r="D3015" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="E3015" t="inlineStr"/>
       <c r="F3015" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="G3015" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -82230,28 +82236,24 @@
       </c>
       <c r="B3016" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJUN</t>
+          <t>Retail Sales Control Group MoMJUN</t>
         </is>
       </c>
       <c r="C3016" t="inlineStr"/>
       <c r="D3016" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E3016" t="inlineStr">
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E3016" t="inlineStr"/>
+      <c r="F3016" t="inlineStr">
         <is>
           <t>0.3%</t>
         </is>
       </c>
-      <c r="F3016" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
       <c r="G3016" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -82263,24 +82265,28 @@
       </c>
       <c r="B3017" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJUN</t>
+          <t>Retail Sales Ex Autos MoMJUN</t>
         </is>
       </c>
       <c r="C3017" t="inlineStr"/>
       <c r="D3017" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E3017" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="E3017" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F3017" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G3017" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -82292,24 +82298,24 @@
       </c>
       <c r="B3018" t="inlineStr">
         <is>
-          <t>CPIJUN</t>
+          <t>Continuing Jobless ClaimsJUL/05</t>
         </is>
       </c>
       <c r="C3018" t="inlineStr"/>
       <c r="D3018" t="inlineStr">
         <is>
-          <t>321.465</t>
+          <t>1965K</t>
         </is>
       </c>
       <c r="E3018" t="inlineStr"/>
       <c r="F3018" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>1970.0K</t>
         </is>
       </c>
       <c r="G3018" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -82321,24 +82327,24 @@
       </c>
       <c r="B3019" t="inlineStr">
         <is>
-          <t>CPI s.aJUN</t>
+          <t>Export Prices YoYJUN</t>
         </is>
       </c>
       <c r="C3019" t="inlineStr"/>
       <c r="D3019" t="inlineStr">
         <is>
-          <t>320.580</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="E3019" t="inlineStr"/>
       <c r="F3019" t="inlineStr">
         <is>
-          <t>321.2</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="G3019" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -82350,46 +82356,50 @@
       </c>
       <c r="B3020" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexJUL</t>
+          <t>Import Prices YoYJUN</t>
         </is>
       </c>
       <c r="C3020" t="inlineStr"/>
       <c r="D3020" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E3020" t="inlineStr"/>
       <c r="F3020" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G3020" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3021">
       <c r="A3021" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3021" t="inlineStr">
         <is>
-          <t>Redbook YoYJUL/12</t>
+          <t>Jobless Claims 4-week AverageJUL/12</t>
         </is>
       </c>
       <c r="C3021" t="inlineStr"/>
       <c r="D3021" t="inlineStr">
         <is>
-          <t>5.9%</t>
+          <t>235.5K</t>
         </is>
       </c>
       <c r="E3021" t="inlineStr"/>
-      <c r="F3021" t="inlineStr"/>
+      <c r="F3021" t="inlineStr">
+        <is>
+          <t>237.0K</t>
+        </is>
+      </c>
       <c r="G3021" t="inlineStr">
         <is>
           <t>3</t>
@@ -82399,16 +82409,20 @@
     <row r="3022">
       <c r="A3022" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3022" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Philly Fed Business ConditionsJUL</t>
         </is>
       </c>
       <c r="C3022" t="inlineStr"/>
-      <c r="D3022" t="inlineStr"/>
+      <c r="D3022" t="inlineStr">
+        <is>
+          <t>18.3</t>
+        </is>
+      </c>
       <c r="E3022" t="inlineStr"/>
       <c r="F3022" t="inlineStr"/>
       <c r="G3022" t="inlineStr">
@@ -82420,81 +82434,93 @@
     <row r="3023">
       <c r="A3023" t="inlineStr">
         <is>
-          <t>Wednesday July 16 2025</t>
-        </is>
-      </c>
-      <c r="B3023" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B3023" t="inlineStr">
+        <is>
+          <t>Philly Fed CAPEX IndexJUL</t>
+        </is>
+      </c>
       <c r="C3023" t="inlineStr"/>
-      <c r="D3023" t="inlineStr"/>
+      <c r="D3023" t="inlineStr">
+        <is>
+          <t>14.50</t>
+        </is>
+      </c>
       <c r="E3023" t="inlineStr"/>
       <c r="F3023" t="inlineStr"/>
-      <c r="G3023" t="inlineStr"/>
+      <c r="G3023" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="3024">
       <c r="A3024" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3024" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJUL/11</t>
+          <t>Philly Fed EmploymentJUL</t>
         </is>
       </c>
       <c r="C3024" t="inlineStr"/>
       <c r="D3024" t="inlineStr">
         <is>
-          <t>7.1M</t>
+          <t>-9.8</t>
         </is>
       </c>
       <c r="E3024" t="inlineStr"/>
       <c r="F3024" t="inlineStr"/>
       <c r="G3024" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3025">
       <c r="A3025" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3025" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJUL/11</t>
+          <t>Philly Fed New OrdersJUL</t>
         </is>
       </c>
       <c r="C3025" t="inlineStr"/>
       <c r="D3025" t="inlineStr">
         <is>
-          <t>6.77%</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="E3025" t="inlineStr"/>
       <c r="F3025" t="inlineStr"/>
       <c r="G3025" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3026">
       <c r="A3026" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3026" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJUL/11</t>
+          <t>Philly Fed Prices PaidJUL</t>
         </is>
       </c>
       <c r="C3026" t="inlineStr"/>
       <c r="D3026" t="inlineStr">
         <is>
-          <t>9.4%</t>
+          <t>41.40</t>
         </is>
       </c>
       <c r="E3026" t="inlineStr"/>
@@ -82508,22 +82534,26 @@
     <row r="3027">
       <c r="A3027" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3027" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJUL/11</t>
+          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
         </is>
       </c>
       <c r="C3027" t="inlineStr"/>
       <c r="D3027" t="inlineStr">
         <is>
-          <t>281.6</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E3027" t="inlineStr"/>
-      <c r="F3027" t="inlineStr"/>
+      <c r="F3027" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G3027" t="inlineStr">
         <is>
           <t>3</t>
@@ -82533,22 +82563,26 @@
     <row r="3028">
       <c r="A3028" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3028" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJUL/11</t>
+          <t>Retail Sales YoYJUN</t>
         </is>
       </c>
       <c r="C3028" t="inlineStr"/>
       <c r="D3028" t="inlineStr">
         <is>
-          <t>829.3</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="E3028" t="inlineStr"/>
-      <c r="F3028" t="inlineStr"/>
+      <c r="F3028" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="G3028" t="inlineStr">
         <is>
           <t>3</t>
@@ -82558,72 +82592,76 @@
     <row r="3029">
       <c r="A3029" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3029" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJUL/11</t>
+          <t>Business Inventories MoMMAY</t>
         </is>
       </c>
       <c r="C3029" t="inlineStr"/>
       <c r="D3029" t="inlineStr">
         <is>
-          <t>180.9</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E3029" t="inlineStr"/>
-      <c r="F3029" t="inlineStr"/>
+      <c r="F3029" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G3029" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3030">
       <c r="A3030" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3030" t="inlineStr">
         <is>
-          <t>PPI MoMJUN</t>
+          <t>NAHB Housing Market IndexJUL</t>
         </is>
       </c>
       <c r="C3030" t="inlineStr"/>
       <c r="D3030" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E3030" t="inlineStr"/>
       <c r="F3030" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G3030" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3031">
       <c r="A3031" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3031" t="inlineStr">
         <is>
-          <t>Core PPI MoMJUN</t>
+          <t>Retail Inventories Ex Autos MoMMAY</t>
         </is>
       </c>
       <c r="C3031" t="inlineStr"/>
       <c r="D3031" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E3031" t="inlineStr">
@@ -82633,38 +82671,34 @@
       </c>
       <c r="F3031" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G3031" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3032">
       <c r="A3032" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B3032" t="inlineStr">
         <is>
-          <t>Core PPI YoYJUN</t>
+          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3032" t="inlineStr"/>
       <c r="D3032" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>53Bcf</t>
         </is>
       </c>
       <c r="E3032" t="inlineStr"/>
-      <c r="F3032" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="F3032" t="inlineStr"/>
       <c r="G3032" t="inlineStr">
         <is>
           <t>3</t>
@@ -82674,26 +82708,22 @@
     <row r="3033">
       <c r="A3033" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B3033" t="inlineStr">
         <is>
-          <t>PPIJUN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C3033" t="inlineStr"/>
       <c r="D3033" t="inlineStr">
         <is>
-          <t>148.072</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="E3033" t="inlineStr"/>
-      <c r="F3033" t="inlineStr">
-        <is>
-          <t>148.9</t>
-        </is>
-      </c>
+      <c r="F3033" t="inlineStr"/>
       <c r="G3033" t="inlineStr">
         <is>
           <t>3</t>
@@ -82703,26 +82733,22 @@
     <row r="3034">
       <c r="A3034" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B3034" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMJUN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C3034" t="inlineStr"/>
       <c r="D3034" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>4.275%</t>
         </is>
       </c>
       <c r="E3034" t="inlineStr"/>
-      <c r="F3034" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F3034" t="inlineStr"/>
       <c r="G3034" t="inlineStr">
         <is>
           <t>3</t>
@@ -82732,26 +82758,22 @@
     <row r="3035">
       <c r="A3035" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B3035" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYJUN</t>
+          <t>15-Year Mortgage RateJUL/17</t>
         </is>
       </c>
       <c r="C3035" t="inlineStr"/>
       <c r="D3035" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>5.86%</t>
         </is>
       </c>
       <c r="E3035" t="inlineStr"/>
-      <c r="F3035" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="F3035" t="inlineStr"/>
       <c r="G3035" t="inlineStr">
         <is>
           <t>3</t>
@@ -82761,26 +82783,22 @@
     <row r="3036">
       <c r="A3036" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B3036" t="inlineStr">
         <is>
-          <t>PPI YoYJUN</t>
+          <t>30-Year Mortgage RateJUL/17</t>
         </is>
       </c>
       <c r="C3036" t="inlineStr"/>
       <c r="D3036" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>6.72%</t>
         </is>
       </c>
       <c r="E3036" t="inlineStr"/>
-      <c r="F3036" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="F3036" t="inlineStr"/>
       <c r="G3036" t="inlineStr">
         <is>
           <t>3</t>
@@ -82790,51 +82808,35 @@
     <row r="3037">
       <c r="A3037" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B3037" t="inlineStr">
-        <is>
-          <t>Fed Hammack Speech</t>
-        </is>
-      </c>
+          <t>Friday July 18 2025</t>
+        </is>
+      </c>
+      <c r="B3037" t="inlineStr"/>
       <c r="C3037" t="inlineStr"/>
       <c r="D3037" t="inlineStr"/>
       <c r="E3037" t="inlineStr"/>
       <c r="F3037" t="inlineStr"/>
-      <c r="G3037" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G3037" t="inlineStr"/>
     </row>
     <row r="3038">
       <c r="A3038" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B3038" t="inlineStr">
         <is>
-          <t>Industrial Production MoMJUN</t>
+          <t>Net Long-term TIC FlowsMAY</t>
         </is>
       </c>
       <c r="C3038" t="inlineStr"/>
       <c r="D3038" t="inlineStr">
         <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E3038" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F3038" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>$-7.8B</t>
+        </is>
+      </c>
+      <c r="E3038" t="inlineStr"/>
+      <c r="F3038" t="inlineStr"/>
       <c r="G3038" t="inlineStr">
         <is>
           <t>2</t>
@@ -82844,30 +82846,22 @@
     <row r="3039">
       <c r="A3039" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B3039" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJUN</t>
+          <t>Foreign Bond InvestmentMAY</t>
         </is>
       </c>
       <c r="C3039" t="inlineStr"/>
       <c r="D3039" t="inlineStr">
         <is>
-          <t>77.4%</t>
-        </is>
-      </c>
-      <c r="E3039" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
-      <c r="F3039" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
+          <t>$-40.8B</t>
+        </is>
+      </c>
+      <c r="E3039" t="inlineStr"/>
+      <c r="F3039" t="inlineStr"/>
       <c r="G3039" t="inlineStr">
         <is>
           <t>3</t>
@@ -82877,26 +82871,22 @@
     <row r="3040">
       <c r="A3040" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B3040" t="inlineStr">
         <is>
-          <t>Industrial Production YoYJUN</t>
+          <t>Overall Net Capital FlowsMAY</t>
         </is>
       </c>
       <c r="C3040" t="inlineStr"/>
       <c r="D3040" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>$-14.2B</t>
         </is>
       </c>
       <c r="E3040" t="inlineStr"/>
-      <c r="F3040" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="F3040" t="inlineStr"/>
       <c r="G3040" t="inlineStr">
         <is>
           <t>3</t>
@@ -82906,26 +82896,18 @@
     <row r="3041">
       <c r="A3041" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B3041" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMJUN</t>
+          <t>Fed Balance SheetJUL/16</t>
         </is>
       </c>
       <c r="C3041" t="inlineStr"/>
-      <c r="D3041" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="D3041" t="inlineStr"/>
       <c r="E3041" t="inlineStr"/>
-      <c r="F3041" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F3041" t="inlineStr"/>
       <c r="G3041" t="inlineStr">
         <is>
           <t>3</t>
@@ -82935,76 +82917,88 @@
     <row r="3042">
       <c r="A3042" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3042" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYJUN</t>
+          <t>Building Permits PrelJUN</t>
         </is>
       </c>
       <c r="C3042" t="inlineStr"/>
       <c r="D3042" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.394M</t>
         </is>
       </c>
       <c r="E3042" t="inlineStr"/>
       <c r="F3042" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>1.37M</t>
         </is>
       </c>
       <c r="G3042" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3043">
       <c r="A3043" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3043" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJUL/11</t>
+          <t>Housing StartsJUN</t>
         </is>
       </c>
       <c r="C3043" t="inlineStr"/>
       <c r="D3043" t="inlineStr">
         <is>
-          <t>7.07M</t>
-        </is>
-      </c>
-      <c r="E3043" t="inlineStr"/>
-      <c r="F3043" t="inlineStr"/>
+          <t>1.256M</t>
+        </is>
+      </c>
+      <c r="E3043" t="inlineStr">
+        <is>
+          <t>1.30M</t>
+        </is>
+      </c>
+      <c r="F3043" t="inlineStr">
+        <is>
+          <t>1.29M</t>
+        </is>
+      </c>
       <c r="G3043" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3044">
       <c r="A3044" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3044" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJUL/11</t>
+          <t>Building Permits MoM PrelJUN</t>
         </is>
       </c>
       <c r="C3044" t="inlineStr"/>
       <c r="D3044" t="inlineStr">
         <is>
-          <t>-2.658M</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="E3044" t="inlineStr"/>
-      <c r="F3044" t="inlineStr"/>
+      <c r="F3044" t="inlineStr">
+        <is>
+          <t>-1.7%</t>
+        </is>
+      </c>
       <c r="G3044" t="inlineStr">
         <is>
           <t>2</t>
@@ -83014,72 +83008,88 @@
     <row r="3045">
       <c r="A3045" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3045" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJUL/11</t>
+          <t>Housing Starts MoMJUN</t>
         </is>
       </c>
       <c r="C3045" t="inlineStr"/>
       <c r="D3045" t="inlineStr">
         <is>
-          <t>-1.358M</t>
+          <t>-9.8%</t>
         </is>
       </c>
       <c r="E3045" t="inlineStr"/>
-      <c r="F3045" t="inlineStr"/>
+      <c r="F3045" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="G3045" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3046">
       <c r="A3046" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3046" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUL/11</t>
+          <t>Michigan Consumer Sentiment PrelJUL</t>
         </is>
       </c>
       <c r="C3046" t="inlineStr"/>
       <c r="D3046" t="inlineStr">
         <is>
-          <t>0.464M</t>
-        </is>
-      </c>
-      <c r="E3046" t="inlineStr"/>
-      <c r="F3046" t="inlineStr"/>
+          <t>60.7</t>
+        </is>
+      </c>
+      <c r="E3046" t="inlineStr">
+        <is>
+          <t>61.5</t>
+        </is>
+      </c>
+      <c r="F3046" t="inlineStr">
+        <is>
+          <t>60.5</t>
+        </is>
+      </c>
       <c r="G3046" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3047">
       <c r="A3047" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3047" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJUL/11</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C3047" t="inlineStr"/>
       <c r="D3047" t="inlineStr">
         <is>
-          <t>0.059M</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="E3047" t="inlineStr"/>
-      <c r="F3047" t="inlineStr"/>
+      <c r="F3047" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
       <c r="G3047" t="inlineStr">
         <is>
           <t>3</t>
@@ -83089,22 +83099,26 @@
     <row r="3048">
       <c r="A3048" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3048" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJUL/11</t>
+          <t>Michigan Consumer Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C3048" t="inlineStr"/>
       <c r="D3048" t="inlineStr">
         <is>
-          <t>-0.825M</t>
+          <t>58.1</t>
         </is>
       </c>
       <c r="E3048" t="inlineStr"/>
-      <c r="F3048" t="inlineStr"/>
+      <c r="F3048" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
       <c r="G3048" t="inlineStr">
         <is>
           <t>3</t>
@@ -83114,22 +83128,26 @@
     <row r="3049">
       <c r="A3049" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3049" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJUL/11</t>
+          <t>Michigan Current Conditions PrelJUL</t>
         </is>
       </c>
       <c r="C3049" t="inlineStr"/>
       <c r="D3049" t="inlineStr">
         <is>
-          <t>0.278M</t>
+          <t>64.8</t>
         </is>
       </c>
       <c r="E3049" t="inlineStr"/>
-      <c r="F3049" t="inlineStr"/>
+      <c r="F3049" t="inlineStr">
+        <is>
+          <t>64.6</t>
+        </is>
+      </c>
       <c r="G3049" t="inlineStr">
         <is>
           <t>3</t>
@@ -83139,22 +83157,26 @@
     <row r="3050">
       <c r="A3050" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3050" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJUL/11</t>
+          <t>Michigan Inflation Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C3050" t="inlineStr"/>
       <c r="D3050" t="inlineStr">
         <is>
-          <t>0.603M</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="E3050" t="inlineStr"/>
-      <c r="F3050" t="inlineStr"/>
+      <c r="F3050" t="inlineStr">
+        <is>
+          <t>4.7%</t>
+        </is>
+      </c>
       <c r="G3050" t="inlineStr">
         <is>
           <t>3</t>
@@ -83164,20 +83186,16 @@
     <row r="3051">
       <c r="A3051" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B3051" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJUL/11</t>
+          <t>Baker Hughes Oil Rig CountJUL/18</t>
         </is>
       </c>
       <c r="C3051" t="inlineStr"/>
-      <c r="D3051" t="inlineStr">
-        <is>
-          <t>-0.099M</t>
-        </is>
-      </c>
+      <c r="D3051" t="inlineStr"/>
       <c r="E3051" t="inlineStr"/>
       <c r="F3051" t="inlineStr"/>
       <c r="G3051" t="inlineStr">
@@ -83189,20 +83207,16 @@
     <row r="3052">
       <c r="A3052" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B3052" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Baker Hughes Total Rigs CountJUL/18</t>
         </is>
       </c>
       <c r="C3052" t="inlineStr"/>
-      <c r="D3052" t="inlineStr">
-        <is>
-          <t>4.230%</t>
-        </is>
-      </c>
+      <c r="D3052" t="inlineStr"/>
       <c r="E3052" t="inlineStr"/>
       <c r="F3052" t="inlineStr"/>
       <c r="G3052" t="inlineStr">
@@ -83214,28 +83228,20 @@
     <row r="3053">
       <c r="A3053" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B3053" t="inlineStr">
-        <is>
-          <t>Fed Beige Book</t>
-        </is>
-      </c>
+          <t>Saturday July 19 2025</t>
+        </is>
+      </c>
+      <c r="B3053" t="inlineStr"/>
       <c r="C3053" t="inlineStr"/>
       <c r="D3053" t="inlineStr"/>
       <c r="E3053" t="inlineStr"/>
       <c r="F3053" t="inlineStr"/>
-      <c r="G3053" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G3053" t="inlineStr"/>
     </row>
     <row r="3054">
       <c r="A3054" t="inlineStr">
         <is>
-          <t>Thursday July 17 2025</t>
+          <t>Sunday July 20 2025</t>
         </is>
       </c>
       <c r="B3054" t="inlineStr"/>
@@ -83245,1199 +83251,6 @@
       <c r="F3054" t="inlineStr"/>
       <c r="G3054" t="inlineStr"/>
     </row>
-    <row r="3055">
-      <c r="A3055" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B3055" t="inlineStr">
-        <is>
-          <t>Fed Williams Speech</t>
-        </is>
-      </c>
-      <c r="C3055" t="inlineStr"/>
-      <c r="D3055" t="inlineStr"/>
-      <c r="E3055" t="inlineStr"/>
-      <c r="F3055" t="inlineStr"/>
-      <c r="G3055" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3056">
-      <c r="A3056" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3056" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3056" t="inlineStr"/>
-      <c r="D3056" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E3056" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F3056" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G3056" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3057">
-      <c r="A3057" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3057" t="inlineStr">
-        <is>
-          <t>Export Prices MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3057" t="inlineStr"/>
-      <c r="D3057" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E3057" t="inlineStr"/>
-      <c r="F3057" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G3057" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3058">
-      <c r="A3058" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3058" t="inlineStr">
-        <is>
-          <t>Import Prices MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3058" t="inlineStr"/>
-      <c r="D3058" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E3058" t="inlineStr"/>
-      <c r="F3058" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G3058" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3059">
-      <c r="A3059" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3059" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUL/12</t>
-        </is>
-      </c>
-      <c r="C3059" t="inlineStr"/>
-      <c r="D3059" t="inlineStr">
-        <is>
-          <t>227K</t>
-        </is>
-      </c>
-      <c r="E3059" t="inlineStr"/>
-      <c r="F3059" t="inlineStr">
-        <is>
-          <t>230.0K</t>
-        </is>
-      </c>
-      <c r="G3059" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3060">
-      <c r="A3060" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3060" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexJUL</t>
-        </is>
-      </c>
-      <c r="C3060" t="inlineStr"/>
-      <c r="D3060" t="inlineStr">
-        <is>
-          <t>-4.0</t>
-        </is>
-      </c>
-      <c r="E3060" t="inlineStr"/>
-      <c r="F3060" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="G3060" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3061">
-      <c r="A3061" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3061" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3061" t="inlineStr"/>
-      <c r="D3061" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E3061" t="inlineStr"/>
-      <c r="F3061" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G3061" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3062">
-      <c r="A3062" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3062" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3062" t="inlineStr"/>
-      <c r="D3062" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E3062" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F3062" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G3062" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3063">
-      <c r="A3063" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3063" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJUL/05</t>
-        </is>
-      </c>
-      <c r="C3063" t="inlineStr"/>
-      <c r="D3063" t="inlineStr">
-        <is>
-          <t>1965K</t>
-        </is>
-      </c>
-      <c r="E3063" t="inlineStr"/>
-      <c r="F3063" t="inlineStr">
-        <is>
-          <t>1970.0K</t>
-        </is>
-      </c>
-      <c r="G3063" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3064">
-      <c r="A3064" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3064" t="inlineStr">
-        <is>
-          <t>Export Prices YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3064" t="inlineStr"/>
-      <c r="D3064" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="E3064" t="inlineStr"/>
-      <c r="F3064" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G3064" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3065">
-      <c r="A3065" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3065" t="inlineStr">
-        <is>
-          <t>Import Prices YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3065" t="inlineStr"/>
-      <c r="D3065" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E3065" t="inlineStr"/>
-      <c r="F3065" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G3065" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3066">
-      <c r="A3066" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3066" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUL/12</t>
-        </is>
-      </c>
-      <c r="C3066" t="inlineStr"/>
-      <c r="D3066" t="inlineStr">
-        <is>
-          <t>235.5K</t>
-        </is>
-      </c>
-      <c r="E3066" t="inlineStr"/>
-      <c r="F3066" t="inlineStr">
-        <is>
-          <t>237.0K</t>
-        </is>
-      </c>
-      <c r="G3066" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3067">
-      <c r="A3067" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3067" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsJUL</t>
-        </is>
-      </c>
-      <c r="C3067" t="inlineStr"/>
-      <c r="D3067" t="inlineStr">
-        <is>
-          <t>18.3</t>
-        </is>
-      </c>
-      <c r="E3067" t="inlineStr"/>
-      <c r="F3067" t="inlineStr"/>
-      <c r="G3067" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3068">
-      <c r="A3068" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3068" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexJUL</t>
-        </is>
-      </c>
-      <c r="C3068" t="inlineStr"/>
-      <c r="D3068" t="inlineStr">
-        <is>
-          <t>14.50</t>
-        </is>
-      </c>
-      <c r="E3068" t="inlineStr"/>
-      <c r="F3068" t="inlineStr"/>
-      <c r="G3068" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3069">
-      <c r="A3069" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3069" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentJUL</t>
-        </is>
-      </c>
-      <c r="C3069" t="inlineStr"/>
-      <c r="D3069" t="inlineStr">
-        <is>
-          <t>-9.8</t>
-        </is>
-      </c>
-      <c r="E3069" t="inlineStr"/>
-      <c r="F3069" t="inlineStr"/>
-      <c r="G3069" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3070">
-      <c r="A3070" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3070" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersJUL</t>
-        </is>
-      </c>
-      <c r="C3070" t="inlineStr"/>
-      <c r="D3070" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="E3070" t="inlineStr"/>
-      <c r="F3070" t="inlineStr"/>
-      <c r="G3070" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3071">
-      <c r="A3071" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3071" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidJUL</t>
-        </is>
-      </c>
-      <c r="C3071" t="inlineStr"/>
-      <c r="D3071" t="inlineStr">
-        <is>
-          <t>41.40</t>
-        </is>
-      </c>
-      <c r="E3071" t="inlineStr"/>
-      <c r="F3071" t="inlineStr"/>
-      <c r="G3071" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3072">
-      <c r="A3072" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3072" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3072" t="inlineStr"/>
-      <c r="D3072" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E3072" t="inlineStr"/>
-      <c r="F3072" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G3072" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3073">
-      <c r="A3073" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3073" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3073" t="inlineStr"/>
-      <c r="D3073" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E3073" t="inlineStr"/>
-      <c r="F3073" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G3073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3074">
-      <c r="A3074" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3074" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMMAY</t>
-        </is>
-      </c>
-      <c r="C3074" t="inlineStr"/>
-      <c r="D3074" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E3074" t="inlineStr"/>
-      <c r="F3074" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G3074" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3075">
-      <c r="A3075" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3075" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexJUL</t>
-        </is>
-      </c>
-      <c r="C3075" t="inlineStr"/>
-      <c r="D3075" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="E3075" t="inlineStr"/>
-      <c r="F3075" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="G3075" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3076">
-      <c r="A3076" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3076" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMMAY</t>
-        </is>
-      </c>
-      <c r="C3076" t="inlineStr"/>
-      <c r="D3076" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E3076" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F3076" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G3076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3077">
-      <c r="A3077" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3077" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3077" t="inlineStr"/>
-      <c r="D3077" t="inlineStr">
-        <is>
-          <t>53Bcf</t>
-        </is>
-      </c>
-      <c r="E3077" t="inlineStr"/>
-      <c r="F3077" t="inlineStr"/>
-      <c r="G3077" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3078">
-      <c r="A3078" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B3078" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C3078" t="inlineStr"/>
-      <c r="D3078" t="inlineStr">
-        <is>
-          <t>4.235%</t>
-        </is>
-      </c>
-      <c r="E3078" t="inlineStr"/>
-      <c r="F3078" t="inlineStr"/>
-      <c r="G3078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3079">
-      <c r="A3079" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B3079" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C3079" t="inlineStr"/>
-      <c r="D3079" t="inlineStr">
-        <is>
-          <t>4.275%</t>
-        </is>
-      </c>
-      <c r="E3079" t="inlineStr"/>
-      <c r="F3079" t="inlineStr"/>
-      <c r="G3079" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3080">
-      <c r="A3080" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B3080" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUL/17</t>
-        </is>
-      </c>
-      <c r="C3080" t="inlineStr"/>
-      <c r="D3080" t="inlineStr">
-        <is>
-          <t>5.86%</t>
-        </is>
-      </c>
-      <c r="E3080" t="inlineStr"/>
-      <c r="F3080" t="inlineStr"/>
-      <c r="G3080" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3081">
-      <c r="A3081" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B3081" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUL/17</t>
-        </is>
-      </c>
-      <c r="C3081" t="inlineStr"/>
-      <c r="D3081" t="inlineStr">
-        <is>
-          <t>6.72%</t>
-        </is>
-      </c>
-      <c r="E3081" t="inlineStr"/>
-      <c r="F3081" t="inlineStr"/>
-      <c r="G3081" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3082">
-      <c r="A3082" t="inlineStr">
-        <is>
-          <t>Friday July 18 2025</t>
-        </is>
-      </c>
-      <c r="B3082" t="inlineStr"/>
-      <c r="C3082" t="inlineStr"/>
-      <c r="D3082" t="inlineStr"/>
-      <c r="E3082" t="inlineStr"/>
-      <c r="F3082" t="inlineStr"/>
-      <c r="G3082" t="inlineStr"/>
-    </row>
-    <row r="3083">
-      <c r="A3083" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B3083" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsMAY</t>
-        </is>
-      </c>
-      <c r="C3083" t="inlineStr"/>
-      <c r="D3083" t="inlineStr">
-        <is>
-          <t>$-7.8B</t>
-        </is>
-      </c>
-      <c r="E3083" t="inlineStr"/>
-      <c r="F3083" t="inlineStr"/>
-      <c r="G3083" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3084">
-      <c r="A3084" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B3084" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentMAY</t>
-        </is>
-      </c>
-      <c r="C3084" t="inlineStr"/>
-      <c r="D3084" t="inlineStr">
-        <is>
-          <t>$-40.8B</t>
-        </is>
-      </c>
-      <c r="E3084" t="inlineStr"/>
-      <c r="F3084" t="inlineStr"/>
-      <c r="G3084" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3085">
-      <c r="A3085" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B3085" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsMAY</t>
-        </is>
-      </c>
-      <c r="C3085" t="inlineStr"/>
-      <c r="D3085" t="inlineStr">
-        <is>
-          <t>$-14.2B</t>
-        </is>
-      </c>
-      <c r="E3085" t="inlineStr"/>
-      <c r="F3085" t="inlineStr"/>
-      <c r="G3085" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3086">
-      <c r="A3086" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B3086" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUL/16</t>
-        </is>
-      </c>
-      <c r="C3086" t="inlineStr"/>
-      <c r="D3086" t="inlineStr"/>
-      <c r="E3086" t="inlineStr"/>
-      <c r="F3086" t="inlineStr"/>
-      <c r="G3086" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3087">
-      <c r="A3087" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3087" t="inlineStr">
-        <is>
-          <t>Building Permits PrelJUN</t>
-        </is>
-      </c>
-      <c r="C3087" t="inlineStr"/>
-      <c r="D3087" t="inlineStr">
-        <is>
-          <t>1.394M</t>
-        </is>
-      </c>
-      <c r="E3087" t="inlineStr"/>
-      <c r="F3087" t="inlineStr">
-        <is>
-          <t>1.37M</t>
-        </is>
-      </c>
-      <c r="G3087" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3088">
-      <c r="A3088" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3088" t="inlineStr">
-        <is>
-          <t>Housing StartsJUN</t>
-        </is>
-      </c>
-      <c r="C3088" t="inlineStr"/>
-      <c r="D3088" t="inlineStr">
-        <is>
-          <t>1.256M</t>
-        </is>
-      </c>
-      <c r="E3088" t="inlineStr">
-        <is>
-          <t>1.30M</t>
-        </is>
-      </c>
-      <c r="F3088" t="inlineStr">
-        <is>
-          <t>1.29M</t>
-        </is>
-      </c>
-      <c r="G3088" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3089">
-      <c r="A3089" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3089" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelJUN</t>
-        </is>
-      </c>
-      <c r="C3089" t="inlineStr"/>
-      <c r="D3089" t="inlineStr">
-        <is>
-          <t>-2%</t>
-        </is>
-      </c>
-      <c r="E3089" t="inlineStr"/>
-      <c r="F3089" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="G3089" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3090">
-      <c r="A3090" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3090" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3090" t="inlineStr"/>
-      <c r="D3090" t="inlineStr">
-        <is>
-          <t>-9.8%</t>
-        </is>
-      </c>
-      <c r="E3090" t="inlineStr"/>
-      <c r="F3090" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G3090" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3091">
-      <c r="A3091" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3091" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3091" t="inlineStr"/>
-      <c r="D3091" t="inlineStr">
-        <is>
-          <t>60.7</t>
-        </is>
-      </c>
-      <c r="E3091" t="inlineStr">
-        <is>
-          <t>61.5</t>
-        </is>
-      </c>
-      <c r="F3091" t="inlineStr">
-        <is>
-          <t>60.5</t>
-        </is>
-      </c>
-      <c r="G3091" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3092">
-      <c r="A3092" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3092" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3092" t="inlineStr"/>
-      <c r="D3092" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E3092" t="inlineStr"/>
-      <c r="F3092" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G3092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3093">
-      <c r="A3093" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3093" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3093" t="inlineStr"/>
-      <c r="D3093" t="inlineStr">
-        <is>
-          <t>58.1</t>
-        </is>
-      </c>
-      <c r="E3093" t="inlineStr"/>
-      <c r="F3093" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G3093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3094">
-      <c r="A3094" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3094" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3094" t="inlineStr"/>
-      <c r="D3094" t="inlineStr">
-        <is>
-          <t>64.8</t>
-        </is>
-      </c>
-      <c r="E3094" t="inlineStr"/>
-      <c r="F3094" t="inlineStr">
-        <is>
-          <t>64.6</t>
-        </is>
-      </c>
-      <c r="G3094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3095">
-      <c r="A3095" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3095" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3095" t="inlineStr"/>
-      <c r="D3095" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="E3095" t="inlineStr"/>
-      <c r="F3095" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
-      <c r="G3095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3096">
-      <c r="A3096" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B3096" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUL/18</t>
-        </is>
-      </c>
-      <c r="C3096" t="inlineStr"/>
-      <c r="D3096" t="inlineStr"/>
-      <c r="E3096" t="inlineStr"/>
-      <c r="F3096" t="inlineStr"/>
-      <c r="G3096" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3097">
-      <c r="A3097" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B3097" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUL/18</t>
-        </is>
-      </c>
-      <c r="C3097" t="inlineStr"/>
-      <c r="D3097" t="inlineStr"/>
-      <c r="E3097" t="inlineStr"/>
-      <c r="F3097" t="inlineStr"/>
-      <c r="G3097" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3098">
-      <c r="A3098" t="inlineStr">
-        <is>
-          <t>Saturday July 19 2025</t>
-        </is>
-      </c>
-      <c r="B3098" t="inlineStr"/>
-      <c r="C3098" t="inlineStr"/>
-      <c r="D3098" t="inlineStr"/>
-      <c r="E3098" t="inlineStr"/>
-      <c r="F3098" t="inlineStr"/>
-      <c r="G3098" t="inlineStr"/>
-    </row>
-    <row r="3099">
-      <c r="A3099" t="inlineStr">
-        <is>
-          <t>Sunday July 20 2025</t>
-        </is>
-      </c>
-      <c r="B3099" t="inlineStr"/>
-      <c r="C3099" t="inlineStr"/>
-      <c r="D3099" t="inlineStr"/>
-      <c r="E3099" t="inlineStr"/>
-      <c r="F3099" t="inlineStr"/>
-      <c r="G3099" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-20.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3099"/>
+  <dimension ref="A1:G3054"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81625,10 +81625,8 @@
           <t>245.0K</t>
         </is>
       </c>
-      <c r="G2992" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2992" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2993">
@@ -81662,10 +81660,8 @@
           <t>1967.0K</t>
         </is>
       </c>
-      <c r="G2993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2993" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2994">
@@ -81695,10 +81691,8 @@
           <t>243.0K</t>
         </is>
       </c>
-      <c r="G2994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2994" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2995">
@@ -81716,10 +81710,8 @@
       <c r="D2995" t="inlineStr"/>
       <c r="E2995" t="inlineStr"/>
       <c r="F2995" t="inlineStr"/>
-      <c r="G2995" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2995" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2996">
@@ -81749,10 +81741,8 @@
         </is>
       </c>
       <c r="F2996" t="inlineStr"/>
-      <c r="G2996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2996" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2997">
@@ -81778,10 +81768,8 @@
       </c>
       <c r="E2997" t="inlineStr"/>
       <c r="F2997" t="inlineStr"/>
-      <c r="G2997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2998">
@@ -81807,10 +81795,8 @@
       </c>
       <c r="E2998" t="inlineStr"/>
       <c r="F2998" t="inlineStr"/>
-      <c r="G2998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2998" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2999">
@@ -81836,10 +81822,8 @@
       </c>
       <c r="E2999" t="inlineStr"/>
       <c r="F2999" t="inlineStr"/>
-      <c r="G2999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3000">
@@ -81865,10 +81849,8 @@
       </c>
       <c r="E3000" t="inlineStr"/>
       <c r="F3000" t="inlineStr"/>
-      <c r="G3000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G3000" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3001">
@@ -81894,10 +81876,8 @@
       </c>
       <c r="E3001" t="inlineStr"/>
       <c r="F3001" t="inlineStr"/>
-      <c r="G3001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G3001" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3002">
@@ -81915,65 +81895,75 @@
       <c r="D3002" t="inlineStr"/>
       <c r="E3002" t="inlineStr"/>
       <c r="F3002" t="inlineStr"/>
-      <c r="G3002" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G3002" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3003">
       <c r="A3003" t="inlineStr">
         <is>
-          <t>Friday July 11 2025</t>
-        </is>
-      </c>
-      <c r="B3003" t="inlineStr"/>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="B3003" t="inlineStr">
+        <is>
+          <t>EIA Distillate Stocks ChangeJUL/11</t>
+        </is>
+      </c>
       <c r="C3003" t="inlineStr"/>
-      <c r="D3003" t="inlineStr"/>
+      <c r="D3003" t="inlineStr">
+        <is>
+          <t>-0.825M</t>
+        </is>
+      </c>
       <c r="E3003" t="inlineStr"/>
       <c r="F3003" t="inlineStr"/>
-      <c r="G3003" t="inlineStr"/>
+      <c r="G3003" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="3004">
       <c r="A3004" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B3004" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>EIA Gasoline Production ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3004" t="inlineStr"/>
-      <c r="D3004" t="inlineStr"/>
+      <c r="D3004" t="inlineStr">
+        <is>
+          <t>0.278M</t>
+        </is>
+      </c>
       <c r="E3004" t="inlineStr"/>
       <c r="F3004" t="inlineStr"/>
       <c r="G3004" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3005">
       <c r="A3005" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B3005" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJUL/09</t>
-        </is>
-      </c>
-      <c r="C3005" t="inlineStr">
-        <is>
-          <t>$6.66T</t>
-        </is>
-      </c>
+          <t>EIA Heating Oil Stocks ChangeJUL/11</t>
+        </is>
+      </c>
+      <c r="C3005" t="inlineStr"/>
       <c r="D3005" t="inlineStr">
         <is>
-          <t>$6.66T</t>
+          <t>0.603M</t>
         </is>
       </c>
       <c r="E3005" t="inlineStr"/>
@@ -81987,16 +81977,20 @@
     <row r="3006">
       <c r="A3006" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B3006" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>EIA Refinery Crude Runs ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3006" t="inlineStr"/>
-      <c r="D3006" t="inlineStr"/>
+      <c r="D3006" t="inlineStr">
+        <is>
+          <t>-0.099M</t>
+        </is>
+      </c>
       <c r="E3006" t="inlineStr"/>
       <c r="F3006" t="inlineStr"/>
       <c r="G3006" t="inlineStr">
@@ -82008,18 +82002,18 @@
     <row r="3007">
       <c r="A3007" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B3007" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUL/11</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C3007" t="inlineStr"/>
       <c r="D3007" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>4.230%</t>
         </is>
       </c>
       <c r="E3007" t="inlineStr"/>
@@ -82033,20 +82027,16 @@
     <row r="3008">
       <c r="A3008" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B3008" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUL/11</t>
+          <t>Fed Beige Book</t>
         </is>
       </c>
       <c r="C3008" t="inlineStr"/>
-      <c r="D3008" t="inlineStr">
-        <is>
-          <t>539</t>
-        </is>
-      </c>
+      <c r="D3008" t="inlineStr"/>
       <c r="E3008" t="inlineStr"/>
       <c r="F3008" t="inlineStr"/>
       <c r="G3008" t="inlineStr">
@@ -82058,111 +82048,127 @@
     <row r="3009">
       <c r="A3009" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B3009" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementJUN</t>
-        </is>
-      </c>
+          <t>Thursday July 17 2025</t>
+        </is>
+      </c>
+      <c r="B3009" t="inlineStr"/>
       <c r="C3009" t="inlineStr"/>
-      <c r="D3009" t="inlineStr">
-        <is>
-          <t>$-316B</t>
-        </is>
-      </c>
-      <c r="E3009" t="inlineStr">
-        <is>
-          <t>$-11B</t>
-        </is>
-      </c>
-      <c r="F3009" t="inlineStr">
-        <is>
-          <t>$-350.0B</t>
-        </is>
-      </c>
-      <c r="G3009" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="D3009" t="inlineStr"/>
+      <c r="E3009" t="inlineStr"/>
+      <c r="F3009" t="inlineStr"/>
+      <c r="G3009" t="inlineStr"/>
     </row>
     <row r="3010">
       <c r="A3010" t="inlineStr">
         <is>
-          <t>Monday July 14 2025</t>
-        </is>
-      </c>
-      <c r="B3010" t="inlineStr"/>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B3010" t="inlineStr">
+        <is>
+          <t>Fed Williams Speech</t>
+        </is>
+      </c>
       <c r="C3010" t="inlineStr"/>
       <c r="D3010" t="inlineStr"/>
       <c r="E3010" t="inlineStr"/>
       <c r="F3010" t="inlineStr"/>
-      <c r="G3010" t="inlineStr"/>
+      <c r="G3010" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="3011">
       <c r="A3011" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3011" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Retail Sales MoMJUN</t>
         </is>
       </c>
       <c r="C3011" t="inlineStr"/>
       <c r="D3011" t="inlineStr">
         <is>
-          <t>4.255%</t>
-        </is>
-      </c>
-      <c r="E3011" t="inlineStr"/>
-      <c r="F3011" t="inlineStr"/>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="E3011" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F3011" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G3011" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3012">
       <c r="A3012" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3012" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Export Prices MoMJUN</t>
         </is>
       </c>
       <c r="C3012" t="inlineStr"/>
       <c r="D3012" t="inlineStr">
         <is>
-          <t>4.145%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="E3012" t="inlineStr"/>
-      <c r="F3012" t="inlineStr"/>
+      <c r="F3012" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G3012" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3013">
       <c r="A3013" t="inlineStr">
         <is>
-          <t>Tuesday July 15 2025</t>
-        </is>
-      </c>
-      <c r="B3013" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B3013" t="inlineStr">
+        <is>
+          <t>Import Prices MoMJUN</t>
+        </is>
+      </c>
       <c r="C3013" t="inlineStr"/>
-      <c r="D3013" t="inlineStr"/>
+      <c r="D3013" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="E3013" t="inlineStr"/>
-      <c r="F3013" t="inlineStr"/>
-      <c r="G3013" t="inlineStr"/>
+      <c r="F3013" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G3013" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="3014">
       <c r="A3014" t="inlineStr">
@@ -82172,28 +82178,24 @@
       </c>
       <c r="B3014" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJUN</t>
+          <t>Initial Jobless ClaimsJUL/12</t>
         </is>
       </c>
       <c r="C3014" t="inlineStr"/>
       <c r="D3014" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E3014" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>227K</t>
+        </is>
+      </c>
+      <c r="E3014" t="inlineStr"/>
       <c r="F3014" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>230.0K</t>
         </is>
       </c>
       <c r="G3014" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -82205,24 +82207,24 @@
       </c>
       <c r="B3015" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJUN</t>
+          <t>Philadelphia Fed Manufacturing IndexJUL</t>
         </is>
       </c>
       <c r="C3015" t="inlineStr"/>
       <c r="D3015" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="E3015" t="inlineStr"/>
       <c r="F3015" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="G3015" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -82234,28 +82236,24 @@
       </c>
       <c r="B3016" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJUN</t>
+          <t>Retail Sales Control Group MoMJUN</t>
         </is>
       </c>
       <c r="C3016" t="inlineStr"/>
       <c r="D3016" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E3016" t="inlineStr">
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E3016" t="inlineStr"/>
+      <c r="F3016" t="inlineStr">
         <is>
           <t>0.3%</t>
         </is>
       </c>
-      <c r="F3016" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
       <c r="G3016" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -82267,24 +82265,28 @@
       </c>
       <c r="B3017" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJUN</t>
+          <t>Retail Sales Ex Autos MoMJUN</t>
         </is>
       </c>
       <c r="C3017" t="inlineStr"/>
       <c r="D3017" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E3017" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="E3017" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F3017" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G3017" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -82296,24 +82298,24 @@
       </c>
       <c r="B3018" t="inlineStr">
         <is>
-          <t>CPIJUN</t>
+          <t>Continuing Jobless ClaimsJUL/05</t>
         </is>
       </c>
       <c r="C3018" t="inlineStr"/>
       <c r="D3018" t="inlineStr">
         <is>
-          <t>321.465</t>
+          <t>1965K</t>
         </is>
       </c>
       <c r="E3018" t="inlineStr"/>
       <c r="F3018" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>1970.0K</t>
         </is>
       </c>
       <c r="G3018" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -82325,24 +82327,24 @@
       </c>
       <c r="B3019" t="inlineStr">
         <is>
-          <t>CPI s.aJUN</t>
+          <t>Export Prices YoYJUN</t>
         </is>
       </c>
       <c r="C3019" t="inlineStr"/>
       <c r="D3019" t="inlineStr">
         <is>
-          <t>320.580</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="E3019" t="inlineStr"/>
       <c r="F3019" t="inlineStr">
         <is>
-          <t>321.2</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="G3019" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -82354,46 +82356,50 @@
       </c>
       <c r="B3020" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexJUL</t>
+          <t>Import Prices YoYJUN</t>
         </is>
       </c>
       <c r="C3020" t="inlineStr"/>
       <c r="D3020" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E3020" t="inlineStr"/>
       <c r="F3020" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G3020" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3021">
       <c r="A3021" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3021" t="inlineStr">
         <is>
-          <t>Redbook YoYJUL/12</t>
+          <t>Jobless Claims 4-week AverageJUL/12</t>
         </is>
       </c>
       <c r="C3021" t="inlineStr"/>
       <c r="D3021" t="inlineStr">
         <is>
-          <t>5.9%</t>
+          <t>235.5K</t>
         </is>
       </c>
       <c r="E3021" t="inlineStr"/>
-      <c r="F3021" t="inlineStr"/>
+      <c r="F3021" t="inlineStr">
+        <is>
+          <t>237.0K</t>
+        </is>
+      </c>
       <c r="G3021" t="inlineStr">
         <is>
           <t>3</t>
@@ -82403,16 +82409,20 @@
     <row r="3022">
       <c r="A3022" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3022" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Philly Fed Business ConditionsJUL</t>
         </is>
       </c>
       <c r="C3022" t="inlineStr"/>
-      <c r="D3022" t="inlineStr"/>
+      <c r="D3022" t="inlineStr">
+        <is>
+          <t>18.3</t>
+        </is>
+      </c>
       <c r="E3022" t="inlineStr"/>
       <c r="F3022" t="inlineStr"/>
       <c r="G3022" t="inlineStr">
@@ -82424,81 +82434,93 @@
     <row r="3023">
       <c r="A3023" t="inlineStr">
         <is>
-          <t>Wednesday July 16 2025</t>
-        </is>
-      </c>
-      <c r="B3023" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B3023" t="inlineStr">
+        <is>
+          <t>Philly Fed CAPEX IndexJUL</t>
+        </is>
+      </c>
       <c r="C3023" t="inlineStr"/>
-      <c r="D3023" t="inlineStr"/>
+      <c r="D3023" t="inlineStr">
+        <is>
+          <t>14.50</t>
+        </is>
+      </c>
       <c r="E3023" t="inlineStr"/>
       <c r="F3023" t="inlineStr"/>
-      <c r="G3023" t="inlineStr"/>
+      <c r="G3023" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="3024">
       <c r="A3024" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3024" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJUL/11</t>
+          <t>Philly Fed EmploymentJUL</t>
         </is>
       </c>
       <c r="C3024" t="inlineStr"/>
       <c r="D3024" t="inlineStr">
         <is>
-          <t>7.1M</t>
+          <t>-9.8</t>
         </is>
       </c>
       <c r="E3024" t="inlineStr"/>
       <c r="F3024" t="inlineStr"/>
       <c r="G3024" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3025">
       <c r="A3025" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3025" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJUL/11</t>
+          <t>Philly Fed New OrdersJUL</t>
         </is>
       </c>
       <c r="C3025" t="inlineStr"/>
       <c r="D3025" t="inlineStr">
         <is>
-          <t>6.77%</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="E3025" t="inlineStr"/>
       <c r="F3025" t="inlineStr"/>
       <c r="G3025" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3026">
       <c r="A3026" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3026" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJUL/11</t>
+          <t>Philly Fed Prices PaidJUL</t>
         </is>
       </c>
       <c r="C3026" t="inlineStr"/>
       <c r="D3026" t="inlineStr">
         <is>
-          <t>9.4%</t>
+          <t>41.40</t>
         </is>
       </c>
       <c r="E3026" t="inlineStr"/>
@@ -82512,22 +82534,26 @@
     <row r="3027">
       <c r="A3027" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3027" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJUL/11</t>
+          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
         </is>
       </c>
       <c r="C3027" t="inlineStr"/>
       <c r="D3027" t="inlineStr">
         <is>
-          <t>281.6</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E3027" t="inlineStr"/>
-      <c r="F3027" t="inlineStr"/>
+      <c r="F3027" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G3027" t="inlineStr">
         <is>
           <t>3</t>
@@ -82537,22 +82563,26 @@
     <row r="3028">
       <c r="A3028" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3028" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJUL/11</t>
+          <t>Retail Sales YoYJUN</t>
         </is>
       </c>
       <c r="C3028" t="inlineStr"/>
       <c r="D3028" t="inlineStr">
         <is>
-          <t>829.3</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="E3028" t="inlineStr"/>
-      <c r="F3028" t="inlineStr"/>
+      <c r="F3028" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="G3028" t="inlineStr">
         <is>
           <t>3</t>
@@ -82562,72 +82592,76 @@
     <row r="3029">
       <c r="A3029" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3029" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJUL/11</t>
+          <t>Business Inventories MoMMAY</t>
         </is>
       </c>
       <c r="C3029" t="inlineStr"/>
       <c r="D3029" t="inlineStr">
         <is>
-          <t>180.9</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E3029" t="inlineStr"/>
-      <c r="F3029" t="inlineStr"/>
+      <c r="F3029" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G3029" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3030">
       <c r="A3030" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3030" t="inlineStr">
         <is>
-          <t>PPI MoMJUN</t>
+          <t>NAHB Housing Market IndexJUL</t>
         </is>
       </c>
       <c r="C3030" t="inlineStr"/>
       <c r="D3030" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E3030" t="inlineStr"/>
       <c r="F3030" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G3030" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3031">
       <c r="A3031" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3031" t="inlineStr">
         <is>
-          <t>Core PPI MoMJUN</t>
+          <t>Retail Inventories Ex Autos MoMMAY</t>
         </is>
       </c>
       <c r="C3031" t="inlineStr"/>
       <c r="D3031" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E3031" t="inlineStr">
@@ -82637,38 +82671,34 @@
       </c>
       <c r="F3031" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G3031" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3032">
       <c r="A3032" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B3032" t="inlineStr">
         <is>
-          <t>Core PPI YoYJUN</t>
+          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
         </is>
       </c>
       <c r="C3032" t="inlineStr"/>
       <c r="D3032" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>53Bcf</t>
         </is>
       </c>
       <c r="E3032" t="inlineStr"/>
-      <c r="F3032" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="F3032" t="inlineStr"/>
       <c r="G3032" t="inlineStr">
         <is>
           <t>3</t>
@@ -82678,26 +82708,22 @@
     <row r="3033">
       <c r="A3033" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B3033" t="inlineStr">
         <is>
-          <t>PPIJUN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C3033" t="inlineStr"/>
       <c r="D3033" t="inlineStr">
         <is>
-          <t>148.072</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="E3033" t="inlineStr"/>
-      <c r="F3033" t="inlineStr">
-        <is>
-          <t>148.9</t>
-        </is>
-      </c>
+      <c r="F3033" t="inlineStr"/>
       <c r="G3033" t="inlineStr">
         <is>
           <t>3</t>
@@ -82707,26 +82733,22 @@
     <row r="3034">
       <c r="A3034" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B3034" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMJUN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C3034" t="inlineStr"/>
       <c r="D3034" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>4.275%</t>
         </is>
       </c>
       <c r="E3034" t="inlineStr"/>
-      <c r="F3034" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F3034" t="inlineStr"/>
       <c r="G3034" t="inlineStr">
         <is>
           <t>3</t>
@@ -82736,26 +82758,22 @@
     <row r="3035">
       <c r="A3035" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B3035" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYJUN</t>
+          <t>15-Year Mortgage RateJUL/17</t>
         </is>
       </c>
       <c r="C3035" t="inlineStr"/>
       <c r="D3035" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>5.86%</t>
         </is>
       </c>
       <c r="E3035" t="inlineStr"/>
-      <c r="F3035" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="F3035" t="inlineStr"/>
       <c r="G3035" t="inlineStr">
         <is>
           <t>3</t>
@@ -82765,26 +82783,22 @@
     <row r="3036">
       <c r="A3036" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B3036" t="inlineStr">
         <is>
-          <t>PPI YoYJUN</t>
+          <t>30-Year Mortgage RateJUL/17</t>
         </is>
       </c>
       <c r="C3036" t="inlineStr"/>
       <c r="D3036" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>6.72%</t>
         </is>
       </c>
       <c r="E3036" t="inlineStr"/>
-      <c r="F3036" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="F3036" t="inlineStr"/>
       <c r="G3036" t="inlineStr">
         <is>
           <t>3</t>
@@ -82794,51 +82808,35 @@
     <row r="3037">
       <c r="A3037" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B3037" t="inlineStr">
-        <is>
-          <t>Fed Hammack Speech</t>
-        </is>
-      </c>
+          <t>Friday July 18 2025</t>
+        </is>
+      </c>
+      <c r="B3037" t="inlineStr"/>
       <c r="C3037" t="inlineStr"/>
       <c r="D3037" t="inlineStr"/>
       <c r="E3037" t="inlineStr"/>
       <c r="F3037" t="inlineStr"/>
-      <c r="G3037" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G3037" t="inlineStr"/>
     </row>
     <row r="3038">
       <c r="A3038" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B3038" t="inlineStr">
         <is>
-          <t>Industrial Production MoMJUN</t>
+          <t>Net Long-term TIC FlowsMAY</t>
         </is>
       </c>
       <c r="C3038" t="inlineStr"/>
       <c r="D3038" t="inlineStr">
         <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E3038" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F3038" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>$-7.8B</t>
+        </is>
+      </c>
+      <c r="E3038" t="inlineStr"/>
+      <c r="F3038" t="inlineStr"/>
       <c r="G3038" t="inlineStr">
         <is>
           <t>2</t>
@@ -82848,30 +82846,22 @@
     <row r="3039">
       <c r="A3039" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B3039" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJUN</t>
+          <t>Foreign Bond InvestmentMAY</t>
         </is>
       </c>
       <c r="C3039" t="inlineStr"/>
       <c r="D3039" t="inlineStr">
         <is>
-          <t>77.4%</t>
-        </is>
-      </c>
-      <c r="E3039" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
-      <c r="F3039" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
+          <t>$-40.8B</t>
+        </is>
+      </c>
+      <c r="E3039" t="inlineStr"/>
+      <c r="F3039" t="inlineStr"/>
       <c r="G3039" t="inlineStr">
         <is>
           <t>3</t>
@@ -82881,26 +82871,22 @@
     <row r="3040">
       <c r="A3040" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B3040" t="inlineStr">
         <is>
-          <t>Industrial Production YoYJUN</t>
+          <t>Overall Net Capital FlowsMAY</t>
         </is>
       </c>
       <c r="C3040" t="inlineStr"/>
       <c r="D3040" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>$-14.2B</t>
         </is>
       </c>
       <c r="E3040" t="inlineStr"/>
-      <c r="F3040" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="F3040" t="inlineStr"/>
       <c r="G3040" t="inlineStr">
         <is>
           <t>3</t>
@@ -82910,26 +82896,22 @@
     <row r="3041">
       <c r="A3041" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B3041" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMJUN</t>
+          <t>Fed Balance SheetJUL/16</t>
         </is>
       </c>
       <c r="C3041" t="inlineStr"/>
       <c r="D3041" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>$6.66T</t>
         </is>
       </c>
       <c r="E3041" t="inlineStr"/>
-      <c r="F3041" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F3041" t="inlineStr"/>
       <c r="G3041" t="inlineStr">
         <is>
           <t>3</t>
@@ -82939,76 +82921,88 @@
     <row r="3042">
       <c r="A3042" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3042" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYJUN</t>
+          <t>Building Permits PrelJUN</t>
         </is>
       </c>
       <c r="C3042" t="inlineStr"/>
       <c r="D3042" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.394M</t>
         </is>
       </c>
       <c r="E3042" t="inlineStr"/>
       <c r="F3042" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>1.37M</t>
         </is>
       </c>
       <c r="G3042" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3043">
       <c r="A3043" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3043" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJUL/11</t>
+          <t>Housing StartsJUN</t>
         </is>
       </c>
       <c r="C3043" t="inlineStr"/>
       <c r="D3043" t="inlineStr">
         <is>
-          <t>7.07M</t>
-        </is>
-      </c>
-      <c r="E3043" t="inlineStr"/>
-      <c r="F3043" t="inlineStr"/>
+          <t>1.256M</t>
+        </is>
+      </c>
+      <c r="E3043" t="inlineStr">
+        <is>
+          <t>1.30M</t>
+        </is>
+      </c>
+      <c r="F3043" t="inlineStr">
+        <is>
+          <t>1.29M</t>
+        </is>
+      </c>
       <c r="G3043" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3044">
       <c r="A3044" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3044" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJUL/11</t>
+          <t>Building Permits MoM PrelJUN</t>
         </is>
       </c>
       <c r="C3044" t="inlineStr"/>
       <c r="D3044" t="inlineStr">
         <is>
-          <t>-2.658M</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="E3044" t="inlineStr"/>
-      <c r="F3044" t="inlineStr"/>
+      <c r="F3044" t="inlineStr">
+        <is>
+          <t>-1.7%</t>
+        </is>
+      </c>
       <c r="G3044" t="inlineStr">
         <is>
           <t>2</t>
@@ -83018,72 +83012,88 @@
     <row r="3045">
       <c r="A3045" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3045" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJUL/11</t>
+          <t>Housing Starts MoMJUN</t>
         </is>
       </c>
       <c r="C3045" t="inlineStr"/>
       <c r="D3045" t="inlineStr">
         <is>
-          <t>-1.358M</t>
+          <t>-9.8%</t>
         </is>
       </c>
       <c r="E3045" t="inlineStr"/>
-      <c r="F3045" t="inlineStr"/>
+      <c r="F3045" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="G3045" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3046">
       <c r="A3046" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3046" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUL/11</t>
+          <t>Michigan Consumer Sentiment PrelJUL</t>
         </is>
       </c>
       <c r="C3046" t="inlineStr"/>
       <c r="D3046" t="inlineStr">
         <is>
-          <t>0.464M</t>
-        </is>
-      </c>
-      <c r="E3046" t="inlineStr"/>
-      <c r="F3046" t="inlineStr"/>
+          <t>60.7</t>
+        </is>
+      </c>
+      <c r="E3046" t="inlineStr">
+        <is>
+          <t>61.5</t>
+        </is>
+      </c>
+      <c r="F3046" t="inlineStr">
+        <is>
+          <t>60.5</t>
+        </is>
+      </c>
       <c r="G3046" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3047">
       <c r="A3047" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3047" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJUL/11</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C3047" t="inlineStr"/>
       <c r="D3047" t="inlineStr">
         <is>
-          <t>0.059M</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="E3047" t="inlineStr"/>
-      <c r="F3047" t="inlineStr"/>
+      <c r="F3047" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
       <c r="G3047" t="inlineStr">
         <is>
           <t>3</t>
@@ -83093,22 +83103,26 @@
     <row r="3048">
       <c r="A3048" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3048" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJUL/11</t>
+          <t>Michigan Consumer Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C3048" t="inlineStr"/>
       <c r="D3048" t="inlineStr">
         <is>
-          <t>-0.825M</t>
+          <t>58.1</t>
         </is>
       </c>
       <c r="E3048" t="inlineStr"/>
-      <c r="F3048" t="inlineStr"/>
+      <c r="F3048" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
       <c r="G3048" t="inlineStr">
         <is>
           <t>3</t>
@@ -83118,22 +83132,26 @@
     <row r="3049">
       <c r="A3049" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3049" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJUL/11</t>
+          <t>Michigan Current Conditions PrelJUL</t>
         </is>
       </c>
       <c r="C3049" t="inlineStr"/>
       <c r="D3049" t="inlineStr">
         <is>
-          <t>0.278M</t>
+          <t>64.8</t>
         </is>
       </c>
       <c r="E3049" t="inlineStr"/>
-      <c r="F3049" t="inlineStr"/>
+      <c r="F3049" t="inlineStr">
+        <is>
+          <t>64.6</t>
+        </is>
+      </c>
       <c r="G3049" t="inlineStr">
         <is>
           <t>3</t>
@@ -83143,22 +83161,26 @@
     <row r="3050">
       <c r="A3050" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3050" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJUL/11</t>
+          <t>Michigan Inflation Expectations PrelJUL</t>
         </is>
       </c>
       <c r="C3050" t="inlineStr"/>
       <c r="D3050" t="inlineStr">
         <is>
-          <t>0.603M</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="E3050" t="inlineStr"/>
-      <c r="F3050" t="inlineStr"/>
+      <c r="F3050" t="inlineStr">
+        <is>
+          <t>4.7%</t>
+        </is>
+      </c>
       <c r="G3050" t="inlineStr">
         <is>
           <t>3</t>
@@ -83168,20 +83190,16 @@
     <row r="3051">
       <c r="A3051" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B3051" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJUL/11</t>
+          <t>Baker Hughes Oil Rig CountJUL/18</t>
         </is>
       </c>
       <c r="C3051" t="inlineStr"/>
-      <c r="D3051" t="inlineStr">
-        <is>
-          <t>-0.099M</t>
-        </is>
-      </c>
+      <c r="D3051" t="inlineStr"/>
       <c r="E3051" t="inlineStr"/>
       <c r="F3051" t="inlineStr"/>
       <c r="G3051" t="inlineStr">
@@ -83193,20 +83211,16 @@
     <row r="3052">
       <c r="A3052" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B3052" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Baker Hughes Total Rigs CountJUL/18</t>
         </is>
       </c>
       <c r="C3052" t="inlineStr"/>
-      <c r="D3052" t="inlineStr">
-        <is>
-          <t>4.230%</t>
-        </is>
-      </c>
+      <c r="D3052" t="inlineStr"/>
       <c r="E3052" t="inlineStr"/>
       <c r="F3052" t="inlineStr"/>
       <c r="G3052" t="inlineStr">
@@ -83218,28 +83232,20 @@
     <row r="3053">
       <c r="A3053" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B3053" t="inlineStr">
-        <is>
-          <t>Fed Beige Book</t>
-        </is>
-      </c>
+          <t>Saturday July 19 2025</t>
+        </is>
+      </c>
+      <c r="B3053" t="inlineStr"/>
       <c r="C3053" t="inlineStr"/>
       <c r="D3053" t="inlineStr"/>
       <c r="E3053" t="inlineStr"/>
       <c r="F3053" t="inlineStr"/>
-      <c r="G3053" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G3053" t="inlineStr"/>
     </row>
     <row r="3054">
       <c r="A3054" t="inlineStr">
         <is>
-          <t>Thursday July 17 2025</t>
+          <t>Sunday July 20 2025</t>
         </is>
       </c>
       <c r="B3054" t="inlineStr"/>
@@ -83249,1203 +83255,6 @@
       <c r="F3054" t="inlineStr"/>
       <c r="G3054" t="inlineStr"/>
     </row>
-    <row r="3055">
-      <c r="A3055" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B3055" t="inlineStr">
-        <is>
-          <t>Fed Williams Speech</t>
-        </is>
-      </c>
-      <c r="C3055" t="inlineStr"/>
-      <c r="D3055" t="inlineStr"/>
-      <c r="E3055" t="inlineStr"/>
-      <c r="F3055" t="inlineStr"/>
-      <c r="G3055" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3056">
-      <c r="A3056" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3056" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3056" t="inlineStr"/>
-      <c r="D3056" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E3056" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F3056" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G3056" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3057">
-      <c r="A3057" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3057" t="inlineStr">
-        <is>
-          <t>Export Prices MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3057" t="inlineStr"/>
-      <c r="D3057" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E3057" t="inlineStr"/>
-      <c r="F3057" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G3057" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3058">
-      <c r="A3058" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3058" t="inlineStr">
-        <is>
-          <t>Import Prices MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3058" t="inlineStr"/>
-      <c r="D3058" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E3058" t="inlineStr"/>
-      <c r="F3058" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G3058" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3059">
-      <c r="A3059" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3059" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUL/12</t>
-        </is>
-      </c>
-      <c r="C3059" t="inlineStr"/>
-      <c r="D3059" t="inlineStr">
-        <is>
-          <t>227K</t>
-        </is>
-      </c>
-      <c r="E3059" t="inlineStr"/>
-      <c r="F3059" t="inlineStr">
-        <is>
-          <t>230.0K</t>
-        </is>
-      </c>
-      <c r="G3059" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3060">
-      <c r="A3060" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3060" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexJUL</t>
-        </is>
-      </c>
-      <c r="C3060" t="inlineStr"/>
-      <c r="D3060" t="inlineStr">
-        <is>
-          <t>-4.0</t>
-        </is>
-      </c>
-      <c r="E3060" t="inlineStr"/>
-      <c r="F3060" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="G3060" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3061">
-      <c r="A3061" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3061" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3061" t="inlineStr"/>
-      <c r="D3061" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E3061" t="inlineStr"/>
-      <c r="F3061" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G3061" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3062">
-      <c r="A3062" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3062" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3062" t="inlineStr"/>
-      <c r="D3062" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E3062" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F3062" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G3062" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3063">
-      <c r="A3063" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3063" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJUL/05</t>
-        </is>
-      </c>
-      <c r="C3063" t="inlineStr"/>
-      <c r="D3063" t="inlineStr">
-        <is>
-          <t>1965K</t>
-        </is>
-      </c>
-      <c r="E3063" t="inlineStr"/>
-      <c r="F3063" t="inlineStr">
-        <is>
-          <t>1970.0K</t>
-        </is>
-      </c>
-      <c r="G3063" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3064">
-      <c r="A3064" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3064" t="inlineStr">
-        <is>
-          <t>Export Prices YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3064" t="inlineStr"/>
-      <c r="D3064" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="E3064" t="inlineStr"/>
-      <c r="F3064" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G3064" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3065">
-      <c r="A3065" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3065" t="inlineStr">
-        <is>
-          <t>Import Prices YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3065" t="inlineStr"/>
-      <c r="D3065" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E3065" t="inlineStr"/>
-      <c r="F3065" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G3065" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3066">
-      <c r="A3066" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3066" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUL/12</t>
-        </is>
-      </c>
-      <c r="C3066" t="inlineStr"/>
-      <c r="D3066" t="inlineStr">
-        <is>
-          <t>235.5K</t>
-        </is>
-      </c>
-      <c r="E3066" t="inlineStr"/>
-      <c r="F3066" t="inlineStr">
-        <is>
-          <t>237.0K</t>
-        </is>
-      </c>
-      <c r="G3066" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3067">
-      <c r="A3067" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3067" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsJUL</t>
-        </is>
-      </c>
-      <c r="C3067" t="inlineStr"/>
-      <c r="D3067" t="inlineStr">
-        <is>
-          <t>18.3</t>
-        </is>
-      </c>
-      <c r="E3067" t="inlineStr"/>
-      <c r="F3067" t="inlineStr"/>
-      <c r="G3067" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3068">
-      <c r="A3068" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3068" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexJUL</t>
-        </is>
-      </c>
-      <c r="C3068" t="inlineStr"/>
-      <c r="D3068" t="inlineStr">
-        <is>
-          <t>14.50</t>
-        </is>
-      </c>
-      <c r="E3068" t="inlineStr"/>
-      <c r="F3068" t="inlineStr"/>
-      <c r="G3068" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3069">
-      <c r="A3069" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3069" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentJUL</t>
-        </is>
-      </c>
-      <c r="C3069" t="inlineStr"/>
-      <c r="D3069" t="inlineStr">
-        <is>
-          <t>-9.8</t>
-        </is>
-      </c>
-      <c r="E3069" t="inlineStr"/>
-      <c r="F3069" t="inlineStr"/>
-      <c r="G3069" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3070">
-      <c r="A3070" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3070" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersJUL</t>
-        </is>
-      </c>
-      <c r="C3070" t="inlineStr"/>
-      <c r="D3070" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="E3070" t="inlineStr"/>
-      <c r="F3070" t="inlineStr"/>
-      <c r="G3070" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3071">
-      <c r="A3071" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3071" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidJUL</t>
-        </is>
-      </c>
-      <c r="C3071" t="inlineStr"/>
-      <c r="D3071" t="inlineStr">
-        <is>
-          <t>41.40</t>
-        </is>
-      </c>
-      <c r="E3071" t="inlineStr"/>
-      <c r="F3071" t="inlineStr"/>
-      <c r="G3071" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3072">
-      <c r="A3072" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3072" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3072" t="inlineStr"/>
-      <c r="D3072" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E3072" t="inlineStr"/>
-      <c r="F3072" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G3072" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3073">
-      <c r="A3073" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3073" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYJUN</t>
-        </is>
-      </c>
-      <c r="C3073" t="inlineStr"/>
-      <c r="D3073" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E3073" t="inlineStr"/>
-      <c r="F3073" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G3073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3074">
-      <c r="A3074" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3074" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMMAY</t>
-        </is>
-      </c>
-      <c r="C3074" t="inlineStr"/>
-      <c r="D3074" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E3074" t="inlineStr"/>
-      <c r="F3074" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G3074" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3075">
-      <c r="A3075" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3075" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexJUL</t>
-        </is>
-      </c>
-      <c r="C3075" t="inlineStr"/>
-      <c r="D3075" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="E3075" t="inlineStr"/>
-      <c r="F3075" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="G3075" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3076">
-      <c r="A3076" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3076" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMMAY</t>
-        </is>
-      </c>
-      <c r="C3076" t="inlineStr"/>
-      <c r="D3076" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E3076" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F3076" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G3076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3077">
-      <c r="A3077" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3077" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUL/11</t>
-        </is>
-      </c>
-      <c r="C3077" t="inlineStr"/>
-      <c r="D3077" t="inlineStr">
-        <is>
-          <t>53Bcf</t>
-        </is>
-      </c>
-      <c r="E3077" t="inlineStr"/>
-      <c r="F3077" t="inlineStr"/>
-      <c r="G3077" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3078">
-      <c r="A3078" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B3078" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C3078" t="inlineStr"/>
-      <c r="D3078" t="inlineStr">
-        <is>
-          <t>4.235%</t>
-        </is>
-      </c>
-      <c r="E3078" t="inlineStr"/>
-      <c r="F3078" t="inlineStr"/>
-      <c r="G3078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3079">
-      <c r="A3079" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B3079" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C3079" t="inlineStr"/>
-      <c r="D3079" t="inlineStr">
-        <is>
-          <t>4.275%</t>
-        </is>
-      </c>
-      <c r="E3079" t="inlineStr"/>
-      <c r="F3079" t="inlineStr"/>
-      <c r="G3079" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3080">
-      <c r="A3080" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B3080" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUL/17</t>
-        </is>
-      </c>
-      <c r="C3080" t="inlineStr"/>
-      <c r="D3080" t="inlineStr">
-        <is>
-          <t>5.86%</t>
-        </is>
-      </c>
-      <c r="E3080" t="inlineStr"/>
-      <c r="F3080" t="inlineStr"/>
-      <c r="G3080" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3081">
-      <c r="A3081" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B3081" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUL/17</t>
-        </is>
-      </c>
-      <c r="C3081" t="inlineStr"/>
-      <c r="D3081" t="inlineStr">
-        <is>
-          <t>6.72%</t>
-        </is>
-      </c>
-      <c r="E3081" t="inlineStr"/>
-      <c r="F3081" t="inlineStr"/>
-      <c r="G3081" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3082">
-      <c r="A3082" t="inlineStr">
-        <is>
-          <t>Friday July 18 2025</t>
-        </is>
-      </c>
-      <c r="B3082" t="inlineStr"/>
-      <c r="C3082" t="inlineStr"/>
-      <c r="D3082" t="inlineStr"/>
-      <c r="E3082" t="inlineStr"/>
-      <c r="F3082" t="inlineStr"/>
-      <c r="G3082" t="inlineStr"/>
-    </row>
-    <row r="3083">
-      <c r="A3083" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B3083" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsMAY</t>
-        </is>
-      </c>
-      <c r="C3083" t="inlineStr"/>
-      <c r="D3083" t="inlineStr">
-        <is>
-          <t>$-7.8B</t>
-        </is>
-      </c>
-      <c r="E3083" t="inlineStr"/>
-      <c r="F3083" t="inlineStr"/>
-      <c r="G3083" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3084">
-      <c r="A3084" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B3084" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentMAY</t>
-        </is>
-      </c>
-      <c r="C3084" t="inlineStr"/>
-      <c r="D3084" t="inlineStr">
-        <is>
-          <t>$-40.8B</t>
-        </is>
-      </c>
-      <c r="E3084" t="inlineStr"/>
-      <c r="F3084" t="inlineStr"/>
-      <c r="G3084" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3085">
-      <c r="A3085" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B3085" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsMAY</t>
-        </is>
-      </c>
-      <c r="C3085" t="inlineStr"/>
-      <c r="D3085" t="inlineStr">
-        <is>
-          <t>$-14.2B</t>
-        </is>
-      </c>
-      <c r="E3085" t="inlineStr"/>
-      <c r="F3085" t="inlineStr"/>
-      <c r="G3085" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3086">
-      <c r="A3086" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B3086" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUL/16</t>
-        </is>
-      </c>
-      <c r="C3086" t="inlineStr"/>
-      <c r="D3086" t="inlineStr">
-        <is>
-          <t>$6.66T</t>
-        </is>
-      </c>
-      <c r="E3086" t="inlineStr"/>
-      <c r="F3086" t="inlineStr"/>
-      <c r="G3086" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3087">
-      <c r="A3087" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3087" t="inlineStr">
-        <is>
-          <t>Building Permits PrelJUN</t>
-        </is>
-      </c>
-      <c r="C3087" t="inlineStr"/>
-      <c r="D3087" t="inlineStr">
-        <is>
-          <t>1.394M</t>
-        </is>
-      </c>
-      <c r="E3087" t="inlineStr"/>
-      <c r="F3087" t="inlineStr">
-        <is>
-          <t>1.37M</t>
-        </is>
-      </c>
-      <c r="G3087" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3088">
-      <c r="A3088" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3088" t="inlineStr">
-        <is>
-          <t>Housing StartsJUN</t>
-        </is>
-      </c>
-      <c r="C3088" t="inlineStr"/>
-      <c r="D3088" t="inlineStr">
-        <is>
-          <t>1.256M</t>
-        </is>
-      </c>
-      <c r="E3088" t="inlineStr">
-        <is>
-          <t>1.30M</t>
-        </is>
-      </c>
-      <c r="F3088" t="inlineStr">
-        <is>
-          <t>1.29M</t>
-        </is>
-      </c>
-      <c r="G3088" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3089">
-      <c r="A3089" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3089" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelJUN</t>
-        </is>
-      </c>
-      <c r="C3089" t="inlineStr"/>
-      <c r="D3089" t="inlineStr">
-        <is>
-          <t>-2%</t>
-        </is>
-      </c>
-      <c r="E3089" t="inlineStr"/>
-      <c r="F3089" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="G3089" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3090">
-      <c r="A3090" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3090" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3090" t="inlineStr"/>
-      <c r="D3090" t="inlineStr">
-        <is>
-          <t>-9.8%</t>
-        </is>
-      </c>
-      <c r="E3090" t="inlineStr"/>
-      <c r="F3090" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G3090" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3091">
-      <c r="A3091" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3091" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3091" t="inlineStr"/>
-      <c r="D3091" t="inlineStr">
-        <is>
-          <t>60.7</t>
-        </is>
-      </c>
-      <c r="E3091" t="inlineStr">
-        <is>
-          <t>61.5</t>
-        </is>
-      </c>
-      <c r="F3091" t="inlineStr">
-        <is>
-          <t>60.5</t>
-        </is>
-      </c>
-      <c r="G3091" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3092">
-      <c r="A3092" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3092" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3092" t="inlineStr"/>
-      <c r="D3092" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E3092" t="inlineStr"/>
-      <c r="F3092" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G3092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3093">
-      <c r="A3093" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3093" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3093" t="inlineStr"/>
-      <c r="D3093" t="inlineStr">
-        <is>
-          <t>58.1</t>
-        </is>
-      </c>
-      <c r="E3093" t="inlineStr"/>
-      <c r="F3093" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G3093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3094">
-      <c r="A3094" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3094" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3094" t="inlineStr"/>
-      <c r="D3094" t="inlineStr">
-        <is>
-          <t>64.8</t>
-        </is>
-      </c>
-      <c r="E3094" t="inlineStr"/>
-      <c r="F3094" t="inlineStr">
-        <is>
-          <t>64.6</t>
-        </is>
-      </c>
-      <c r="G3094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3095">
-      <c r="A3095" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3095" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelJUL</t>
-        </is>
-      </c>
-      <c r="C3095" t="inlineStr"/>
-      <c r="D3095" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="E3095" t="inlineStr"/>
-      <c r="F3095" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
-      <c r="G3095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3096">
-      <c r="A3096" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B3096" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUL/18</t>
-        </is>
-      </c>
-      <c r="C3096" t="inlineStr"/>
-      <c r="D3096" t="inlineStr"/>
-      <c r="E3096" t="inlineStr"/>
-      <c r="F3096" t="inlineStr"/>
-      <c r="G3096" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3097">
-      <c r="A3097" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B3097" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUL/18</t>
-        </is>
-      </c>
-      <c r="C3097" t="inlineStr"/>
-      <c r="D3097" t="inlineStr"/>
-      <c r="E3097" t="inlineStr"/>
-      <c r="F3097" t="inlineStr"/>
-      <c r="G3097" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3098">
-      <c r="A3098" t="inlineStr">
-        <is>
-          <t>Saturday July 19 2025</t>
-        </is>
-      </c>
-      <c r="B3098" t="inlineStr"/>
-      <c r="C3098" t="inlineStr"/>
-      <c r="D3098" t="inlineStr"/>
-      <c r="E3098" t="inlineStr"/>
-      <c r="F3098" t="inlineStr"/>
-      <c r="G3098" t="inlineStr"/>
-    </row>
-    <row r="3099">
-      <c r="A3099" t="inlineStr">
-        <is>
-          <t>Sunday July 20 2025</t>
-        </is>
-      </c>
-      <c r="B3099" t="inlineStr"/>
-      <c r="C3099" t="inlineStr"/>
-      <c r="D3099" t="inlineStr"/>
-      <c r="E3099" t="inlineStr"/>
-      <c r="F3099" t="inlineStr"/>
-      <c r="G3099" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
